--- a/excel/car_database/car database.xlsx
+++ b/excel/car_database/car database.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lenovo\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lenovo\Desktop\mikedevs\data-journey\excel\car_database\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F342E470-17D7-4D76-B73D-9895C20561D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09B276EA-995A-431F-96E7-7F7571F4719B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{196D0D68-09E0-4E97-9B35-E2D7744763AB}"/>
   </bookViews>
@@ -100,9 +100,6 @@
     <t>FD08MTG005</t>
   </si>
   <si>
-    <t>FDO6FCS006</t>
-  </si>
-  <si>
     <t>Ewenty</t>
   </si>
   <si>
@@ -142,9 +139,6 @@
     <t>Rodriguez</t>
   </si>
   <si>
-    <t>GMO9CMR014</t>
-  </si>
-  <si>
     <t>Santos</t>
   </si>
   <si>
@@ -238,9 +232,6 @@
     <t>HO13CIV036</t>
   </si>
   <si>
-    <t>HOO5ODY037</t>
-  </si>
-  <si>
     <t>HO07ODY038</t>
   </si>
   <si>
@@ -386,6 +377,15 @@
   </si>
   <si>
     <t>HO01ODY040</t>
+  </si>
+  <si>
+    <t>FD06FCS006</t>
+  </si>
+  <si>
+    <t>GM09CMR014</t>
+  </si>
+  <si>
+    <t>HO05ODY037</t>
   </si>
 </sst>
 </file>
@@ -1228,8 +1228,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF49C490-40C4-41A8-88BF-87A5D58F4AC8}">
   <dimension ref="A1:N66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="C41" sqref="C41"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C38" sqref="C38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1305,6 +1305,14 @@
         <f>VLOOKUP(D2,D$56:E$66,2)</f>
         <v>Mustang</v>
       </c>
+      <c r="F2" t="str">
+        <f>MID(A2,3,2)</f>
+        <v>06</v>
+      </c>
+      <c r="G2">
+        <f>IF(25-F2&lt;0,100-F2+25,25-F2)</f>
+        <v>19</v>
+      </c>
       <c r="H2">
         <v>40326.800000000003</v>
       </c>
@@ -1338,6 +1346,14 @@
         <f t="shared" ref="E3:E53" si="3">VLOOKUP(D3,D$56:E$66,2)</f>
         <v>Mustang</v>
       </c>
+      <c r="F3" t="str">
+        <f t="shared" ref="F3:F53" si="4">MID(A3,3,2)</f>
+        <v>06</v>
+      </c>
+      <c r="G3">
+        <f t="shared" ref="G3:G53" si="5">IF(25-F3&lt;0,100-F3+25,25-F3)</f>
+        <v>19</v>
+      </c>
       <c r="H3">
         <v>44974.8</v>
       </c>
@@ -1371,6 +1387,14 @@
         <f t="shared" si="3"/>
         <v>Mustang</v>
       </c>
+      <c r="F4" t="str">
+        <f t="shared" si="4"/>
+        <v>08</v>
+      </c>
+      <c r="G4">
+        <f t="shared" si="5"/>
+        <v>17</v>
+      </c>
       <c r="H4">
         <v>44946.5</v>
       </c>
@@ -1404,6 +1428,14 @@
         <f t="shared" si="3"/>
         <v>Mustang</v>
       </c>
+      <c r="F5" t="str">
+        <f t="shared" si="4"/>
+        <v>08</v>
+      </c>
+      <c r="G5">
+        <f t="shared" si="5"/>
+        <v>17</v>
+      </c>
       <c r="H5">
         <v>37558.800000000003</v>
       </c>
@@ -1437,6 +1469,14 @@
         <f t="shared" si="3"/>
         <v>Mustang</v>
       </c>
+      <c r="F6" t="str">
+        <f t="shared" si="4"/>
+        <v>08</v>
+      </c>
+      <c r="G6">
+        <f t="shared" si="5"/>
+        <v>17</v>
+      </c>
       <c r="H6">
         <v>36438.5</v>
       </c>
@@ -1452,7 +1492,7 @@
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>26</v>
+        <v>119</v>
       </c>
       <c r="B7" t="str">
         <f t="shared" si="0"/>
@@ -1469,6 +1509,14 @@
       <c r="E7" t="str">
         <f t="shared" si="3"/>
         <v>Focus</v>
+      </c>
+      <c r="F7" t="str">
+        <f t="shared" si="4"/>
+        <v>06</v>
+      </c>
+      <c r="G7">
+        <f t="shared" si="5"/>
+        <v>19</v>
       </c>
       <c r="H7">
         <v>46311.4</v>
@@ -1477,7 +1525,7 @@
         <v>21</v>
       </c>
       <c r="K7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="L7">
         <v>75000</v>
@@ -1485,7 +1533,7 @@
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B8" t="str">
         <f t="shared" si="0"/>
@@ -1502,6 +1550,14 @@
       <c r="E8" t="str">
         <f t="shared" si="3"/>
         <v>Focus</v>
+      </c>
+      <c r="F8" t="str">
+        <f t="shared" si="4"/>
+        <v>06</v>
+      </c>
+      <c r="G8">
+        <f t="shared" si="5"/>
+        <v>19</v>
       </c>
       <c r="H8">
         <v>52229.5</v>
@@ -1518,7 +1574,7 @@
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B9" t="str">
         <f t="shared" si="0"/>
@@ -1535,6 +1591,14 @@
       <c r="E9" t="str">
         <f t="shared" si="3"/>
         <v>Focus</v>
+      </c>
+      <c r="F9" t="str">
+        <f t="shared" si="4"/>
+        <v>09</v>
+      </c>
+      <c r="G9">
+        <f t="shared" si="5"/>
+        <v>16</v>
       </c>
       <c r="H9">
         <v>35137</v>
@@ -1543,7 +1607,7 @@
         <v>15</v>
       </c>
       <c r="K9" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="L9">
         <v>75000</v>
@@ -1551,7 +1615,7 @@
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B10" t="str">
         <f t="shared" si="0"/>
@@ -1568,6 +1632,14 @@
       <c r="E10" t="str">
         <f t="shared" si="3"/>
         <v>Focus</v>
+      </c>
+      <c r="F10" t="str">
+        <f t="shared" si="4"/>
+        <v>13</v>
+      </c>
+      <c r="G10">
+        <f t="shared" si="5"/>
+        <v>12</v>
       </c>
       <c r="H10">
         <v>27637.1</v>
@@ -1584,7 +1656,7 @@
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B11" t="str">
         <f t="shared" si="0"/>
@@ -1601,6 +1673,14 @@
       <c r="E11" t="str">
         <f t="shared" si="3"/>
         <v>Focus</v>
+      </c>
+      <c r="F11" t="str">
+        <f t="shared" si="4"/>
+        <v>13</v>
+      </c>
+      <c r="G11">
+        <f t="shared" si="5"/>
+        <v>12</v>
       </c>
       <c r="H11">
         <v>27534.799999999999</v>
@@ -1609,7 +1689,7 @@
         <v>18</v>
       </c>
       <c r="K11" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="L11">
         <v>75000</v>
@@ -1617,7 +1697,7 @@
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B12" t="str">
         <f t="shared" si="0"/>
@@ -1634,6 +1714,14 @@
       <c r="E12" t="str">
         <f t="shared" si="3"/>
         <v>Focus</v>
+      </c>
+      <c r="F12" t="str">
+        <f t="shared" si="4"/>
+        <v>12</v>
+      </c>
+      <c r="G12">
+        <f t="shared" si="5"/>
+        <v>13</v>
       </c>
       <c r="H12">
         <v>19341.7</v>
@@ -1642,7 +1730,7 @@
         <v>18</v>
       </c>
       <c r="K12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="L12">
         <v>75000</v>
@@ -1650,7 +1738,7 @@
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B13" t="str">
         <f t="shared" si="0"/>
@@ -1667,6 +1755,14 @@
       <c r="E13" t="str">
         <f t="shared" si="3"/>
         <v>Focus</v>
+      </c>
+      <c r="F13" t="str">
+        <f t="shared" si="4"/>
+        <v>13</v>
+      </c>
+      <c r="G13">
+        <f t="shared" si="5"/>
+        <v>12</v>
       </c>
       <c r="H13">
         <v>22521.599999999999</v>
@@ -1675,7 +1771,7 @@
         <v>15</v>
       </c>
       <c r="K13" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="L13">
         <v>75000</v>
@@ -1683,7 +1779,7 @@
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B14" t="str">
         <f t="shared" si="0"/>
@@ -1701,6 +1797,14 @@
         <f t="shared" si="3"/>
         <v>Focus</v>
       </c>
+      <c r="F14" t="str">
+        <f t="shared" si="4"/>
+        <v>13</v>
+      </c>
+      <c r="G14">
+        <f t="shared" si="5"/>
+        <v>12</v>
+      </c>
       <c r="H14">
         <v>13682.9</v>
       </c>
@@ -1708,7 +1812,7 @@
         <v>15</v>
       </c>
       <c r="K14" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L14">
         <v>75000</v>
@@ -1716,7 +1820,7 @@
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>40</v>
+        <v>120</v>
       </c>
       <c r="B15" t="str">
         <f t="shared" si="0"/>
@@ -1733,6 +1837,14 @@
       <c r="E15" t="str">
         <f t="shared" si="3"/>
         <v>Camero</v>
+      </c>
+      <c r="F15" t="str">
+        <f t="shared" si="4"/>
+        <v>09</v>
+      </c>
+      <c r="G15">
+        <f t="shared" si="5"/>
+        <v>16</v>
       </c>
       <c r="H15">
         <v>28464.799999999999</v>
@@ -1741,7 +1853,7 @@
         <v>18</v>
       </c>
       <c r="K15" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="L15">
         <v>100000</v>
@@ -1749,7 +1861,7 @@
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B16" t="str">
         <f t="shared" si="0"/>
@@ -1766,6 +1878,14 @@
       <c r="E16" t="str">
         <f t="shared" si="3"/>
         <v>Camero</v>
+      </c>
+      <c r="F16" t="str">
+        <f t="shared" si="4"/>
+        <v>12</v>
+      </c>
+      <c r="G16">
+        <f t="shared" si="5"/>
+        <v>13</v>
       </c>
       <c r="H16">
         <v>19421.099999999999</v>
@@ -1774,7 +1894,7 @@
         <v>15</v>
       </c>
       <c r="K16" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="L16">
         <v>100000</v>
@@ -1782,7 +1902,7 @@
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B17" t="str">
         <f t="shared" si="0"/>
@@ -1799,6 +1919,14 @@
       <c r="E17" t="str">
         <f t="shared" si="3"/>
         <v>Camero</v>
+      </c>
+      <c r="F17" t="str">
+        <f t="shared" si="4"/>
+        <v>14</v>
+      </c>
+      <c r="G17">
+        <f t="shared" si="5"/>
+        <v>11</v>
       </c>
       <c r="H17">
         <v>14289.6</v>
@@ -1807,7 +1935,7 @@
         <v>18</v>
       </c>
       <c r="K17" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="L17">
         <v>100000</v>
@@ -1815,7 +1943,7 @@
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B18" t="str">
         <f t="shared" si="0"/>
@@ -1832,6 +1960,14 @@
       <c r="E18" t="str">
         <f t="shared" si="3"/>
         <v>Silverado</v>
+      </c>
+      <c r="F18" t="str">
+        <f t="shared" si="4"/>
+        <v>10</v>
+      </c>
+      <c r="G18">
+        <f t="shared" si="5"/>
+        <v>15</v>
       </c>
       <c r="H18">
         <v>31144.400000000001</v>
@@ -1840,7 +1976,7 @@
         <v>15</v>
       </c>
       <c r="K18" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="L18">
         <v>100000</v>
@@ -1848,7 +1984,7 @@
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B19" t="str">
         <f t="shared" si="0"/>
@@ -1865,6 +2001,14 @@
       <c r="E19" t="str">
         <f t="shared" si="3"/>
         <v>Silverado</v>
+      </c>
+      <c r="F19" t="str">
+        <f t="shared" si="4"/>
+        <v>98</v>
+      </c>
+      <c r="G19">
+        <f t="shared" si="5"/>
+        <v>27</v>
       </c>
       <c r="H19">
         <v>83162.7</v>
@@ -1873,7 +2017,7 @@
         <v>15</v>
       </c>
       <c r="K19" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="L19">
         <v>100000</v>
@@ -1881,7 +2025,7 @@
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B20" t="str">
         <f t="shared" si="0"/>
@@ -1898,15 +2042,23 @@
       <c r="E20" t="str">
         <f t="shared" si="3"/>
         <v>Silverado</v>
+      </c>
+      <c r="F20" t="str">
+        <f t="shared" si="4"/>
+        <v>00</v>
+      </c>
+      <c r="G20">
+        <f t="shared" si="5"/>
+        <v>25</v>
       </c>
       <c r="H20">
         <v>80685.8</v>
       </c>
       <c r="J20" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="K20" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="L20">
         <v>100000</v>
@@ -1914,7 +2066,7 @@
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B21" t="str">
         <f t="shared" si="0"/>
@@ -1931,6 +2083,14 @@
       <c r="E21" t="str">
         <f t="shared" si="3"/>
         <v>Camry</v>
+      </c>
+      <c r="F21" t="str">
+        <f t="shared" si="4"/>
+        <v>96</v>
+      </c>
+      <c r="G21">
+        <f t="shared" si="5"/>
+        <v>29</v>
       </c>
       <c r="H21">
         <v>114660.6</v>
@@ -1939,7 +2099,7 @@
         <v>21</v>
       </c>
       <c r="K21" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="L21">
         <v>100000</v>
@@ -1947,7 +2107,7 @@
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B22" t="str">
         <f t="shared" si="0"/>
@@ -1964,6 +2124,14 @@
       <c r="E22" t="str">
         <f t="shared" si="3"/>
         <v>Camry</v>
+      </c>
+      <c r="F22" t="str">
+        <f t="shared" si="4"/>
+        <v>98</v>
+      </c>
+      <c r="G22">
+        <f t="shared" si="5"/>
+        <v>27</v>
       </c>
       <c r="H22">
         <v>93382.6</v>
@@ -1972,7 +2140,7 @@
         <v>15</v>
       </c>
       <c r="K22" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="L22">
         <v>100000</v>
@@ -1980,7 +2148,7 @@
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B23" t="str">
         <f t="shared" si="0"/>
@@ -1997,6 +2165,14 @@
       <c r="E23" t="str">
         <f t="shared" si="3"/>
         <v>Camry</v>
+      </c>
+      <c r="F23" t="str">
+        <f t="shared" si="4"/>
+        <v>00</v>
+      </c>
+      <c r="G23">
+        <f t="shared" si="5"/>
+        <v>25</v>
       </c>
       <c r="H23">
         <v>85928</v>
@@ -2005,7 +2181,7 @@
         <v>21</v>
       </c>
       <c r="K23" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="L23">
         <v>100000</v>
@@ -2013,7 +2189,7 @@
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B24" t="str">
         <f t="shared" si="0"/>
@@ -2030,6 +2206,14 @@
       <c r="E24" t="str">
         <f t="shared" si="3"/>
         <v>Camry</v>
+      </c>
+      <c r="F24" t="str">
+        <f t="shared" si="4"/>
+        <v>02</v>
+      </c>
+      <c r="G24">
+        <f t="shared" si="5"/>
+        <v>23</v>
       </c>
       <c r="H24">
         <v>67829.100000000006</v>
@@ -2046,7 +2230,7 @@
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B25" t="str">
         <f t="shared" si="0"/>
@@ -2063,6 +2247,14 @@
       <c r="E25" t="str">
         <f t="shared" si="3"/>
         <v>Camry</v>
+      </c>
+      <c r="F25" t="str">
+        <f t="shared" si="4"/>
+        <v>09</v>
+      </c>
+      <c r="G25">
+        <f t="shared" si="5"/>
+        <v>16</v>
       </c>
       <c r="H25">
         <v>48114.2</v>
@@ -2071,7 +2263,7 @@
         <v>18</v>
       </c>
       <c r="K25" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="L25">
         <v>100000</v>
@@ -2079,7 +2271,7 @@
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B26" t="str">
         <f t="shared" si="0"/>
@@ -2096,15 +2288,23 @@
       <c r="E26" t="str">
         <f t="shared" si="3"/>
         <v>Corolla</v>
+      </c>
+      <c r="F26" t="str">
+        <f t="shared" si="4"/>
+        <v>02</v>
+      </c>
+      <c r="G26">
+        <f t="shared" si="5"/>
+        <v>23</v>
       </c>
       <c r="H26">
         <v>64467.4</v>
       </c>
       <c r="J26" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="K26" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="L26">
         <v>100000</v>
@@ -2112,7 +2312,7 @@
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B27" t="str">
         <f t="shared" si="0"/>
@@ -2129,6 +2329,14 @@
       <c r="E27" t="str">
         <f t="shared" si="3"/>
         <v>Corolla</v>
+      </c>
+      <c r="F27" t="str">
+        <f t="shared" si="4"/>
+        <v>03</v>
+      </c>
+      <c r="G27">
+        <f t="shared" si="5"/>
+        <v>22</v>
       </c>
       <c r="H27">
         <v>73444.399999999994</v>
@@ -2137,7 +2345,7 @@
         <v>15</v>
       </c>
       <c r="K27" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="L27">
         <v>100000</v>
@@ -2145,7 +2353,7 @@
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B28" t="str">
         <f t="shared" si="0"/>
@@ -2162,15 +2370,23 @@
       <c r="E28" t="str">
         <f t="shared" si="3"/>
         <v>Corolla</v>
+      </c>
+      <c r="F28" t="str">
+        <f t="shared" si="4"/>
+        <v>14</v>
+      </c>
+      <c r="G28">
+        <f t="shared" si="5"/>
+        <v>11</v>
       </c>
       <c r="H28">
         <v>17556.3</v>
       </c>
       <c r="J28" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="K28" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="L28">
         <v>100000</v>
@@ -2178,7 +2394,7 @@
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B29" t="str">
         <f t="shared" si="0"/>
@@ -2195,6 +2411,14 @@
       <c r="E29" t="str">
         <f t="shared" si="3"/>
         <v>Corolla</v>
+      </c>
+      <c r="F29" t="str">
+        <f t="shared" si="4"/>
+        <v>12</v>
+      </c>
+      <c r="G29">
+        <f t="shared" si="5"/>
+        <v>13</v>
       </c>
       <c r="H29">
         <v>29601.9</v>
@@ -2203,7 +2427,7 @@
         <v>15</v>
       </c>
       <c r="K29" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="L29">
         <v>100000</v>
@@ -2211,7 +2435,7 @@
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B30" t="str">
         <f t="shared" si="0"/>
@@ -2228,15 +2452,23 @@
       <c r="E30" t="str">
         <f t="shared" si="3"/>
         <v>Camry</v>
+      </c>
+      <c r="F30" t="str">
+        <f t="shared" si="4"/>
+        <v>12</v>
+      </c>
+      <c r="G30">
+        <f t="shared" si="5"/>
+        <v>13</v>
       </c>
       <c r="H30">
         <v>22128.2</v>
       </c>
       <c r="J30" t="s">
+        <v>48</v>
+      </c>
+      <c r="K30" t="s">
         <v>50</v>
-      </c>
-      <c r="K30" t="s">
-        <v>52</v>
       </c>
       <c r="L30">
         <v>100000</v>
@@ -2244,7 +2476,7 @@
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B31" t="str">
         <f t="shared" si="0"/>
@@ -2261,6 +2493,14 @@
       <c r="E31" t="str">
         <f t="shared" si="3"/>
         <v>Civic</v>
+      </c>
+      <c r="F31" t="str">
+        <f t="shared" si="4"/>
+        <v>99</v>
+      </c>
+      <c r="G31">
+        <f t="shared" si="5"/>
+        <v>26</v>
       </c>
       <c r="H31">
         <v>82374</v>
@@ -2269,7 +2509,7 @@
         <v>18</v>
       </c>
       <c r="K31" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L31">
         <v>75000</v>
@@ -2277,7 +2517,7 @@
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B32" t="str">
         <f t="shared" si="0"/>
@@ -2294,12 +2534,20 @@
       <c r="E32" t="str">
         <f t="shared" si="3"/>
         <v>Civic</v>
+      </c>
+      <c r="F32" t="str">
+        <f t="shared" si="4"/>
+        <v>01</v>
+      </c>
+      <c r="G32">
+        <f t="shared" si="5"/>
+        <v>24</v>
       </c>
       <c r="H32">
         <v>69891.899999999994</v>
       </c>
       <c r="J32" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="K32" t="s">
         <v>24</v>
@@ -2310,7 +2558,7 @@
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B33" t="str">
         <f t="shared" si="0"/>
@@ -2327,15 +2575,23 @@
       <c r="E33" t="str">
         <f t="shared" si="3"/>
         <v>Civic</v>
+      </c>
+      <c r="F33" t="str">
+        <f t="shared" si="4"/>
+        <v>10</v>
+      </c>
+      <c r="G33">
+        <f t="shared" si="5"/>
+        <v>15</v>
       </c>
       <c r="H33">
         <v>22573</v>
       </c>
       <c r="J33" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="K33" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="L33">
         <v>75000</v>
@@ -2343,7 +2599,7 @@
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B34" t="str">
         <f t="shared" si="0"/>
@@ -2360,6 +2616,14 @@
       <c r="E34" t="str">
         <f t="shared" si="3"/>
         <v>Civic</v>
+      </c>
+      <c r="F34" t="str">
+        <f t="shared" si="4"/>
+        <v>10</v>
+      </c>
+      <c r="G34">
+        <f t="shared" si="5"/>
+        <v>15</v>
       </c>
       <c r="H34">
         <v>33477.199999999997</v>
@@ -2368,7 +2632,7 @@
         <v>15</v>
       </c>
       <c r="K34" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="L34">
         <v>75000</v>
@@ -2376,7 +2640,7 @@
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B35" t="str">
         <f t="shared" si="0"/>
@@ -2393,6 +2657,14 @@
       <c r="E35" t="str">
         <f t="shared" si="3"/>
         <v>Civic</v>
+      </c>
+      <c r="F35" t="str">
+        <f t="shared" si="4"/>
+        <v>11</v>
+      </c>
+      <c r="G35">
+        <f t="shared" si="5"/>
+        <v>14</v>
       </c>
       <c r="H35">
         <v>30555.3</v>
@@ -2409,7 +2681,7 @@
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B36" t="str">
         <f t="shared" si="0"/>
@@ -2426,6 +2698,14 @@
       <c r="E36" t="str">
         <f t="shared" si="3"/>
         <v>Civic</v>
+      </c>
+      <c r="F36" t="str">
+        <f t="shared" si="4"/>
+        <v>12</v>
+      </c>
+      <c r="G36">
+        <f t="shared" si="5"/>
+        <v>13</v>
       </c>
       <c r="H36">
         <v>24513.200000000001</v>
@@ -2434,7 +2714,7 @@
         <v>15</v>
       </c>
       <c r="K36" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="L36">
         <v>75000</v>
@@ -2442,7 +2722,7 @@
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B37" t="str">
         <f t="shared" si="0"/>
@@ -2459,6 +2739,14 @@
       <c r="E37" t="str">
         <f t="shared" si="3"/>
         <v>Civic</v>
+      </c>
+      <c r="F37" t="str">
+        <f t="shared" si="4"/>
+        <v>13</v>
+      </c>
+      <c r="G37">
+        <f t="shared" si="5"/>
+        <v>12</v>
       </c>
       <c r="H37">
         <v>13867.6</v>
@@ -2467,7 +2755,7 @@
         <v>15</v>
       </c>
       <c r="K37" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="L37">
         <v>75000</v>
@@ -2475,7 +2763,7 @@
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
-        <v>72</v>
+        <v>121</v>
       </c>
       <c r="B38" t="str">
         <f t="shared" si="0"/>
@@ -2492,6 +2780,14 @@
       <c r="E38" t="str">
         <f t="shared" si="3"/>
         <v>Odyssy</v>
+      </c>
+      <c r="F38" t="str">
+        <f t="shared" si="4"/>
+        <v>05</v>
+      </c>
+      <c r="G38">
+        <f t="shared" si="5"/>
+        <v>20</v>
       </c>
       <c r="H38">
         <v>60389.5</v>
@@ -2500,7 +2796,7 @@
         <v>18</v>
       </c>
       <c r="K38" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="L38">
         <v>100000</v>
@@ -2508,7 +2804,7 @@
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="B39" t="str">
         <f t="shared" si="0"/>
@@ -2525,6 +2821,14 @@
       <c r="E39" t="str">
         <f t="shared" si="3"/>
         <v>Odyssy</v>
+      </c>
+      <c r="F39" t="str">
+        <f t="shared" si="4"/>
+        <v>07</v>
+      </c>
+      <c r="G39">
+        <f t="shared" si="5"/>
+        <v>18</v>
       </c>
       <c r="H39">
         <v>50854.1</v>
@@ -2533,7 +2837,7 @@
         <v>15</v>
       </c>
       <c r="K39" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="L39">
         <v>100000</v>
@@ -2541,7 +2845,7 @@
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="B40" t="str">
         <f t="shared" si="0"/>
@@ -2558,6 +2862,14 @@
       <c r="E40" t="str">
         <f t="shared" si="3"/>
         <v>Odyssy</v>
+      </c>
+      <c r="F40" t="str">
+        <f t="shared" si="4"/>
+        <v>08</v>
+      </c>
+      <c r="G40">
+        <f t="shared" si="5"/>
+        <v>17</v>
       </c>
       <c r="H40">
         <v>42504.6</v>
@@ -2566,7 +2878,7 @@
         <v>18</v>
       </c>
       <c r="K40" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L40">
         <v>100000</v>
@@ -2574,7 +2886,7 @@
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="B41" t="str">
         <f t="shared" si="0"/>
@@ -2592,6 +2904,14 @@
         <f t="shared" si="3"/>
         <v>Odyssy</v>
       </c>
+      <c r="F41" t="str">
+        <f t="shared" si="4"/>
+        <v>01</v>
+      </c>
+      <c r="G41">
+        <f t="shared" si="5"/>
+        <v>24</v>
+      </c>
       <c r="H41">
         <v>68658.899999999994</v>
       </c>
@@ -2607,7 +2927,7 @@
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="B42" t="str">
         <f t="shared" si="0"/>
@@ -2624,6 +2944,14 @@
       <c r="E42" t="str">
         <f t="shared" si="3"/>
         <v>Odyssy</v>
+      </c>
+      <c r="F42" t="str">
+        <f t="shared" si="4"/>
+        <v>14</v>
+      </c>
+      <c r="G42">
+        <f t="shared" si="5"/>
+        <v>11</v>
       </c>
       <c r="H42">
         <v>3708.1</v>
@@ -2640,7 +2968,7 @@
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="B43" t="str">
         <f t="shared" si="0"/>
@@ -2657,12 +2985,20 @@
       <c r="E43" t="str">
         <f t="shared" si="3"/>
         <v>PT Cruiser</v>
+      </c>
+      <c r="F43" t="str">
+        <f t="shared" si="4"/>
+        <v>04</v>
+      </c>
+      <c r="G43">
+        <f t="shared" si="5"/>
+        <v>21</v>
       </c>
       <c r="H43">
         <v>64542</v>
       </c>
       <c r="J43" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="K43" t="s">
         <v>16</v>
@@ -2673,7 +3009,7 @@
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="B44" t="str">
         <f t="shared" si="0"/>
@@ -2690,6 +3026,14 @@
       <c r="E44" t="str">
         <f t="shared" si="3"/>
         <v>PT Cruiser</v>
+      </c>
+      <c r="F44" t="str">
+        <f t="shared" si="4"/>
+        <v>07</v>
+      </c>
+      <c r="G44">
+        <f t="shared" si="5"/>
+        <v>18</v>
       </c>
       <c r="H44">
         <v>42074.2</v>
@@ -2698,7 +3042,7 @@
         <v>21</v>
       </c>
       <c r="K44" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="L44">
         <v>75000</v>
@@ -2706,7 +3050,7 @@
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="B45" t="str">
         <f t="shared" si="0"/>
@@ -2723,6 +3067,14 @@
       <c r="E45" t="str">
         <f t="shared" si="3"/>
         <v>PT Cruiser</v>
+      </c>
+      <c r="F45" t="str">
+        <f t="shared" si="4"/>
+        <v>11</v>
+      </c>
+      <c r="G45">
+        <f t="shared" si="5"/>
+        <v>14</v>
       </c>
       <c r="H45">
         <v>27394.2</v>
@@ -2731,7 +3083,7 @@
         <v>15</v>
       </c>
       <c r="K45" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="L45">
         <v>75000</v>
@@ -2739,7 +3091,7 @@
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="B46" t="str">
         <f t="shared" si="0"/>
@@ -2756,6 +3108,14 @@
       <c r="E46" t="str">
         <f t="shared" si="3"/>
         <v>Caravan</v>
+      </c>
+      <c r="F46" t="str">
+        <f t="shared" si="4"/>
+        <v>99</v>
+      </c>
+      <c r="G46">
+        <f t="shared" si="5"/>
+        <v>26</v>
       </c>
       <c r="H46">
         <v>79420.600000000006</v>
@@ -2764,7 +3124,7 @@
         <v>21</v>
       </c>
       <c r="K46" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="L46">
         <v>75000</v>
@@ -2772,7 +3132,7 @@
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="B47" t="str">
         <f t="shared" si="0"/>
@@ -2789,6 +3149,14 @@
       <c r="E47" t="str">
         <f t="shared" si="3"/>
         <v>Caravan</v>
+      </c>
+      <c r="F47" t="str">
+        <f t="shared" si="4"/>
+        <v>00</v>
+      </c>
+      <c r="G47">
+        <f t="shared" si="5"/>
+        <v>25</v>
       </c>
       <c r="H47">
         <v>77243.100000000006</v>
@@ -2805,7 +3173,7 @@
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="B48" t="str">
         <f t="shared" si="0"/>
@@ -2822,6 +3190,14 @@
       <c r="E48" t="str">
         <f t="shared" si="3"/>
         <v>Caravan</v>
+      </c>
+      <c r="F48" t="str">
+        <f t="shared" si="4"/>
+        <v>04</v>
+      </c>
+      <c r="G48">
+        <f t="shared" si="5"/>
+        <v>21</v>
       </c>
       <c r="H48">
         <v>72527.199999999997</v>
@@ -2830,7 +3206,7 @@
         <v>18</v>
       </c>
       <c r="K48" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="L48">
         <v>75000</v>
@@ -2838,7 +3214,7 @@
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="B49" t="str">
         <f t="shared" si="0"/>
@@ -2855,15 +3231,23 @@
       <c r="E49" t="str">
         <f t="shared" si="3"/>
         <v>Caravan</v>
+      </c>
+      <c r="F49" t="str">
+        <f t="shared" si="4"/>
+        <v>04</v>
+      </c>
+      <c r="G49">
+        <f t="shared" si="5"/>
+        <v>21</v>
       </c>
       <c r="H49">
         <v>52699.4</v>
       </c>
       <c r="J49" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="K49" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="L49">
         <v>75000</v>
@@ -2871,7 +3255,7 @@
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="B50" t="str">
         <f t="shared" si="0"/>
@@ -2888,6 +3272,14 @@
       <c r="E50" t="str">
         <f t="shared" si="3"/>
         <v>Elantra</v>
+      </c>
+      <c r="F50" t="str">
+        <f t="shared" si="4"/>
+        <v>11</v>
+      </c>
+      <c r="G50">
+        <f t="shared" si="5"/>
+        <v>14</v>
       </c>
       <c r="H50">
         <v>29102.3</v>
@@ -2896,7 +3288,7 @@
         <v>15</v>
       </c>
       <c r="K50" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="L50">
         <v>100000</v>
@@ -2904,7 +3296,7 @@
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="B51" t="str">
         <f t="shared" si="0"/>
@@ -2921,12 +3313,20 @@
       <c r="E51" t="str">
         <f t="shared" si="3"/>
         <v>Elantra</v>
+      </c>
+      <c r="F51" t="str">
+        <f t="shared" si="4"/>
+        <v>12</v>
+      </c>
+      <c r="G51">
+        <f t="shared" si="5"/>
+        <v>13</v>
       </c>
       <c r="H51">
         <v>22282</v>
       </c>
       <c r="J51" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="K51" t="s">
         <v>19</v>
@@ -2937,7 +3337,7 @@
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="B52" t="str">
         <f t="shared" si="0"/>
@@ -2954,6 +3354,14 @@
       <c r="E52" t="str">
         <f t="shared" si="3"/>
         <v>Elantra</v>
+      </c>
+      <c r="F52" t="str">
+        <f t="shared" si="4"/>
+        <v>13</v>
+      </c>
+      <c r="G52">
+        <f t="shared" si="5"/>
+        <v>12</v>
       </c>
       <c r="H52">
         <v>20223.900000000001</v>
@@ -2962,7 +3370,7 @@
         <v>15</v>
       </c>
       <c r="K52" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="L52">
         <v>100000</v>
@@ -2970,7 +3378,7 @@
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="B53" t="str">
         <f t="shared" si="0"/>
@@ -2987,15 +3395,23 @@
       <c r="E53" t="str">
         <f t="shared" si="3"/>
         <v>Elantra</v>
+      </c>
+      <c r="F53" t="str">
+        <f t="shared" si="4"/>
+        <v>13</v>
+      </c>
+      <c r="G53">
+        <f t="shared" si="5"/>
+        <v>12</v>
       </c>
       <c r="H53">
         <v>22188.5</v>
       </c>
       <c r="J53" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="K53" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="L53">
         <v>100000</v>
@@ -3003,126 +3419,126 @@
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B56" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="C56" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="D56" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="E56" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B57" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="C57" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="D57" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="E57" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
     </row>
     <row r="58" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B58" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="C58" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="D58" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="E58" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B59" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="C59" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="D59" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="E59" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
     </row>
     <row r="60" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B60" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="C60" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="D60" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="E60" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
     </row>
     <row r="61" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B61" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="C61" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="D61" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="E61" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
     </row>
     <row r="62" spans="1:12" x14ac:dyDescent="0.35">
       <c r="D62" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="E62" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
     </row>
     <row r="63" spans="1:12" x14ac:dyDescent="0.35">
       <c r="D63" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="E63" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
     </row>
     <row r="64" spans="1:12" x14ac:dyDescent="0.35">
       <c r="D64" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="E64" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
     </row>
     <row r="65" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D65" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="E65" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
     </row>
     <row r="66" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D66" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="E66" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
     </row>
   </sheetData>

--- a/excel/car_database/car database.xlsx
+++ b/excel/car_database/car database.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lenovo\Desktop\mikedevs\data-journey\excel\car_database\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09B276EA-995A-431F-96E7-7F7571F4719B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4924FA7D-2C83-4092-BD94-9125C30DC026}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{196D0D68-09E0-4E97-9B35-E2D7744763AB}"/>
   </bookViews>
@@ -1229,7 +1229,7 @@
   <dimension ref="A1:N66"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C38" sqref="C38"/>
+      <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1316,6 +1316,10 @@
       <c r="H2">
         <v>40326.800000000003</v>
       </c>
+      <c r="I2">
+        <f>H2/G2</f>
+        <v>2122.4631578947369</v>
+      </c>
       <c r="J2" t="s">
         <v>15</v>
       </c>
@@ -1357,6 +1361,10 @@
       <c r="H3">
         <v>44974.8</v>
       </c>
+      <c r="I3">
+        <f t="shared" ref="I3:I53" si="6">H3/G3</f>
+        <v>2367.0947368421052</v>
+      </c>
       <c r="J3" t="s">
         <v>18</v>
       </c>
@@ -1398,6 +1406,10 @@
       <c r="H4">
         <v>44946.5</v>
       </c>
+      <c r="I4">
+        <f t="shared" si="6"/>
+        <v>2643.9117647058824</v>
+      </c>
       <c r="J4" t="s">
         <v>21</v>
       </c>
@@ -1439,6 +1451,10 @@
       <c r="H5">
         <v>37558.800000000003</v>
       </c>
+      <c r="I5">
+        <f t="shared" si="6"/>
+        <v>2209.3411764705884</v>
+      </c>
       <c r="J5" t="s">
         <v>15</v>
       </c>
@@ -1480,6 +1496,10 @@
       <c r="H6">
         <v>36438.5</v>
       </c>
+      <c r="I6">
+        <f t="shared" si="6"/>
+        <v>2143.4411764705883</v>
+      </c>
       <c r="J6" t="s">
         <v>18</v>
       </c>
@@ -1521,6 +1541,10 @@
       <c r="H7">
         <v>46311.4</v>
       </c>
+      <c r="I7">
+        <f t="shared" si="6"/>
+        <v>2437.4421052631578</v>
+      </c>
       <c r="J7" t="s">
         <v>21</v>
       </c>
@@ -1562,6 +1586,10 @@
       <c r="H8">
         <v>52229.5</v>
       </c>
+      <c r="I8">
+        <f t="shared" si="6"/>
+        <v>2748.9210526315787</v>
+      </c>
       <c r="J8" t="s">
         <v>21</v>
       </c>
@@ -1603,6 +1631,10 @@
       <c r="H9">
         <v>35137</v>
       </c>
+      <c r="I9">
+        <f t="shared" si="6"/>
+        <v>2196.0625</v>
+      </c>
       <c r="J9" t="s">
         <v>15</v>
       </c>
@@ -1644,6 +1676,10 @@
       <c r="H10">
         <v>27637.1</v>
       </c>
+      <c r="I10">
+        <f t="shared" si="6"/>
+        <v>2303.0916666666667</v>
+      </c>
       <c r="J10" t="s">
         <v>15</v>
       </c>
@@ -1685,6 +1721,10 @@
       <c r="H11">
         <v>27534.799999999999</v>
       </c>
+      <c r="I11">
+        <f t="shared" si="6"/>
+        <v>2294.5666666666666</v>
+      </c>
       <c r="J11" t="s">
         <v>18</v>
       </c>
@@ -1726,6 +1766,10 @@
       <c r="H12">
         <v>19341.7</v>
       </c>
+      <c r="I12">
+        <f t="shared" si="6"/>
+        <v>1487.823076923077</v>
+      </c>
       <c r="J12" t="s">
         <v>18</v>
       </c>
@@ -1767,6 +1811,10 @@
       <c r="H13">
         <v>22521.599999999999</v>
       </c>
+      <c r="I13">
+        <f t="shared" si="6"/>
+        <v>1876.8</v>
+      </c>
       <c r="J13" t="s">
         <v>15</v>
       </c>
@@ -1808,6 +1856,10 @@
       <c r="H14">
         <v>13682.9</v>
       </c>
+      <c r="I14">
+        <f t="shared" si="6"/>
+        <v>1140.2416666666666</v>
+      </c>
       <c r="J14" t="s">
         <v>15</v>
       </c>
@@ -1849,6 +1901,10 @@
       <c r="H15">
         <v>28464.799999999999</v>
       </c>
+      <c r="I15">
+        <f t="shared" si="6"/>
+        <v>1779.05</v>
+      </c>
       <c r="J15" t="s">
         <v>18</v>
       </c>
@@ -1890,6 +1946,10 @@
       <c r="H16">
         <v>19421.099999999999</v>
       </c>
+      <c r="I16">
+        <f t="shared" si="6"/>
+        <v>1493.9307692307691</v>
+      </c>
       <c r="J16" t="s">
         <v>15</v>
       </c>
@@ -1931,6 +1991,10 @@
       <c r="H17">
         <v>14289.6</v>
       </c>
+      <c r="I17">
+        <f t="shared" si="6"/>
+        <v>1299.0545454545454</v>
+      </c>
       <c r="J17" t="s">
         <v>18</v>
       </c>
@@ -1972,6 +2036,10 @@
       <c r="H18">
         <v>31144.400000000001</v>
       </c>
+      <c r="I18">
+        <f t="shared" si="6"/>
+        <v>2076.2933333333335</v>
+      </c>
       <c r="J18" t="s">
         <v>15</v>
       </c>
@@ -2013,6 +2081,10 @@
       <c r="H19">
         <v>83162.7</v>
       </c>
+      <c r="I19">
+        <f t="shared" si="6"/>
+        <v>3080.1</v>
+      </c>
       <c r="J19" t="s">
         <v>15</v>
       </c>
@@ -2054,6 +2126,10 @@
       <c r="H20">
         <v>80685.8</v>
       </c>
+      <c r="I20">
+        <f t="shared" si="6"/>
+        <v>3227.4320000000002</v>
+      </c>
       <c r="J20" t="s">
         <v>48</v>
       </c>
@@ -2095,6 +2171,10 @@
       <c r="H21">
         <v>114660.6</v>
       </c>
+      <c r="I21">
+        <f t="shared" si="6"/>
+        <v>3953.8137931034485</v>
+      </c>
       <c r="J21" t="s">
         <v>21</v>
       </c>
@@ -2136,6 +2216,10 @@
       <c r="H22">
         <v>93382.6</v>
       </c>
+      <c r="I22">
+        <f t="shared" si="6"/>
+        <v>3458.614814814815</v>
+      </c>
       <c r="J22" t="s">
         <v>15</v>
       </c>
@@ -2177,6 +2261,10 @@
       <c r="H23">
         <v>85928</v>
       </c>
+      <c r="I23">
+        <f t="shared" si="6"/>
+        <v>3437.12</v>
+      </c>
       <c r="J23" t="s">
         <v>21</v>
       </c>
@@ -2218,6 +2306,10 @@
       <c r="H24">
         <v>67829.100000000006</v>
       </c>
+      <c r="I24">
+        <f t="shared" si="6"/>
+        <v>2949.0913043478263</v>
+      </c>
       <c r="J24" t="s">
         <v>15</v>
       </c>
@@ -2259,6 +2351,10 @@
       <c r="H25">
         <v>48114.2</v>
       </c>
+      <c r="I25">
+        <f t="shared" si="6"/>
+        <v>3007.1374999999998</v>
+      </c>
       <c r="J25" t="s">
         <v>18</v>
       </c>
@@ -2300,6 +2396,10 @@
       <c r="H26">
         <v>64467.4</v>
       </c>
+      <c r="I26">
+        <f t="shared" si="6"/>
+        <v>2802.9304347826087</v>
+      </c>
       <c r="J26" t="s">
         <v>57</v>
       </c>
@@ -2341,6 +2441,10 @@
       <c r="H27">
         <v>73444.399999999994</v>
       </c>
+      <c r="I27">
+        <f t="shared" si="6"/>
+        <v>3338.3818181818178</v>
+      </c>
       <c r="J27" t="s">
         <v>15</v>
       </c>
@@ -2382,6 +2486,10 @@
       <c r="H28">
         <v>17556.3</v>
       </c>
+      <c r="I28">
+        <f t="shared" si="6"/>
+        <v>1596.0272727272727</v>
+      </c>
       <c r="J28" t="s">
         <v>48</v>
       </c>
@@ -2423,6 +2531,10 @@
       <c r="H29">
         <v>29601.9</v>
       </c>
+      <c r="I29">
+        <f t="shared" si="6"/>
+        <v>2277.0692307692307</v>
+      </c>
       <c r="J29" t="s">
         <v>15</v>
       </c>
@@ -2464,6 +2576,10 @@
       <c r="H30">
         <v>22128.2</v>
       </c>
+      <c r="I30">
+        <f t="shared" si="6"/>
+        <v>1702.1692307692308</v>
+      </c>
       <c r="J30" t="s">
         <v>48</v>
       </c>
@@ -2505,6 +2621,10 @@
       <c r="H31">
         <v>82374</v>
       </c>
+      <c r="I31">
+        <f t="shared" si="6"/>
+        <v>3168.2307692307691</v>
+      </c>
       <c r="J31" t="s">
         <v>18</v>
       </c>
@@ -2546,6 +2666,10 @@
       <c r="H32">
         <v>69891.899999999994</v>
       </c>
+      <c r="I32">
+        <f t="shared" si="6"/>
+        <v>2912.1624999999999</v>
+      </c>
       <c r="J32" t="s">
         <v>48</v>
       </c>
@@ -2587,6 +2711,10 @@
       <c r="H33">
         <v>22573</v>
       </c>
+      <c r="I33">
+        <f t="shared" si="6"/>
+        <v>1504.8666666666666</v>
+      </c>
       <c r="J33" t="s">
         <v>48</v>
       </c>
@@ -2628,6 +2756,10 @@
       <c r="H34">
         <v>33477.199999999997</v>
       </c>
+      <c r="I34">
+        <f t="shared" si="6"/>
+        <v>2231.813333333333</v>
+      </c>
       <c r="J34" t="s">
         <v>15</v>
       </c>
@@ -2669,6 +2801,10 @@
       <c r="H35">
         <v>30555.3</v>
       </c>
+      <c r="I35">
+        <f t="shared" si="6"/>
+        <v>2182.5214285714287</v>
+      </c>
       <c r="J35" t="s">
         <v>15</v>
       </c>
@@ -2710,6 +2846,10 @@
       <c r="H36">
         <v>24513.200000000001</v>
       </c>
+      <c r="I36">
+        <f t="shared" si="6"/>
+        <v>1885.6307692307694</v>
+      </c>
       <c r="J36" t="s">
         <v>15</v>
       </c>
@@ -2751,6 +2891,10 @@
       <c r="H37">
         <v>13867.6</v>
       </c>
+      <c r="I37">
+        <f t="shared" si="6"/>
+        <v>1155.6333333333334</v>
+      </c>
       <c r="J37" t="s">
         <v>15</v>
       </c>
@@ -2792,6 +2936,10 @@
       <c r="H38">
         <v>60389.5</v>
       </c>
+      <c r="I38">
+        <f t="shared" si="6"/>
+        <v>3019.4749999999999</v>
+      </c>
       <c r="J38" t="s">
         <v>18</v>
       </c>
@@ -2833,6 +2981,10 @@
       <c r="H39">
         <v>50854.1</v>
       </c>
+      <c r="I39">
+        <f t="shared" si="6"/>
+        <v>2825.2277777777776</v>
+      </c>
       <c r="J39" t="s">
         <v>15</v>
       </c>
@@ -2874,6 +3026,10 @@
       <c r="H40">
         <v>42504.6</v>
       </c>
+      <c r="I40">
+        <f t="shared" si="6"/>
+        <v>2500.2705882352939</v>
+      </c>
       <c r="J40" t="s">
         <v>18</v>
       </c>
@@ -2915,6 +3071,10 @@
       <c r="H41">
         <v>68658.899999999994</v>
       </c>
+      <c r="I41">
+        <f t="shared" si="6"/>
+        <v>2860.7874999999999</v>
+      </c>
       <c r="J41" t="s">
         <v>15</v>
       </c>
@@ -2956,6 +3116,10 @@
       <c r="H42">
         <v>3708.1</v>
       </c>
+      <c r="I42">
+        <f t="shared" si="6"/>
+        <v>337.09999999999997</v>
+      </c>
       <c r="J42" t="s">
         <v>15</v>
       </c>
@@ -2997,6 +3161,10 @@
       <c r="H43">
         <v>64542</v>
       </c>
+      <c r="I43">
+        <f t="shared" si="6"/>
+        <v>3073.4285714285716</v>
+      </c>
       <c r="J43" t="s">
         <v>48</v>
       </c>
@@ -3038,6 +3206,10 @@
       <c r="H44">
         <v>42074.2</v>
       </c>
+      <c r="I44">
+        <f t="shared" si="6"/>
+        <v>2337.4555555555553</v>
+      </c>
       <c r="J44" t="s">
         <v>21</v>
       </c>
@@ -3079,6 +3251,10 @@
       <c r="H45">
         <v>27394.2</v>
       </c>
+      <c r="I45">
+        <f t="shared" si="6"/>
+        <v>1956.7285714285715</v>
+      </c>
       <c r="J45" t="s">
         <v>15</v>
       </c>
@@ -3120,6 +3296,10 @@
       <c r="H46">
         <v>79420.600000000006</v>
       </c>
+      <c r="I46">
+        <f t="shared" si="6"/>
+        <v>3054.6384615384618</v>
+      </c>
       <c r="J46" t="s">
         <v>21</v>
       </c>
@@ -3161,6 +3341,10 @@
       <c r="H47">
         <v>77243.100000000006</v>
       </c>
+      <c r="I47">
+        <f t="shared" si="6"/>
+        <v>3089.7240000000002</v>
+      </c>
       <c r="J47" t="s">
         <v>15</v>
       </c>
@@ -3202,6 +3386,10 @@
       <c r="H48">
         <v>72527.199999999997</v>
       </c>
+      <c r="I48">
+        <f t="shared" si="6"/>
+        <v>3453.6761904761902</v>
+      </c>
       <c r="J48" t="s">
         <v>18</v>
       </c>
@@ -3243,6 +3431,10 @@
       <c r="H49">
         <v>52699.4</v>
       </c>
+      <c r="I49">
+        <f t="shared" si="6"/>
+        <v>2509.4952380952382</v>
+      </c>
       <c r="J49" t="s">
         <v>57</v>
       </c>
@@ -3284,6 +3476,10 @@
       <c r="H50">
         <v>29102.3</v>
       </c>
+      <c r="I50">
+        <f t="shared" si="6"/>
+        <v>2078.735714285714</v>
+      </c>
       <c r="J50" t="s">
         <v>15</v>
       </c>
@@ -3325,6 +3521,10 @@
       <c r="H51">
         <v>22282</v>
       </c>
+      <c r="I51">
+        <f t="shared" si="6"/>
+        <v>1714</v>
+      </c>
       <c r="J51" t="s">
         <v>48</v>
       </c>
@@ -3366,6 +3566,10 @@
       <c r="H52">
         <v>20223.900000000001</v>
       </c>
+      <c r="I52">
+        <f t="shared" si="6"/>
+        <v>1685.325</v>
+      </c>
       <c r="J52" t="s">
         <v>15</v>
       </c>
@@ -3406,6 +3610,10 @@
       </c>
       <c r="H53">
         <v>22188.5</v>
+      </c>
+      <c r="I53">
+        <f t="shared" si="6"/>
+        <v>1849.0416666666667</v>
       </c>
       <c r="J53" t="s">
         <v>48</v>

--- a/excel/car_database/car database.xlsx
+++ b/excel/car_database/car database.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lenovo\Desktop\mikedevs\data-journey\excel\car_database\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4924FA7D-2C83-4092-BD94-9125C30DC026}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E169016F-73D3-4AF7-B6F8-9843BB747E95}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{196D0D68-09E0-4E97-9B35-E2D7744763AB}"/>
   </bookViews>
@@ -1229,7 +1229,7 @@
   <dimension ref="A1:N66"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+      <selection activeCell="N53" sqref="N53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1239,6 +1239,7 @@
     <col min="3" max="3" width="15.54296875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="16.26953125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15.90625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="17.26953125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.35">
@@ -1329,6 +1330,14 @@
       <c r="L2">
         <v>50000</v>
       </c>
+      <c r="M2" t="str">
+        <f>IF(H2&lt;=L2,"Y", "N")</f>
+        <v>Y</v>
+      </c>
+      <c r="N2" t="str">
+        <f>CONCATENATE(B2,F2,D2,UPPER(LEFT(J2,3)),RIGHT(A2,3))</f>
+        <v>FD06MTGBLA001</v>
+      </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
@@ -1374,6 +1383,14 @@
       <c r="L3">
         <v>50000</v>
       </c>
+      <c r="M3" t="str">
+        <f t="shared" ref="M3:M53" si="7">IF(H3&lt;=L3,"Y", "N")</f>
+        <v>Y</v>
+      </c>
+      <c r="N3" t="str">
+        <f t="shared" ref="N3:N53" si="8">CONCATENATE(B3,F3,D3,UPPER(LEFT(J3,3)),RIGHT(A3,3))</f>
+        <v>FD06MTGWHI002</v>
+      </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
@@ -1419,6 +1436,14 @@
       <c r="L4">
         <v>50000</v>
       </c>
+      <c r="M4" t="str">
+        <f t="shared" si="7"/>
+        <v>Y</v>
+      </c>
+      <c r="N4" t="str">
+        <f t="shared" si="8"/>
+        <v>FD08MTGGRE003</v>
+      </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
@@ -1464,6 +1489,14 @@
       <c r="L5">
         <v>50000</v>
       </c>
+      <c r="M5" t="str">
+        <f t="shared" si="7"/>
+        <v>Y</v>
+      </c>
+      <c r="N5" t="str">
+        <f t="shared" si="8"/>
+        <v>FD08MTGBLA004</v>
+      </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
@@ -1509,6 +1542,14 @@
       <c r="L6">
         <v>50000</v>
       </c>
+      <c r="M6" t="str">
+        <f t="shared" si="7"/>
+        <v>Y</v>
+      </c>
+      <c r="N6" t="str">
+        <f t="shared" si="8"/>
+        <v>FD08MTGWHI005</v>
+      </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
@@ -1554,6 +1595,14 @@
       <c r="L7">
         <v>75000</v>
       </c>
+      <c r="M7" t="str">
+        <f t="shared" si="7"/>
+        <v>Y</v>
+      </c>
+      <c r="N7" t="str">
+        <f t="shared" si="8"/>
+        <v>FD06FCSGRE006</v>
+      </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
@@ -1599,6 +1648,14 @@
       <c r="L8">
         <v>75000</v>
       </c>
+      <c r="M8" t="str">
+        <f t="shared" si="7"/>
+        <v>Y</v>
+      </c>
+      <c r="N8" t="str">
+        <f t="shared" si="8"/>
+        <v>FD06FCSGRE007</v>
+      </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
@@ -1644,6 +1701,14 @@
       <c r="L9">
         <v>75000</v>
       </c>
+      <c r="M9" t="str">
+        <f t="shared" si="7"/>
+        <v>Y</v>
+      </c>
+      <c r="N9" t="str">
+        <f t="shared" si="8"/>
+        <v>FD09FCSBLA008</v>
+      </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
@@ -1689,6 +1754,14 @@
       <c r="L10">
         <v>75000</v>
       </c>
+      <c r="M10" t="str">
+        <f t="shared" si="7"/>
+        <v>Y</v>
+      </c>
+      <c r="N10" t="str">
+        <f t="shared" si="8"/>
+        <v>FD13FCSBLA009</v>
+      </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
@@ -1734,6 +1807,14 @@
       <c r="L11">
         <v>75000</v>
       </c>
+      <c r="M11" t="str">
+        <f t="shared" si="7"/>
+        <v>Y</v>
+      </c>
+      <c r="N11" t="str">
+        <f t="shared" si="8"/>
+        <v>FD13FCSWHI010</v>
+      </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
@@ -1779,6 +1860,14 @@
       <c r="L12">
         <v>75000</v>
       </c>
+      <c r="M12" t="str">
+        <f t="shared" si="7"/>
+        <v>Y</v>
+      </c>
+      <c r="N12" t="str">
+        <f t="shared" si="8"/>
+        <v>FD12FCSWHI011</v>
+      </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
@@ -1824,6 +1913,14 @@
       <c r="L13">
         <v>75000</v>
       </c>
+      <c r="M13" t="str">
+        <f t="shared" si="7"/>
+        <v>Y</v>
+      </c>
+      <c r="N13" t="str">
+        <f t="shared" si="8"/>
+        <v>FD13FCSBLA012</v>
+      </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
@@ -1869,6 +1966,14 @@
       <c r="L14">
         <v>75000</v>
       </c>
+      <c r="M14" t="str">
+        <f t="shared" si="7"/>
+        <v>Y</v>
+      </c>
+      <c r="N14" t="str">
+        <f t="shared" si="8"/>
+        <v>FD13FCSBLA013</v>
+      </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
@@ -1914,6 +2019,14 @@
       <c r="L15">
         <v>100000</v>
       </c>
+      <c r="M15" t="str">
+        <f t="shared" si="7"/>
+        <v>Y</v>
+      </c>
+      <c r="N15" t="str">
+        <f t="shared" si="8"/>
+        <v>GM09CMRWHI014</v>
+      </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
@@ -1959,8 +2072,16 @@
       <c r="L16">
         <v>100000</v>
       </c>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M16" t="str">
+        <f t="shared" si="7"/>
+        <v>Y</v>
+      </c>
+      <c r="N16" t="str">
+        <f t="shared" si="8"/>
+        <v>GM12CMRBLA015</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>42</v>
       </c>
@@ -2004,8 +2125,16 @@
       <c r="L17">
         <v>100000</v>
       </c>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M17" t="str">
+        <f t="shared" si="7"/>
+        <v>Y</v>
+      </c>
+      <c r="N17" t="str">
+        <f t="shared" si="8"/>
+        <v>GM14CMRWHI016</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>44</v>
       </c>
@@ -2049,8 +2178,16 @@
       <c r="L18">
         <v>100000</v>
       </c>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M18" t="str">
+        <f t="shared" si="7"/>
+        <v>Y</v>
+      </c>
+      <c r="N18" t="str">
+        <f t="shared" si="8"/>
+        <v>GM10SLVBLA017</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>46</v>
       </c>
@@ -2094,8 +2231,16 @@
       <c r="L19">
         <v>100000</v>
       </c>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M19" t="str">
+        <f t="shared" si="7"/>
+        <v>Y</v>
+      </c>
+      <c r="N19" t="str">
+        <f t="shared" si="8"/>
+        <v>GM98SLVBLA018</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>47</v>
       </c>
@@ -2139,8 +2284,16 @@
       <c r="L20">
         <v>100000</v>
       </c>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M20" t="str">
+        <f t="shared" si="7"/>
+        <v>Y</v>
+      </c>
+      <c r="N20" t="str">
+        <f t="shared" si="8"/>
+        <v>GM00SLVBLU019</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>49</v>
       </c>
@@ -2184,8 +2337,16 @@
       <c r="L21">
         <v>100000</v>
       </c>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M21" t="str">
+        <f t="shared" si="7"/>
+        <v>N</v>
+      </c>
+      <c r="N21" t="str">
+        <f t="shared" si="8"/>
+        <v>TY96CAMGRE020</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>51</v>
       </c>
@@ -2229,8 +2390,16 @@
       <c r="L22">
         <v>100000</v>
       </c>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M22" t="str">
+        <f t="shared" si="7"/>
+        <v>Y</v>
+      </c>
+      <c r="N22" t="str">
+        <f t="shared" si="8"/>
+        <v>TY98CAMBLA021</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>53</v>
       </c>
@@ -2274,8 +2443,16 @@
       <c r="L23">
         <v>100000</v>
       </c>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M23" t="str">
+        <f t="shared" si="7"/>
+        <v>Y</v>
+      </c>
+      <c r="N23" t="str">
+        <f t="shared" si="8"/>
+        <v>TY00CAMGRE022</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>54</v>
       </c>
@@ -2319,8 +2496,16 @@
       <c r="L24">
         <v>100000</v>
       </c>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M24" t="str">
+        <f t="shared" si="7"/>
+        <v>Y</v>
+      </c>
+      <c r="N24" t="str">
+        <f t="shared" si="8"/>
+        <v>TY02CAMBLA023</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>55</v>
       </c>
@@ -2364,8 +2549,16 @@
       <c r="L25">
         <v>100000</v>
       </c>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M25" t="str">
+        <f t="shared" si="7"/>
+        <v>Y</v>
+      </c>
+      <c r="N25" t="str">
+        <f t="shared" si="8"/>
+        <v>TY09CAMWHI024</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>56</v>
       </c>
@@ -2409,8 +2602,16 @@
       <c r="L26">
         <v>100000</v>
       </c>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M26" t="str">
+        <f t="shared" si="7"/>
+        <v>Y</v>
+      </c>
+      <c r="N26" t="str">
+        <f t="shared" si="8"/>
+        <v>TY02CORRED025</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>59</v>
       </c>
@@ -2454,8 +2655,16 @@
       <c r="L27">
         <v>100000</v>
       </c>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M27" t="str">
+        <f t="shared" si="7"/>
+        <v>Y</v>
+      </c>
+      <c r="N27" t="str">
+        <f t="shared" si="8"/>
+        <v>TY03CORBLA026</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>60</v>
       </c>
@@ -2499,8 +2708,16 @@
       <c r="L28">
         <v>100000</v>
       </c>
-    </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M28" t="str">
+        <f t="shared" si="7"/>
+        <v>Y</v>
+      </c>
+      <c r="N28" t="str">
+        <f t="shared" si="8"/>
+        <v>TY14CORBLU027</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>61</v>
       </c>
@@ -2544,8 +2761,16 @@
       <c r="L29">
         <v>100000</v>
       </c>
-    </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M29" t="str">
+        <f t="shared" si="7"/>
+        <v>Y</v>
+      </c>
+      <c r="N29" t="str">
+        <f t="shared" si="8"/>
+        <v>TY12CORBLA028</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>62</v>
       </c>
@@ -2589,8 +2814,16 @@
       <c r="L30">
         <v>100000</v>
       </c>
-    </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M30" t="str">
+        <f t="shared" si="7"/>
+        <v>Y</v>
+      </c>
+      <c r="N30" t="str">
+        <f t="shared" si="8"/>
+        <v>TY12CAMBLU029</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>63</v>
       </c>
@@ -2634,8 +2867,16 @@
       <c r="L31">
         <v>75000</v>
       </c>
-    </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M31" t="str">
+        <f t="shared" si="7"/>
+        <v>N</v>
+      </c>
+      <c r="N31" t="str">
+        <f t="shared" si="8"/>
+        <v>HO99CIVWHI030</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>64</v>
       </c>
@@ -2679,8 +2920,16 @@
       <c r="L32">
         <v>75000</v>
       </c>
-    </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M32" t="str">
+        <f t="shared" si="7"/>
+        <v>Y</v>
+      </c>
+      <c r="N32" t="str">
+        <f t="shared" si="8"/>
+        <v>HO01CIVBLU031</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>65</v>
       </c>
@@ -2724,8 +2973,16 @@
       <c r="L33">
         <v>75000</v>
       </c>
-    </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M33" t="str">
+        <f t="shared" si="7"/>
+        <v>Y</v>
+      </c>
+      <c r="N33" t="str">
+        <f t="shared" si="8"/>
+        <v>HO10CIVBLU032</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>66</v>
       </c>
@@ -2769,8 +3026,16 @@
       <c r="L34">
         <v>75000</v>
       </c>
-    </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M34" t="str">
+        <f t="shared" si="7"/>
+        <v>Y</v>
+      </c>
+      <c r="N34" t="str">
+        <f t="shared" si="8"/>
+        <v>HO10CIVBLA033</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>67</v>
       </c>
@@ -2814,8 +3079,16 @@
       <c r="L35">
         <v>75000</v>
       </c>
-    </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M35" t="str">
+        <f t="shared" si="7"/>
+        <v>Y</v>
+      </c>
+      <c r="N35" t="str">
+        <f t="shared" si="8"/>
+        <v>HO11CIVBLA034</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>68</v>
       </c>
@@ -2859,8 +3132,16 @@
       <c r="L36">
         <v>75000</v>
       </c>
-    </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M36" t="str">
+        <f t="shared" si="7"/>
+        <v>Y</v>
+      </c>
+      <c r="N36" t="str">
+        <f t="shared" si="8"/>
+        <v>HO12CIVBLA035</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>69</v>
       </c>
@@ -2904,8 +3185,16 @@
       <c r="L37">
         <v>75000</v>
       </c>
-    </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M37" t="str">
+        <f t="shared" si="7"/>
+        <v>Y</v>
+      </c>
+      <c r="N37" t="str">
+        <f t="shared" si="8"/>
+        <v>HO13CIVBLA036</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>121</v>
       </c>
@@ -2949,8 +3238,16 @@
       <c r="L38">
         <v>100000</v>
       </c>
-    </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M38" t="str">
+        <f t="shared" si="7"/>
+        <v>Y</v>
+      </c>
+      <c r="N38" t="str">
+        <f t="shared" si="8"/>
+        <v>HO05ODYWHI037</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>70</v>
       </c>
@@ -2994,8 +3291,16 @@
       <c r="L39">
         <v>100000</v>
       </c>
-    </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M39" t="str">
+        <f t="shared" si="7"/>
+        <v>Y</v>
+      </c>
+      <c r="N39" t="str">
+        <f t="shared" si="8"/>
+        <v>HO07ODYBLA038</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>71</v>
       </c>
@@ -3039,8 +3344,16 @@
       <c r="L40">
         <v>100000</v>
       </c>
-    </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M40" t="str">
+        <f t="shared" si="7"/>
+        <v>Y</v>
+      </c>
+      <c r="N40" t="str">
+        <f t="shared" si="8"/>
+        <v>HO08ODYWHI039</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>118</v>
       </c>
@@ -3084,8 +3397,16 @@
       <c r="L41">
         <v>100000</v>
       </c>
-    </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M41" t="str">
+        <f t="shared" si="7"/>
+        <v>Y</v>
+      </c>
+      <c r="N41" t="str">
+        <f t="shared" si="8"/>
+        <v>HO01ODYBLA040</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>72</v>
       </c>
@@ -3129,8 +3450,16 @@
       <c r="L42">
         <v>100000</v>
       </c>
-    </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M42" t="str">
+        <f t="shared" si="7"/>
+        <v>Y</v>
+      </c>
+      <c r="N42" t="str">
+        <f t="shared" si="8"/>
+        <v>HO14ODYBLA041</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>73</v>
       </c>
@@ -3174,8 +3503,16 @@
       <c r="L43">
         <v>75000</v>
       </c>
-    </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M43" t="str">
+        <f t="shared" si="7"/>
+        <v>Y</v>
+      </c>
+      <c r="N43" t="str">
+        <f t="shared" si="8"/>
+        <v>CR04PTCBLU042</v>
+      </c>
+    </row>
+    <row r="44" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>74</v>
       </c>
@@ -3219,8 +3556,16 @@
       <c r="L44">
         <v>75000</v>
       </c>
-    </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M44" t="str">
+        <f t="shared" si="7"/>
+        <v>Y</v>
+      </c>
+      <c r="N44" t="str">
+        <f t="shared" si="8"/>
+        <v>CR07PTCGRE043</v>
+      </c>
+    </row>
+    <row r="45" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>75</v>
       </c>
@@ -3264,8 +3609,16 @@
       <c r="L45">
         <v>75000</v>
       </c>
-    </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M45" t="str">
+        <f t="shared" si="7"/>
+        <v>Y</v>
+      </c>
+      <c r="N45" t="str">
+        <f t="shared" si="8"/>
+        <v>CR11PTCBLA044</v>
+      </c>
+    </row>
+    <row r="46" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>76</v>
       </c>
@@ -3309,8 +3662,16 @@
       <c r="L46">
         <v>75000</v>
       </c>
-    </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M46" t="str">
+        <f t="shared" si="7"/>
+        <v>N</v>
+      </c>
+      <c r="N46" t="str">
+        <f t="shared" si="8"/>
+        <v>CR99CARGRE045</v>
+      </c>
+    </row>
+    <row r="47" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>77</v>
       </c>
@@ -3354,8 +3715,16 @@
       <c r="L47">
         <v>75000</v>
       </c>
-    </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M47" t="str">
+        <f t="shared" si="7"/>
+        <v>N</v>
+      </c>
+      <c r="N47" t="str">
+        <f t="shared" si="8"/>
+        <v>CR00CARBLA046</v>
+      </c>
+    </row>
+    <row r="48" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>78</v>
       </c>
@@ -3399,8 +3768,16 @@
       <c r="L48">
         <v>75000</v>
       </c>
-    </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M48" t="str">
+        <f t="shared" si="7"/>
+        <v>Y</v>
+      </c>
+      <c r="N48" t="str">
+        <f t="shared" si="8"/>
+        <v>CR04CARWHI047</v>
+      </c>
+    </row>
+    <row r="49" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>79</v>
       </c>
@@ -3444,8 +3821,16 @@
       <c r="L49">
         <v>75000</v>
       </c>
-    </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M49" t="str">
+        <f t="shared" si="7"/>
+        <v>Y</v>
+      </c>
+      <c r="N49" t="str">
+        <f t="shared" si="8"/>
+        <v>CR04CARRED048</v>
+      </c>
+    </row>
+    <row r="50" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>80</v>
       </c>
@@ -3489,8 +3874,16 @@
       <c r="L50">
         <v>100000</v>
       </c>
-    </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M50" t="str">
+        <f t="shared" si="7"/>
+        <v>Y</v>
+      </c>
+      <c r="N50" t="str">
+        <f t="shared" si="8"/>
+        <v>HY11ELABLA049</v>
+      </c>
+    </row>
+    <row r="51" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>81</v>
       </c>
@@ -3534,8 +3927,16 @@
       <c r="L51">
         <v>100000</v>
       </c>
-    </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M51" t="str">
+        <f t="shared" si="7"/>
+        <v>Y</v>
+      </c>
+      <c r="N51" t="str">
+        <f t="shared" si="8"/>
+        <v>HY12ELABLU050</v>
+      </c>
+    </row>
+    <row r="52" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
         <v>82</v>
       </c>
@@ -3579,8 +3980,16 @@
       <c r="L52">
         <v>100000</v>
       </c>
-    </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M52" t="str">
+        <f t="shared" si="7"/>
+        <v>Y</v>
+      </c>
+      <c r="N52" t="str">
+        <f t="shared" si="8"/>
+        <v>HY13ELABLA051</v>
+      </c>
+    </row>
+    <row r="53" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
         <v>83</v>
       </c>
@@ -3624,8 +4033,16 @@
       <c r="L53">
         <v>100000</v>
       </c>
-    </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M53" t="str">
+        <f t="shared" si="7"/>
+        <v>Y</v>
+      </c>
+      <c r="N53" t="str">
+        <f t="shared" si="8"/>
+        <v>HY13ELABLU052</v>
+      </c>
+    </row>
+    <row r="56" spans="1:14" x14ac:dyDescent="0.35">
       <c r="B56" t="s">
         <v>95</v>
       </c>
@@ -3639,7 +4056,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:14" x14ac:dyDescent="0.35">
       <c r="B57" t="s">
         <v>84</v>
       </c>
@@ -3653,7 +4070,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:14" x14ac:dyDescent="0.35">
       <c r="B58" t="s">
         <v>89</v>
       </c>
@@ -3667,7 +4084,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:14" x14ac:dyDescent="0.35">
       <c r="B59" t="s">
         <v>94</v>
       </c>
@@ -3681,7 +4098,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:14" x14ac:dyDescent="0.35">
       <c r="B60" t="s">
         <v>92</v>
       </c>
@@ -3695,7 +4112,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:14" x14ac:dyDescent="0.35">
       <c r="B61" t="s">
         <v>93</v>
       </c>
@@ -3709,7 +4126,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:14" x14ac:dyDescent="0.35">
       <c r="D62" t="s">
         <v>97</v>
       </c>
@@ -3717,7 +4134,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:14" x14ac:dyDescent="0.35">
       <c r="D63" t="s">
         <v>117</v>
       </c>
@@ -3725,7 +4142,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:14" x14ac:dyDescent="0.35">
       <c r="D64" t="s">
         <v>103</v>
       </c>

--- a/excel/car_database/car database.xlsx
+++ b/excel/car_database/car database.xlsx
@@ -1,26 +1,30 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lenovo\Desktop\mikedevs\data-journey\excel\car_database\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E169016F-73D3-4AF7-B6F8-9843BB747E95}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADCFA9F6-129B-4513-BD88-AE804A704E32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{196D0D68-09E0-4E97-9B35-E2D7744763AB}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{196D0D68-09E0-4E97-9B35-E2D7744763AB}"/>
   </bookViews>
   <sheets>
-    <sheet name="car inventory" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
+    <sheet name="car inventory" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
+  <pivotCaches>
+    <pivotCache cacheId="3" r:id="rId3"/>
+  </pivotCaches>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="125">
   <si>
     <t>Car ID</t>
   </si>
@@ -386,6 +390,15 @@
   </si>
   <si>
     <t>HO05ODY037</t>
+  </si>
+  <si>
+    <t>Row Labels</t>
+  </si>
+  <si>
+    <t>Grand Total</t>
+  </si>
+  <si>
+    <t>Sum of Miles</t>
   </si>
 </sst>
 </file>
@@ -869,8 +882,13 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -927,6 +945,2113 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:pivotSource>
+    <c:name>[car database.xlsx]Sheet1!PivotTable1</c:name>
+    <c:fmtId val="2"/>
+  </c:pivotSource>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:pivotFmts>
+      <c:pivotFmt>
+        <c:idx val="0"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+    </c:pivotFmts>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="stacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$B$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Total</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$A$4:$A$21</c:f>
+              <c:strCache>
+                <c:ptCount val="17"/>
+                <c:pt idx="0">
+                  <c:v>Bard</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Chan</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Ewenty</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Gaul</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Howard</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Hulinski</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Jones</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Lyon</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>McCall</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Praulty</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Rodriguez</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Santos</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>Smith</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>Swartz</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>Torrens</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>Vizzini</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>Yousef</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$4:$B$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="17"/>
+                <c:pt idx="0">
+                  <c:v>144647.69999999998</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>150656.40000000002</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>154427.9</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>179986</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>143640.70000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>135078.20000000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>184693.8</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>127731.3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>70964.899999999994</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>65315</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>138561.5</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>141229.4</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>305432.40000000002</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>177713.9</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>65964.899999999994</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>130601.59999999999</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>19341.7</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-FD82-4226-8C95-70217A9EFEB4}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:overlap val="100"/>
+        <c:axId val="886231024"/>
+        <c:axId val="886239184"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="886231024"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="886239184"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="886239184"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="886231024"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+  <c:extLst>
+    <c:ext xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" uri="{781A3756-C4B2-4CAC-9D66-4F8BD8637D16}">
+      <c14:pivotOptions>
+        <c14:dropZoneFilter val="1"/>
+        <c14:dropZoneCategories val="1"/>
+        <c14:dropZoneData val="1"/>
+        <c14:dropZoneSeries val="1"/>
+        <c14:dropZonesVisible val="1"/>
+      </c14:pivotOptions>
+    </c:ext>
+    <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{E28EC0CA-F0BB-4C9C-879D-F8772B89E7AC}">
+      <c16:pivotOptions16>
+        <c16:showExpandCollapseFieldButtons val="1"/>
+      </c16:pivotOptions16>
+    </c:ext>
+  </c:extLst>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="297">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>482600</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>177800</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{24B2328E-17C6-0DF4-A858-B8015AF7247D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="lenovo" refreshedDate="45697.314957754628" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="52" xr:uid="{1A782E2A-63AC-4BFC-8A15-35CAE219BC07}">
+  <cacheSource type="worksheet">
+    <worksheetSource ref="A1:N53" sheet="car inventory"/>
+  </cacheSource>
+  <cacheFields count="14">
+    <cacheField name="Car ID" numFmtId="0">
+      <sharedItems/>
+    </cacheField>
+    <cacheField name="Make" numFmtId="0">
+      <sharedItems/>
+    </cacheField>
+    <cacheField name="Make (Full Name)" numFmtId="0">
+      <sharedItems/>
+    </cacheField>
+    <cacheField name="Model" numFmtId="0">
+      <sharedItems/>
+    </cacheField>
+    <cacheField name="Model (Full Name)" numFmtId="0">
+      <sharedItems/>
+    </cacheField>
+    <cacheField name="Manufacture Year" numFmtId="0">
+      <sharedItems/>
+    </cacheField>
+    <cacheField name="Age" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="11" maxValue="29"/>
+    </cacheField>
+    <cacheField name="Miles" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="3708.1" maxValue="114660.6"/>
+    </cacheField>
+    <cacheField name="Miles / Year" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="337.09999999999997" maxValue="3953.8137931034485"/>
+    </cacheField>
+    <cacheField name="Color" numFmtId="0">
+      <sharedItems/>
+    </cacheField>
+    <cacheField name="Driver" numFmtId="0">
+      <sharedItems count="17">
+        <s v="Smith"/>
+        <s v="McCall"/>
+        <s v="Lyon"/>
+        <s v="Jones"/>
+        <s v="Ewenty"/>
+        <s v="Howard"/>
+        <s v="Praulty"/>
+        <s v="Yousef"/>
+        <s v="Vizzini"/>
+        <s v="Rodriguez"/>
+        <s v="Santos"/>
+        <s v="Bard"/>
+        <s v="Torrens"/>
+        <s v="Hulinski"/>
+        <s v="Chan"/>
+        <s v="Swartz"/>
+        <s v="Gaul"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="Warantee Miles" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="50000" maxValue="100000"/>
+    </cacheField>
+    <cacheField name="Covered?" numFmtId="0">
+      <sharedItems/>
+    </cacheField>
+    <cacheField name="New Car ID" numFmtId="0">
+      <sharedItems/>
+    </cacheField>
+  </cacheFields>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition/>
+    </ext>
+  </extLst>
+</pivotCacheDefinition>
+</file>
+
+<file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="52">
+  <r>
+    <s v="FD06MTG001"/>
+    <s v="FD"/>
+    <s v="Ford"/>
+    <s v="MTG"/>
+    <s v="Mustang"/>
+    <s v="06"/>
+    <n v="19"/>
+    <n v="40326.800000000003"/>
+    <n v="2122.4631578947369"/>
+    <s v="Black"/>
+    <x v="0"/>
+    <n v="50000"/>
+    <s v="Y"/>
+    <s v="FD06MTGBLA001"/>
+  </r>
+  <r>
+    <s v="FD06MTG002"/>
+    <s v="FD"/>
+    <s v="Ford"/>
+    <s v="MTG"/>
+    <s v="Mustang"/>
+    <s v="06"/>
+    <n v="19"/>
+    <n v="44974.8"/>
+    <n v="2367.0947368421052"/>
+    <s v="White"/>
+    <x v="1"/>
+    <n v="50000"/>
+    <s v="Y"/>
+    <s v="FD06MTGWHI002"/>
+  </r>
+  <r>
+    <s v="FD08MTG003"/>
+    <s v="FD"/>
+    <s v="Ford"/>
+    <s v="MTG"/>
+    <s v="Mustang"/>
+    <s v="08"/>
+    <n v="17"/>
+    <n v="44946.5"/>
+    <n v="2643.9117647058824"/>
+    <s v="Green"/>
+    <x v="2"/>
+    <n v="50000"/>
+    <s v="Y"/>
+    <s v="FD08MTGGRE003"/>
+  </r>
+  <r>
+    <s v="FD08MTG004"/>
+    <s v="FD"/>
+    <s v="Ford"/>
+    <s v="MTG"/>
+    <s v="Mustang"/>
+    <s v="08"/>
+    <n v="17"/>
+    <n v="37558.800000000003"/>
+    <n v="2209.3411764705884"/>
+    <s v="Black"/>
+    <x v="3"/>
+    <n v="50000"/>
+    <s v="Y"/>
+    <s v="FD08MTGBLA004"/>
+  </r>
+  <r>
+    <s v="FD08MTG005"/>
+    <s v="FD"/>
+    <s v="Ford"/>
+    <s v="MTG"/>
+    <s v="Mustang"/>
+    <s v="08"/>
+    <n v="17"/>
+    <n v="36438.5"/>
+    <n v="2143.4411764705883"/>
+    <s v="White"/>
+    <x v="0"/>
+    <n v="50000"/>
+    <s v="Y"/>
+    <s v="FD08MTGWHI005"/>
+  </r>
+  <r>
+    <s v="FD06FCS006"/>
+    <s v="FD"/>
+    <s v="Ford"/>
+    <s v="FCS"/>
+    <s v="Focus"/>
+    <s v="06"/>
+    <n v="19"/>
+    <n v="46311.4"/>
+    <n v="2437.4421052631578"/>
+    <s v="Green"/>
+    <x v="4"/>
+    <n v="75000"/>
+    <s v="Y"/>
+    <s v="FD06FCSGRE006"/>
+  </r>
+  <r>
+    <s v="FD06FCS007"/>
+    <s v="FD"/>
+    <s v="Ford"/>
+    <s v="FCS"/>
+    <s v="Focus"/>
+    <s v="06"/>
+    <n v="19"/>
+    <n v="52229.5"/>
+    <n v="2748.9210526315787"/>
+    <s v="Green"/>
+    <x v="2"/>
+    <n v="75000"/>
+    <s v="Y"/>
+    <s v="FD06FCSGRE007"/>
+  </r>
+  <r>
+    <s v="FD09FCS008"/>
+    <s v="FD"/>
+    <s v="Ford"/>
+    <s v="FCS"/>
+    <s v="Focus"/>
+    <s v="09"/>
+    <n v="16"/>
+    <n v="35137"/>
+    <n v="2196.0625"/>
+    <s v="Black"/>
+    <x v="5"/>
+    <n v="75000"/>
+    <s v="Y"/>
+    <s v="FD09FCSBLA008"/>
+  </r>
+  <r>
+    <s v="FD13FCS009"/>
+    <s v="FD"/>
+    <s v="Ford"/>
+    <s v="FCS"/>
+    <s v="Focus"/>
+    <s v="13"/>
+    <n v="12"/>
+    <n v="27637.1"/>
+    <n v="2303.0916666666667"/>
+    <s v="Black"/>
+    <x v="0"/>
+    <n v="75000"/>
+    <s v="Y"/>
+    <s v="FD13FCSBLA009"/>
+  </r>
+  <r>
+    <s v="FD13FCS010"/>
+    <s v="FD"/>
+    <s v="Ford"/>
+    <s v="FCS"/>
+    <s v="Focus"/>
+    <s v="13"/>
+    <n v="12"/>
+    <n v="27534.799999999999"/>
+    <n v="2294.5666666666666"/>
+    <s v="White"/>
+    <x v="6"/>
+    <n v="75000"/>
+    <s v="Y"/>
+    <s v="FD13FCSWHI010"/>
+  </r>
+  <r>
+    <s v="FD12FCS011"/>
+    <s v="FD"/>
+    <s v="Ford"/>
+    <s v="FCS"/>
+    <s v="Focus"/>
+    <s v="12"/>
+    <n v="13"/>
+    <n v="19341.7"/>
+    <n v="1487.823076923077"/>
+    <s v="White"/>
+    <x v="7"/>
+    <n v="75000"/>
+    <s v="Y"/>
+    <s v="FD12FCSWHI011"/>
+  </r>
+  <r>
+    <s v="FD13FCS012"/>
+    <s v="FD"/>
+    <s v="Ford"/>
+    <s v="FCS"/>
+    <s v="Focus"/>
+    <s v="13"/>
+    <n v="12"/>
+    <n v="22521.599999999999"/>
+    <n v="1876.8"/>
+    <s v="Black"/>
+    <x v="8"/>
+    <n v="75000"/>
+    <s v="Y"/>
+    <s v="FD13FCSBLA012"/>
+  </r>
+  <r>
+    <s v="FD13FCS013"/>
+    <s v="FD"/>
+    <s v="Ford"/>
+    <s v="FCS"/>
+    <s v="Focus"/>
+    <s v="13"/>
+    <n v="12"/>
+    <n v="13682.9"/>
+    <n v="1140.2416666666666"/>
+    <s v="Black"/>
+    <x v="9"/>
+    <n v="75000"/>
+    <s v="Y"/>
+    <s v="FD13FCSBLA013"/>
+  </r>
+  <r>
+    <s v="GM09CMR014"/>
+    <s v="GM"/>
+    <s v="General Motors"/>
+    <s v="CMR"/>
+    <s v="Camero"/>
+    <s v="09"/>
+    <n v="16"/>
+    <n v="28464.799999999999"/>
+    <n v="1779.05"/>
+    <s v="White"/>
+    <x v="10"/>
+    <n v="100000"/>
+    <s v="Y"/>
+    <s v="GM09CMRWHI014"/>
+  </r>
+  <r>
+    <s v="GM12CMR015"/>
+    <s v="GM"/>
+    <s v="General Motors"/>
+    <s v="CMR"/>
+    <s v="Camero"/>
+    <s v="12"/>
+    <n v="13"/>
+    <n v="19421.099999999999"/>
+    <n v="1493.9307692307691"/>
+    <s v="Black"/>
+    <x v="11"/>
+    <n v="100000"/>
+    <s v="Y"/>
+    <s v="GM12CMRBLA015"/>
+  </r>
+  <r>
+    <s v="GM14CMR016"/>
+    <s v="GM"/>
+    <s v="General Motors"/>
+    <s v="CMR"/>
+    <s v="Camero"/>
+    <s v="14"/>
+    <n v="11"/>
+    <n v="14289.6"/>
+    <n v="1299.0545454545454"/>
+    <s v="White"/>
+    <x v="12"/>
+    <n v="100000"/>
+    <s v="Y"/>
+    <s v="GM14CMRWHI016"/>
+  </r>
+  <r>
+    <s v="GM10SLV017"/>
+    <s v="GM"/>
+    <s v="General Motors"/>
+    <s v="SLV"/>
+    <s v="Silverado"/>
+    <s v="10"/>
+    <n v="15"/>
+    <n v="31144.400000000001"/>
+    <n v="2076.2933333333335"/>
+    <s v="Black"/>
+    <x v="13"/>
+    <n v="100000"/>
+    <s v="Y"/>
+    <s v="GM10SLVBLA017"/>
+  </r>
+  <r>
+    <s v="GM98SLV018"/>
+    <s v="GM"/>
+    <s v="General Motors"/>
+    <s v="SLV"/>
+    <s v="Silverado"/>
+    <s v="98"/>
+    <n v="27"/>
+    <n v="83162.7"/>
+    <n v="3080.1"/>
+    <s v="Black"/>
+    <x v="10"/>
+    <n v="100000"/>
+    <s v="Y"/>
+    <s v="GM98SLVBLA018"/>
+  </r>
+  <r>
+    <s v="GM00SLV019"/>
+    <s v="GM"/>
+    <s v="General Motors"/>
+    <s v="SLV"/>
+    <s v="Silverado"/>
+    <s v="00"/>
+    <n v="25"/>
+    <n v="80685.8"/>
+    <n v="3227.4320000000002"/>
+    <s v="Blue"/>
+    <x v="8"/>
+    <n v="100000"/>
+    <s v="Y"/>
+    <s v="GM00SLVBLU019"/>
+  </r>
+  <r>
+    <s v="TY96CAM020"/>
+    <s v="TY"/>
+    <s v="Toyota"/>
+    <s v="CAM"/>
+    <s v="Camry"/>
+    <s v="96"/>
+    <n v="29"/>
+    <n v="114660.6"/>
+    <n v="3953.8137931034485"/>
+    <s v="Green"/>
+    <x v="14"/>
+    <n v="100000"/>
+    <s v="N"/>
+    <s v="TY96CAMGRE020"/>
+  </r>
+  <r>
+    <s v="TY98CAM021"/>
+    <s v="TY"/>
+    <s v="Toyota"/>
+    <s v="CAM"/>
+    <s v="Camry"/>
+    <s v="98"/>
+    <n v="27"/>
+    <n v="93382.6"/>
+    <n v="3458.614814814815"/>
+    <s v="Black"/>
+    <x v="15"/>
+    <n v="100000"/>
+    <s v="Y"/>
+    <s v="TY98CAMBLA021"/>
+  </r>
+  <r>
+    <s v="TY00CAM022"/>
+    <s v="TY"/>
+    <s v="Toyota"/>
+    <s v="CAM"/>
+    <s v="Camry"/>
+    <s v="00"/>
+    <n v="25"/>
+    <n v="85928"/>
+    <n v="3437.12"/>
+    <s v="Green"/>
+    <x v="4"/>
+    <n v="100000"/>
+    <s v="Y"/>
+    <s v="TY00CAMGRE022"/>
+  </r>
+  <r>
+    <s v="TY02CAM023"/>
+    <s v="TY"/>
+    <s v="Toyota"/>
+    <s v="CAM"/>
+    <s v="Camry"/>
+    <s v="02"/>
+    <n v="23"/>
+    <n v="67829.100000000006"/>
+    <n v="2949.0913043478263"/>
+    <s v="Black"/>
+    <x v="0"/>
+    <n v="100000"/>
+    <s v="Y"/>
+    <s v="TY02CAMBLA023"/>
+  </r>
+  <r>
+    <s v="TY09CAM024"/>
+    <s v="TY"/>
+    <s v="Toyota"/>
+    <s v="CAM"/>
+    <s v="Camry"/>
+    <s v="09"/>
+    <n v="16"/>
+    <n v="48114.2"/>
+    <n v="3007.1374999999998"/>
+    <s v="White"/>
+    <x v="5"/>
+    <n v="100000"/>
+    <s v="Y"/>
+    <s v="TY09CAMWHI024"/>
+  </r>
+  <r>
+    <s v="TY02COR025"/>
+    <s v="TY"/>
+    <s v="Toyota"/>
+    <s v="COR"/>
+    <s v="Corolla"/>
+    <s v="02"/>
+    <n v="23"/>
+    <n v="64467.4"/>
+    <n v="2802.9304347826087"/>
+    <s v="Red"/>
+    <x v="16"/>
+    <n v="100000"/>
+    <s v="Y"/>
+    <s v="TY02CORRED025"/>
+  </r>
+  <r>
+    <s v="TY03COR026"/>
+    <s v="TY"/>
+    <s v="Toyota"/>
+    <s v="COR"/>
+    <s v="Corolla"/>
+    <s v="03"/>
+    <n v="22"/>
+    <n v="73444.399999999994"/>
+    <n v="3338.3818181818178"/>
+    <s v="Black"/>
+    <x v="16"/>
+    <n v="100000"/>
+    <s v="Y"/>
+    <s v="TY03CORBLA026"/>
+  </r>
+  <r>
+    <s v="TY14COR027"/>
+    <s v="TY"/>
+    <s v="Toyota"/>
+    <s v="COR"/>
+    <s v="Corolla"/>
+    <s v="14"/>
+    <n v="11"/>
+    <n v="17556.3"/>
+    <n v="1596.0272727272727"/>
+    <s v="Blue"/>
+    <x v="6"/>
+    <n v="100000"/>
+    <s v="Y"/>
+    <s v="TY14CORBLU027"/>
+  </r>
+  <r>
+    <s v="TY12COR028"/>
+    <s v="TY"/>
+    <s v="Toyota"/>
+    <s v="COR"/>
+    <s v="Corolla"/>
+    <s v="12"/>
+    <n v="13"/>
+    <n v="29601.9"/>
+    <n v="2277.0692307692307"/>
+    <s v="Black"/>
+    <x v="10"/>
+    <n v="100000"/>
+    <s v="Y"/>
+    <s v="TY12CORBLA028"/>
+  </r>
+  <r>
+    <s v="TY12CAM029"/>
+    <s v="TY"/>
+    <s v="Toyota"/>
+    <s v="CAM"/>
+    <s v="Camry"/>
+    <s v="12"/>
+    <n v="13"/>
+    <n v="22128.2"/>
+    <n v="1702.1692307692308"/>
+    <s v="Blue"/>
+    <x v="14"/>
+    <n v="100000"/>
+    <s v="Y"/>
+    <s v="TY12CAMBLU029"/>
+  </r>
+  <r>
+    <s v="HO99CIV030"/>
+    <s v="HO"/>
+    <s v="Honda"/>
+    <s v="CIV"/>
+    <s v="Civic"/>
+    <s v="99"/>
+    <n v="26"/>
+    <n v="82374"/>
+    <n v="3168.2307692307691"/>
+    <s v="White"/>
+    <x v="9"/>
+    <n v="75000"/>
+    <s v="N"/>
+    <s v="HO99CIVWHI030"/>
+  </r>
+  <r>
+    <s v="HO01CIV031"/>
+    <s v="HO"/>
+    <s v="Honda"/>
+    <s v="CIV"/>
+    <s v="Civic"/>
+    <s v="01"/>
+    <n v="24"/>
+    <n v="69891.899999999994"/>
+    <n v="2912.1624999999999"/>
+    <s v="Blue"/>
+    <x v="3"/>
+    <n v="75000"/>
+    <s v="Y"/>
+    <s v="HO01CIVBLU031"/>
+  </r>
+  <r>
+    <s v="HO10CIV032"/>
+    <s v="HO"/>
+    <s v="Honda"/>
+    <s v="CIV"/>
+    <s v="Civic"/>
+    <s v="10"/>
+    <n v="15"/>
+    <n v="22573"/>
+    <n v="1504.8666666666666"/>
+    <s v="Blue"/>
+    <x v="12"/>
+    <n v="75000"/>
+    <s v="Y"/>
+    <s v="HO10CIVBLU032"/>
+  </r>
+  <r>
+    <s v="HO10CIV033"/>
+    <s v="HO"/>
+    <s v="Honda"/>
+    <s v="CIV"/>
+    <s v="Civic"/>
+    <s v="10"/>
+    <n v="15"/>
+    <n v="33477.199999999997"/>
+    <n v="2231.813333333333"/>
+    <s v="Black"/>
+    <x v="15"/>
+    <n v="75000"/>
+    <s v="Y"/>
+    <s v="HO10CIVBLA033"/>
+  </r>
+  <r>
+    <s v="HO11CIV034"/>
+    <s v="HO"/>
+    <s v="Honda"/>
+    <s v="CIV"/>
+    <s v="Civic"/>
+    <s v="11"/>
+    <n v="14"/>
+    <n v="30555.3"/>
+    <n v="2182.5214285714287"/>
+    <s v="Black"/>
+    <x v="2"/>
+    <n v="75000"/>
+    <s v="Y"/>
+    <s v="HO11CIVBLA034"/>
+  </r>
+  <r>
+    <s v="HO12CIV035"/>
+    <s v="HO"/>
+    <s v="Honda"/>
+    <s v="CIV"/>
+    <s v="Civic"/>
+    <s v="12"/>
+    <n v="13"/>
+    <n v="24513.200000000001"/>
+    <n v="1885.6307692307694"/>
+    <s v="Black"/>
+    <x v="13"/>
+    <n v="75000"/>
+    <s v="Y"/>
+    <s v="HO12CIVBLA035"/>
+  </r>
+  <r>
+    <s v="HO13CIV036"/>
+    <s v="HO"/>
+    <s v="Honda"/>
+    <s v="CIV"/>
+    <s v="Civic"/>
+    <s v="13"/>
+    <n v="12"/>
+    <n v="13867.6"/>
+    <n v="1155.6333333333334"/>
+    <s v="Black"/>
+    <x v="14"/>
+    <n v="75000"/>
+    <s v="Y"/>
+    <s v="HO13CIVBLA036"/>
+  </r>
+  <r>
+    <s v="HO05ODY037"/>
+    <s v="HO"/>
+    <s v="Honda"/>
+    <s v="ODY"/>
+    <s v="Odyssy"/>
+    <s v="05"/>
+    <n v="20"/>
+    <n v="60389.5"/>
+    <n v="3019.4749999999999"/>
+    <s v="White"/>
+    <x v="5"/>
+    <n v="100000"/>
+    <s v="Y"/>
+    <s v="HO05ODYWHI037"/>
+  </r>
+  <r>
+    <s v="HO07ODY038"/>
+    <s v="HO"/>
+    <s v="Honda"/>
+    <s v="ODY"/>
+    <s v="Odyssy"/>
+    <s v="07"/>
+    <n v="18"/>
+    <n v="50854.1"/>
+    <n v="2825.2277777777776"/>
+    <s v="Black"/>
+    <x v="15"/>
+    <n v="100000"/>
+    <s v="Y"/>
+    <s v="HO07ODYBLA038"/>
+  </r>
+  <r>
+    <s v="HO08ODY039"/>
+    <s v="HO"/>
+    <s v="Honda"/>
+    <s v="ODY"/>
+    <s v="Odyssy"/>
+    <s v="08"/>
+    <n v="17"/>
+    <n v="42504.6"/>
+    <n v="2500.2705882352939"/>
+    <s v="White"/>
+    <x v="9"/>
+    <n v="100000"/>
+    <s v="Y"/>
+    <s v="HO08ODYWHI039"/>
+  </r>
+  <r>
+    <s v="HO01ODY040"/>
+    <s v="HO"/>
+    <s v="Honda"/>
+    <s v="ODY"/>
+    <s v="Odyssy"/>
+    <s v="01"/>
+    <n v="24"/>
+    <n v="68658.899999999994"/>
+    <n v="2860.7874999999999"/>
+    <s v="Black"/>
+    <x v="0"/>
+    <n v="100000"/>
+    <s v="Y"/>
+    <s v="HO01ODYBLA040"/>
+  </r>
+  <r>
+    <s v="HO14ODY041"/>
+    <s v="HO"/>
+    <s v="Honda"/>
+    <s v="ODY"/>
+    <s v="Odyssy"/>
+    <s v="14"/>
+    <n v="11"/>
+    <n v="3708.1"/>
+    <n v="337.09999999999997"/>
+    <s v="Black"/>
+    <x v="1"/>
+    <n v="100000"/>
+    <s v="Y"/>
+    <s v="HO14ODYBLA041"/>
+  </r>
+  <r>
+    <s v="CR04PTC042"/>
+    <s v="CR"/>
+    <s v="Chrystler"/>
+    <s v="PTC"/>
+    <s v="PT Cruiser"/>
+    <s v="04"/>
+    <n v="21"/>
+    <n v="64542"/>
+    <n v="3073.4285714285716"/>
+    <s v="Blue"/>
+    <x v="0"/>
+    <n v="75000"/>
+    <s v="Y"/>
+    <s v="CR04PTCBLU042"/>
+  </r>
+  <r>
+    <s v="CR07PTC043"/>
+    <s v="CR"/>
+    <s v="Chrystler"/>
+    <s v="PTC"/>
+    <s v="PT Cruiser"/>
+    <s v="07"/>
+    <n v="18"/>
+    <n v="42074.2"/>
+    <n v="2337.4555555555553"/>
+    <s v="Green"/>
+    <x v="16"/>
+    <n v="75000"/>
+    <s v="Y"/>
+    <s v="CR07PTCGRE043"/>
+  </r>
+  <r>
+    <s v="CR11PTC044"/>
+    <s v="CR"/>
+    <s v="Chrystler"/>
+    <s v="PTC"/>
+    <s v="PT Cruiser"/>
+    <s v="11"/>
+    <n v="14"/>
+    <n v="27394.2"/>
+    <n v="1956.7285714285715"/>
+    <s v="Black"/>
+    <x v="8"/>
+    <n v="75000"/>
+    <s v="Y"/>
+    <s v="CR11PTCBLA044"/>
+  </r>
+  <r>
+    <s v="CR99CAR045"/>
+    <s v="CR"/>
+    <s v="Chrystler"/>
+    <s v="CAR"/>
+    <s v="Caravan"/>
+    <s v="99"/>
+    <n v="26"/>
+    <n v="79420.600000000006"/>
+    <n v="3054.6384615384618"/>
+    <s v="Green"/>
+    <x v="13"/>
+    <n v="75000"/>
+    <s v="N"/>
+    <s v="CR99CARGRE045"/>
+  </r>
+  <r>
+    <s v="CR00CAR046"/>
+    <s v="CR"/>
+    <s v="Chrystler"/>
+    <s v="CAR"/>
+    <s v="Caravan"/>
+    <s v="00"/>
+    <n v="25"/>
+    <n v="77243.100000000006"/>
+    <n v="3089.7240000000002"/>
+    <s v="Black"/>
+    <x v="3"/>
+    <n v="75000"/>
+    <s v="N"/>
+    <s v="CR00CARBLA046"/>
+  </r>
+  <r>
+    <s v="CR04CAR047"/>
+    <s v="CR"/>
+    <s v="Chrystler"/>
+    <s v="CAR"/>
+    <s v="Caravan"/>
+    <s v="04"/>
+    <n v="21"/>
+    <n v="72527.199999999997"/>
+    <n v="3453.6761904761902"/>
+    <s v="White"/>
+    <x v="11"/>
+    <n v="75000"/>
+    <s v="Y"/>
+    <s v="CR04CARWHI047"/>
+  </r>
+  <r>
+    <s v="CR04CAR048"/>
+    <s v="CR"/>
+    <s v="Chrystler"/>
+    <s v="CAR"/>
+    <s v="Caravan"/>
+    <s v="04"/>
+    <n v="21"/>
+    <n v="52699.4"/>
+    <n v="2509.4952380952382"/>
+    <s v="Red"/>
+    <x v="11"/>
+    <n v="75000"/>
+    <s v="Y"/>
+    <s v="CR04CARRED048"/>
+  </r>
+  <r>
+    <s v="HY11ELA049"/>
+    <s v="HY"/>
+    <s v="Hyundai"/>
+    <s v="ELA"/>
+    <s v="Elantra"/>
+    <s v="11"/>
+    <n v="14"/>
+    <n v="29102.3"/>
+    <n v="2078.735714285714"/>
+    <s v="Black"/>
+    <x v="12"/>
+    <n v="100000"/>
+    <s v="Y"/>
+    <s v="HY11ELABLA049"/>
+  </r>
+  <r>
+    <s v="HY12ELA050"/>
+    <s v="HY"/>
+    <s v="Hyundai"/>
+    <s v="ELA"/>
+    <s v="Elantra"/>
+    <s v="12"/>
+    <n v="13"/>
+    <n v="22282"/>
+    <n v="1714"/>
+    <s v="Blue"/>
+    <x v="1"/>
+    <n v="100000"/>
+    <s v="Y"/>
+    <s v="HY12ELABLU050"/>
+  </r>
+  <r>
+    <s v="HY13ELA051"/>
+    <s v="HY"/>
+    <s v="Hyundai"/>
+    <s v="ELA"/>
+    <s v="Elantra"/>
+    <s v="13"/>
+    <n v="12"/>
+    <n v="20223.900000000001"/>
+    <n v="1685.325"/>
+    <s v="Black"/>
+    <x v="6"/>
+    <n v="100000"/>
+    <s v="Y"/>
+    <s v="HY13ELABLA051"/>
+  </r>
+  <r>
+    <s v="HY13ELA052"/>
+    <s v="HY"/>
+    <s v="Hyundai"/>
+    <s v="ELA"/>
+    <s v="Elantra"/>
+    <s v="13"/>
+    <n v="12"/>
+    <n v="22188.5"/>
+    <n v="1849.0416666666667"/>
+    <s v="Blue"/>
+    <x v="4"/>
+    <n v="100000"/>
+    <s v="Y"/>
+    <s v="HY13ELABLU052"/>
+  </r>
+</pivotCacheRecords>
+</file>
+
+<file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{72B3D78D-52AD-449D-B105-B34263DCEDD7}" name="PivotTable1" cacheId="3" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3">
+  <location ref="A3:B21" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="14">
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="18">
+        <item x="11"/>
+        <item x="14"/>
+        <item x="4"/>
+        <item x="16"/>
+        <item x="5"/>
+        <item x="13"/>
+        <item x="3"/>
+        <item x="2"/>
+        <item x="1"/>
+        <item x="6"/>
+        <item x="9"/>
+        <item x="10"/>
+        <item x="0"/>
+        <item x="15"/>
+        <item x="12"/>
+        <item x="8"/>
+        <item x="7"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="10"/>
+  </rowFields>
+  <rowItems count="18">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="7"/>
+    </i>
+    <i>
+      <x v="8"/>
+    </i>
+    <i>
+      <x v="9"/>
+    </i>
+    <i>
+      <x v="10"/>
+    </i>
+    <i>
+      <x v="11"/>
+    </i>
+    <i>
+      <x v="12"/>
+    </i>
+    <i>
+      <x v="13"/>
+    </i>
+    <i>
+      <x v="14"/>
+    </i>
+    <i>
+      <x v="15"/>
+    </i>
+    <i>
+      <x v="16"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Sum of Miles" fld="7" baseField="0" baseItem="0"/>
+  </dataFields>
+  <chartFormats count="1">
+    <chartFormat chart="2" format="0" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1225,11 +3350,183 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5408D34E-7D24-4B67-875A-0320BB23442D}">
+  <dimension ref="A3:B21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E21" sqref="E21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="12.36328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.54296875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="B3" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A4" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B4" s="3">
+        <v>144647.69999999998</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A5" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B5" s="3">
+        <v>150656.40000000002</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A6" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B6" s="3">
+        <v>154427.9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A7" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B7" s="3">
+        <v>179986</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A8" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B8" s="3">
+        <v>143640.70000000001</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A9" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B9" s="3">
+        <v>135078.20000000001</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A10" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B10" s="3">
+        <v>184693.8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A11" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" s="3">
+        <v>127731.3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A12" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B12" s="3">
+        <v>70964.899999999994</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A13" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B13" s="3">
+        <v>65315</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A14" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B14" s="3">
+        <v>138561.5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A15" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B15" s="3">
+        <v>141229.4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A16" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B16" s="3">
+        <v>305432.40000000002</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A17" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B17" s="3">
+        <v>177713.9</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A18" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B18" s="3">
+        <v>65964.899999999994</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A19" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B19" s="3">
+        <v>130601.59999999999</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A20" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B20" s="3">
+        <v>19341.7</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A21" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="B21" s="3">
+        <v>2335987.2999999998</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF49C490-40C4-41A8-88BF-87A5D58F4AC8}">
   <dimension ref="A1:N66"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N53" sqref="N53"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="F55" sqref="F55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1288,2585 +3585,2585 @@
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>14</v>
+        <v>49</v>
       </c>
       <c r="B2" t="str">
         <f>LEFT(A2,2)</f>
-        <v>FD</v>
+        <v>TY</v>
       </c>
       <c r="C2" t="str">
         <f>VLOOKUP(B2,B$56:C$61,2)</f>
-        <v>Ford</v>
+        <v>Toyota</v>
       </c>
       <c r="D2" t="str">
         <f>MID(A2,5,3)</f>
-        <v>MTG</v>
+        <v>CAM</v>
       </c>
       <c r="E2" t="str">
         <f>VLOOKUP(D2,D$56:E$66,2)</f>
-        <v>Mustang</v>
+        <v>Camry</v>
       </c>
       <c r="F2" t="str">
         <f>MID(A2,3,2)</f>
-        <v>06</v>
+        <v>96</v>
       </c>
       <c r="G2">
         <f>IF(25-F2&lt;0,100-F2+25,25-F2)</f>
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="H2">
-        <v>40326.800000000003</v>
+        <v>114660.6</v>
       </c>
       <c r="I2">
         <f>H2/G2</f>
-        <v>2122.4631578947369</v>
+        <v>3953.8137931034485</v>
       </c>
       <c r="J2" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="K2" t="s">
-        <v>16</v>
+        <v>50</v>
       </c>
       <c r="L2">
-        <v>50000</v>
+        <v>100000</v>
       </c>
       <c r="M2" t="str">
         <f>IF(H2&lt;=L2,"Y", "N")</f>
-        <v>Y</v>
+        <v>N</v>
       </c>
       <c r="N2" t="str">
         <f>CONCATENATE(B2,F2,D2,UPPER(LEFT(J2,3)),RIGHT(A2,3))</f>
-        <v>FD06MTGBLA001</v>
+        <v>TY96CAMGRE020</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>17</v>
+        <v>51</v>
       </c>
       <c r="B3" t="str">
-        <f t="shared" ref="B3:B53" si="0">LEFT(A3,2)</f>
-        <v>FD</v>
+        <f>LEFT(A3,2)</f>
+        <v>TY</v>
       </c>
       <c r="C3" t="str">
-        <f t="shared" ref="C3:C53" si="1">VLOOKUP(B3,B$56:C$61,2)</f>
-        <v>Ford</v>
+        <f>VLOOKUP(B3,B$56:C$61,2)</f>
+        <v>Toyota</v>
       </c>
       <c r="D3" t="str">
-        <f t="shared" ref="D3:D53" si="2">MID(A3,5,3)</f>
-        <v>MTG</v>
+        <f>MID(A3,5,3)</f>
+        <v>CAM</v>
       </c>
       <c r="E3" t="str">
-        <f t="shared" ref="E3:E53" si="3">VLOOKUP(D3,D$56:E$66,2)</f>
-        <v>Mustang</v>
+        <f>VLOOKUP(D3,D$56:E$66,2)</f>
+        <v>Camry</v>
       </c>
       <c r="F3" t="str">
-        <f t="shared" ref="F3:F53" si="4">MID(A3,3,2)</f>
-        <v>06</v>
+        <f>MID(A3,3,2)</f>
+        <v>98</v>
       </c>
       <c r="G3">
-        <f t="shared" ref="G3:G53" si="5">IF(25-F3&lt;0,100-F3+25,25-F3)</f>
-        <v>19</v>
+        <f>IF(25-F3&lt;0,100-F3+25,25-F3)</f>
+        <v>27</v>
       </c>
       <c r="H3">
-        <v>44974.8</v>
+        <v>93382.6</v>
       </c>
       <c r="I3">
-        <f t="shared" ref="I3:I53" si="6">H3/G3</f>
-        <v>2367.0947368421052</v>
+        <f>H3/G3</f>
+        <v>3458.614814814815</v>
       </c>
       <c r="J3" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="K3" t="s">
-        <v>19</v>
+        <v>52</v>
       </c>
       <c r="L3">
-        <v>50000</v>
+        <v>100000</v>
       </c>
       <c r="M3" t="str">
-        <f t="shared" ref="M3:M53" si="7">IF(H3&lt;=L3,"Y", "N")</f>
+        <f>IF(H3&lt;=L3,"Y", "N")</f>
         <v>Y</v>
       </c>
       <c r="N3" t="str">
-        <f t="shared" ref="N3:N53" si="8">CONCATENATE(B3,F3,D3,UPPER(LEFT(J3,3)),RIGHT(A3,3))</f>
-        <v>FD06MTGWHI002</v>
+        <f>CONCATENATE(B3,F3,D3,UPPER(LEFT(J3,3)),RIGHT(A3,3))</f>
+        <v>TY98CAMBLA021</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>20</v>
+        <v>53</v>
       </c>
       <c r="B4" t="str">
-        <f t="shared" si="0"/>
-        <v>FD</v>
+        <f>LEFT(A4,2)</f>
+        <v>TY</v>
       </c>
       <c r="C4" t="str">
-        <f t="shared" si="1"/>
-        <v>Ford</v>
+        <f>VLOOKUP(B4,B$56:C$61,2)</f>
+        <v>Toyota</v>
       </c>
       <c r="D4" t="str">
-        <f t="shared" si="2"/>
-        <v>MTG</v>
+        <f>MID(A4,5,3)</f>
+        <v>CAM</v>
       </c>
       <c r="E4" t="str">
-        <f t="shared" si="3"/>
-        <v>Mustang</v>
+        <f>VLOOKUP(D4,D$56:E$66,2)</f>
+        <v>Camry</v>
       </c>
       <c r="F4" t="str">
-        <f t="shared" si="4"/>
-        <v>08</v>
+        <f>MID(A4,3,2)</f>
+        <v>00</v>
       </c>
       <c r="G4">
-        <f t="shared" si="5"/>
-        <v>17</v>
+        <f>IF(25-F4&lt;0,100-F4+25,25-F4)</f>
+        <v>25</v>
       </c>
       <c r="H4">
-        <v>44946.5</v>
+        <v>85928</v>
       </c>
       <c r="I4">
-        <f t="shared" si="6"/>
-        <v>2643.9117647058824</v>
+        <f>H4/G4</f>
+        <v>3437.12</v>
       </c>
       <c r="J4" t="s">
         <v>21</v>
       </c>
       <c r="K4" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="L4">
-        <v>50000</v>
+        <v>100000</v>
       </c>
       <c r="M4" t="str">
-        <f t="shared" si="7"/>
+        <f>IF(H4&lt;=L4,"Y", "N")</f>
         <v>Y</v>
       </c>
       <c r="N4" t="str">
-        <f t="shared" si="8"/>
-        <v>FD08MTGGRE003</v>
+        <f>CONCATENATE(B4,F4,D4,UPPER(LEFT(J4,3)),RIGHT(A4,3))</f>
+        <v>TY00CAMGRE022</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>23</v>
+        <v>46</v>
       </c>
       <c r="B5" t="str">
-        <f t="shared" si="0"/>
-        <v>FD</v>
+        <f>LEFT(A5,2)</f>
+        <v>GM</v>
       </c>
       <c r="C5" t="str">
-        <f t="shared" si="1"/>
-        <v>Ford</v>
+        <f>VLOOKUP(B5,B$56:C$61,2)</f>
+        <v>General Motors</v>
       </c>
       <c r="D5" t="str">
-        <f t="shared" si="2"/>
-        <v>MTG</v>
+        <f>MID(A5,5,3)</f>
+        <v>SLV</v>
       </c>
       <c r="E5" t="str">
-        <f t="shared" si="3"/>
-        <v>Mustang</v>
+        <f>VLOOKUP(D5,D$56:E$66,2)</f>
+        <v>Silverado</v>
       </c>
       <c r="F5" t="str">
-        <f t="shared" si="4"/>
-        <v>08</v>
+        <f>MID(A5,3,2)</f>
+        <v>98</v>
       </c>
       <c r="G5">
-        <f t="shared" si="5"/>
-        <v>17</v>
+        <f>IF(25-F5&lt;0,100-F5+25,25-F5)</f>
+        <v>27</v>
       </c>
       <c r="H5">
-        <v>37558.800000000003</v>
+        <v>83162.7</v>
       </c>
       <c r="I5">
-        <f t="shared" si="6"/>
-        <v>2209.3411764705884</v>
+        <f>H5/G5</f>
+        <v>3080.1</v>
       </c>
       <c r="J5" t="s">
         <v>15</v>
       </c>
       <c r="K5" t="s">
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="L5">
-        <v>50000</v>
+        <v>100000</v>
       </c>
       <c r="M5" t="str">
-        <f t="shared" si="7"/>
+        <f>IF(H5&lt;=L5,"Y", "N")</f>
         <v>Y</v>
       </c>
       <c r="N5" t="str">
-        <f t="shared" si="8"/>
-        <v>FD08MTGBLA004</v>
+        <f>CONCATENATE(B5,F5,D5,UPPER(LEFT(J5,3)),RIGHT(A5,3))</f>
+        <v>GM98SLVBLA018</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>25</v>
+        <v>63</v>
       </c>
       <c r="B6" t="str">
-        <f t="shared" si="0"/>
-        <v>FD</v>
+        <f>LEFT(A6,2)</f>
+        <v>HO</v>
       </c>
       <c r="C6" t="str">
-        <f t="shared" si="1"/>
-        <v>Ford</v>
+        <f>VLOOKUP(B6,B$56:C$61,2)</f>
+        <v>Honda</v>
       </c>
       <c r="D6" t="str">
-        <f t="shared" si="2"/>
-        <v>MTG</v>
+        <f>MID(A6,5,3)</f>
+        <v>CIV</v>
       </c>
       <c r="E6" t="str">
-        <f t="shared" si="3"/>
-        <v>Mustang</v>
+        <f>VLOOKUP(D6,D$56:E$66,2)</f>
+        <v>Civic</v>
       </c>
       <c r="F6" t="str">
-        <f t="shared" si="4"/>
-        <v>08</v>
+        <f>MID(A6,3,2)</f>
+        <v>99</v>
       </c>
       <c r="G6">
-        <f t="shared" si="5"/>
-        <v>17</v>
+        <f>IF(25-F6&lt;0,100-F6+25,25-F6)</f>
+        <v>26</v>
       </c>
       <c r="H6">
-        <v>36438.5</v>
+        <v>82374</v>
       </c>
       <c r="I6">
-        <f t="shared" si="6"/>
-        <v>2143.4411764705883</v>
+        <f>H6/G6</f>
+        <v>3168.2307692307691</v>
       </c>
       <c r="J6" t="s">
         <v>18</v>
       </c>
       <c r="K6" t="s">
-        <v>16</v>
+        <v>38</v>
       </c>
       <c r="L6">
-        <v>50000</v>
+        <v>75000</v>
       </c>
       <c r="M6" t="str">
-        <f t="shared" si="7"/>
-        <v>Y</v>
+        <f>IF(H6&lt;=L6,"Y", "N")</f>
+        <v>N</v>
       </c>
       <c r="N6" t="str">
-        <f t="shared" si="8"/>
-        <v>FD08MTGWHI005</v>
+        <f>CONCATENATE(B6,F6,D6,UPPER(LEFT(J6,3)),RIGHT(A6,3))</f>
+        <v>HO99CIVWHI030</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>119</v>
+        <v>47</v>
       </c>
       <c r="B7" t="str">
-        <f t="shared" si="0"/>
-        <v>FD</v>
+        <f>LEFT(A7,2)</f>
+        <v>GM</v>
       </c>
       <c r="C7" t="str">
-        <f t="shared" si="1"/>
-        <v>Ford</v>
+        <f>VLOOKUP(B7,B$56:C$61,2)</f>
+        <v>General Motors</v>
       </c>
       <c r="D7" t="str">
-        <f t="shared" si="2"/>
-        <v>FCS</v>
+        <f>MID(A7,5,3)</f>
+        <v>SLV</v>
       </c>
       <c r="E7" t="str">
-        <f t="shared" si="3"/>
-        <v>Focus</v>
+        <f>VLOOKUP(D7,D$56:E$66,2)</f>
+        <v>Silverado</v>
       </c>
       <c r="F7" t="str">
-        <f t="shared" si="4"/>
-        <v>06</v>
+        <f>MID(A7,3,2)</f>
+        <v>00</v>
       </c>
       <c r="G7">
-        <f t="shared" si="5"/>
-        <v>19</v>
+        <f>IF(25-F7&lt;0,100-F7+25,25-F7)</f>
+        <v>25</v>
       </c>
       <c r="H7">
-        <v>46311.4</v>
+        <v>80685.8</v>
       </c>
       <c r="I7">
-        <f t="shared" si="6"/>
-        <v>2437.4421052631578</v>
+        <f>H7/G7</f>
+        <v>3227.4320000000002</v>
       </c>
       <c r="J7" t="s">
-        <v>21</v>
+        <v>48</v>
       </c>
       <c r="K7" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="L7">
-        <v>75000</v>
+        <v>100000</v>
       </c>
       <c r="M7" t="str">
-        <f t="shared" si="7"/>
+        <f>IF(H7&lt;=L7,"Y", "N")</f>
         <v>Y</v>
       </c>
       <c r="N7" t="str">
-        <f t="shared" si="8"/>
-        <v>FD06FCSGRE006</v>
+        <f>CONCATENATE(B7,F7,D7,UPPER(LEFT(J7,3)),RIGHT(A7,3))</f>
+        <v>GM00SLVBLU019</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>27</v>
+        <v>76</v>
       </c>
       <c r="B8" t="str">
-        <f t="shared" si="0"/>
-        <v>FD</v>
+        <f>LEFT(A8,2)</f>
+        <v>CR</v>
       </c>
       <c r="C8" t="str">
-        <f t="shared" si="1"/>
-        <v>Ford</v>
+        <f>VLOOKUP(B8,B$56:C$61,2)</f>
+        <v>Chrystler</v>
       </c>
       <c r="D8" t="str">
-        <f t="shared" si="2"/>
-        <v>FCS</v>
+        <f>MID(A8,5,3)</f>
+        <v>CAR</v>
       </c>
       <c r="E8" t="str">
-        <f t="shared" si="3"/>
-        <v>Focus</v>
+        <f>VLOOKUP(D8,D$56:E$66,2)</f>
+        <v>Caravan</v>
       </c>
       <c r="F8" t="str">
-        <f t="shared" si="4"/>
-        <v>06</v>
+        <f>MID(A8,3,2)</f>
+        <v>99</v>
       </c>
       <c r="G8">
-        <f t="shared" si="5"/>
-        <v>19</v>
+        <f>IF(25-F8&lt;0,100-F8+25,25-F8)</f>
+        <v>26</v>
       </c>
       <c r="H8">
-        <v>52229.5</v>
+        <v>79420.600000000006</v>
       </c>
       <c r="I8">
-        <f t="shared" si="6"/>
-        <v>2748.9210526315787</v>
+        <f>H8/G8</f>
+        <v>3054.6384615384618</v>
       </c>
       <c r="J8" t="s">
         <v>21</v>
       </c>
       <c r="K8" t="s">
-        <v>22</v>
+        <v>45</v>
       </c>
       <c r="L8">
         <v>75000</v>
       </c>
       <c r="M8" t="str">
-        <f t="shared" si="7"/>
-        <v>Y</v>
+        <f>IF(H8&lt;=L8,"Y", "N")</f>
+        <v>N</v>
       </c>
       <c r="N8" t="str">
-        <f t="shared" si="8"/>
-        <v>FD06FCSGRE007</v>
+        <f>CONCATENATE(B8,F8,D8,UPPER(LEFT(J8,3)),RIGHT(A8,3))</f>
+        <v>CR99CARGRE045</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>28</v>
+        <v>77</v>
       </c>
       <c r="B9" t="str">
-        <f t="shared" si="0"/>
-        <v>FD</v>
+        <f>LEFT(A9,2)</f>
+        <v>CR</v>
       </c>
       <c r="C9" t="str">
-        <f t="shared" si="1"/>
-        <v>Ford</v>
+        <f>VLOOKUP(B9,B$56:C$61,2)</f>
+        <v>Chrystler</v>
       </c>
       <c r="D9" t="str">
-        <f t="shared" si="2"/>
-        <v>FCS</v>
+        <f>MID(A9,5,3)</f>
+        <v>CAR</v>
       </c>
       <c r="E9" t="str">
-        <f t="shared" si="3"/>
-        <v>Focus</v>
+        <f>VLOOKUP(D9,D$56:E$66,2)</f>
+        <v>Caravan</v>
       </c>
       <c r="F9" t="str">
-        <f t="shared" si="4"/>
-        <v>09</v>
+        <f>MID(A9,3,2)</f>
+        <v>00</v>
       </c>
       <c r="G9">
-        <f t="shared" si="5"/>
-        <v>16</v>
+        <f>IF(25-F9&lt;0,100-F9+25,25-F9)</f>
+        <v>25</v>
       </c>
       <c r="H9">
-        <v>35137</v>
+        <v>77243.100000000006</v>
       </c>
       <c r="I9">
-        <f t="shared" si="6"/>
-        <v>2196.0625</v>
+        <f>H9/G9</f>
+        <v>3089.7240000000002</v>
       </c>
       <c r="J9" t="s">
         <v>15</v>
       </c>
       <c r="K9" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="L9">
         <v>75000</v>
       </c>
       <c r="M9" t="str">
-        <f t="shared" si="7"/>
-        <v>Y</v>
+        <f>IF(H9&lt;=L9,"Y", "N")</f>
+        <v>N</v>
       </c>
       <c r="N9" t="str">
-        <f t="shared" si="8"/>
-        <v>FD09FCSBLA008</v>
+        <f>CONCATENATE(B9,F9,D9,UPPER(LEFT(J9,3)),RIGHT(A9,3))</f>
+        <v>CR00CARBLA046</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>30</v>
+        <v>59</v>
       </c>
       <c r="B10" t="str">
-        <f t="shared" si="0"/>
-        <v>FD</v>
+        <f>LEFT(A10,2)</f>
+        <v>TY</v>
       </c>
       <c r="C10" t="str">
-        <f t="shared" si="1"/>
-        <v>Ford</v>
+        <f>VLOOKUP(B10,B$56:C$61,2)</f>
+        <v>Toyota</v>
       </c>
       <c r="D10" t="str">
-        <f t="shared" si="2"/>
-        <v>FCS</v>
+        <f>MID(A10,5,3)</f>
+        <v>COR</v>
       </c>
       <c r="E10" t="str">
-        <f t="shared" si="3"/>
-        <v>Focus</v>
+        <f>VLOOKUP(D10,D$56:E$66,2)</f>
+        <v>Corolla</v>
       </c>
       <c r="F10" t="str">
-        <f t="shared" si="4"/>
-        <v>13</v>
+        <f>MID(A10,3,2)</f>
+        <v>03</v>
       </c>
       <c r="G10">
-        <f t="shared" si="5"/>
-        <v>12</v>
+        <f>IF(25-F10&lt;0,100-F10+25,25-F10)</f>
+        <v>22</v>
       </c>
       <c r="H10">
-        <v>27637.1</v>
+        <v>73444.399999999994</v>
       </c>
       <c r="I10">
-        <f t="shared" si="6"/>
-        <v>2303.0916666666667</v>
+        <f>H10/G10</f>
+        <v>3338.3818181818178</v>
       </c>
       <c r="J10" t="s">
         <v>15</v>
       </c>
       <c r="K10" t="s">
-        <v>16</v>
+        <v>58</v>
       </c>
       <c r="L10">
-        <v>75000</v>
+        <v>100000</v>
       </c>
       <c r="M10" t="str">
-        <f t="shared" si="7"/>
+        <f>IF(H10&lt;=L10,"Y", "N")</f>
         <v>Y</v>
       </c>
       <c r="N10" t="str">
-        <f t="shared" si="8"/>
-        <v>FD13FCSBLA009</v>
+        <f>CONCATENATE(B10,F10,D10,UPPER(LEFT(J10,3)),RIGHT(A10,3))</f>
+        <v>TY03CORBLA026</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>31</v>
+        <v>78</v>
       </c>
       <c r="B11" t="str">
-        <f t="shared" si="0"/>
-        <v>FD</v>
+        <f>LEFT(A11,2)</f>
+        <v>CR</v>
       </c>
       <c r="C11" t="str">
-        <f t="shared" si="1"/>
-        <v>Ford</v>
+        <f>VLOOKUP(B11,B$56:C$61,2)</f>
+        <v>Chrystler</v>
       </c>
       <c r="D11" t="str">
-        <f t="shared" si="2"/>
-        <v>FCS</v>
+        <f>MID(A11,5,3)</f>
+        <v>CAR</v>
       </c>
       <c r="E11" t="str">
-        <f t="shared" si="3"/>
-        <v>Focus</v>
+        <f>VLOOKUP(D11,D$56:E$66,2)</f>
+        <v>Caravan</v>
       </c>
       <c r="F11" t="str">
-        <f t="shared" si="4"/>
-        <v>13</v>
+        <f>MID(A11,3,2)</f>
+        <v>04</v>
       </c>
       <c r="G11">
-        <f t="shared" si="5"/>
-        <v>12</v>
+        <f>IF(25-F11&lt;0,100-F11+25,25-F11)</f>
+        <v>21</v>
       </c>
       <c r="H11">
-        <v>27534.799999999999</v>
+        <v>72527.199999999997</v>
       </c>
       <c r="I11">
-        <f t="shared" si="6"/>
-        <v>2294.5666666666666</v>
+        <f>H11/G11</f>
+        <v>3453.6761904761902</v>
       </c>
       <c r="J11" t="s">
         <v>18</v>
       </c>
       <c r="K11" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="L11">
         <v>75000</v>
       </c>
       <c r="M11" t="str">
-        <f t="shared" si="7"/>
+        <f>IF(H11&lt;=L11,"Y", "N")</f>
         <v>Y</v>
       </c>
       <c r="N11" t="str">
-        <f t="shared" si="8"/>
-        <v>FD13FCSWHI010</v>
+        <f>CONCATENATE(B11,F11,D11,UPPER(LEFT(J11,3)),RIGHT(A11,3))</f>
+        <v>CR04CARWHI047</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>33</v>
+        <v>64</v>
       </c>
       <c r="B12" t="str">
-        <f t="shared" si="0"/>
-        <v>FD</v>
+        <f>LEFT(A12,2)</f>
+        <v>HO</v>
       </c>
       <c r="C12" t="str">
-        <f t="shared" si="1"/>
-        <v>Ford</v>
+        <f>VLOOKUP(B12,B$56:C$61,2)</f>
+        <v>Honda</v>
       </c>
       <c r="D12" t="str">
-        <f t="shared" si="2"/>
-        <v>FCS</v>
+        <f>MID(A12,5,3)</f>
+        <v>CIV</v>
       </c>
       <c r="E12" t="str">
-        <f t="shared" si="3"/>
-        <v>Focus</v>
+        <f>VLOOKUP(D12,D$56:E$66,2)</f>
+        <v>Civic</v>
       </c>
       <c r="F12" t="str">
-        <f t="shared" si="4"/>
-        <v>12</v>
+        <f>MID(A12,3,2)</f>
+        <v>01</v>
       </c>
       <c r="G12">
-        <f t="shared" si="5"/>
-        <v>13</v>
+        <f>IF(25-F12&lt;0,100-F12+25,25-F12)</f>
+        <v>24</v>
       </c>
       <c r="H12">
-        <v>19341.7</v>
+        <v>69891.899999999994</v>
       </c>
       <c r="I12">
-        <f t="shared" si="6"/>
-        <v>1487.823076923077</v>
+        <f>H12/G12</f>
+        <v>2912.1624999999999</v>
       </c>
       <c r="J12" t="s">
-        <v>18</v>
+        <v>48</v>
       </c>
       <c r="K12" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="L12">
         <v>75000</v>
       </c>
       <c r="M12" t="str">
-        <f t="shared" si="7"/>
+        <f>IF(H12&lt;=L12,"Y", "N")</f>
         <v>Y</v>
       </c>
       <c r="N12" t="str">
-        <f t="shared" si="8"/>
-        <v>FD12FCSWHI011</v>
+        <f>CONCATENATE(B12,F12,D12,UPPER(LEFT(J12,3)),RIGHT(A12,3))</f>
+        <v>HO01CIVBLU031</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>35</v>
+        <v>118</v>
       </c>
       <c r="B13" t="str">
-        <f t="shared" si="0"/>
-        <v>FD</v>
+        <f>LEFT(A13,2)</f>
+        <v>HO</v>
       </c>
       <c r="C13" t="str">
-        <f t="shared" si="1"/>
-        <v>Ford</v>
+        <f>VLOOKUP(B13,B$56:C$61,2)</f>
+        <v>Honda</v>
       </c>
       <c r="D13" t="str">
-        <f t="shared" si="2"/>
-        <v>FCS</v>
+        <f>MID(A13,5,3)</f>
+        <v>ODY</v>
       </c>
       <c r="E13" t="str">
-        <f t="shared" si="3"/>
-        <v>Focus</v>
+        <f>VLOOKUP(D13,D$56:E$66,2)</f>
+        <v>Odyssy</v>
       </c>
       <c r="F13" t="str">
-        <f t="shared" si="4"/>
-        <v>13</v>
+        <f>MID(A13,3,2)</f>
+        <v>01</v>
       </c>
       <c r="G13">
-        <f t="shared" si="5"/>
-        <v>12</v>
+        <f>IF(25-F13&lt;0,100-F13+25,25-F13)</f>
+        <v>24</v>
       </c>
       <c r="H13">
-        <v>22521.599999999999</v>
+        <v>68658.899999999994</v>
       </c>
       <c r="I13">
-        <f t="shared" si="6"/>
-        <v>1876.8</v>
+        <f>H13/G13</f>
+        <v>2860.7874999999999</v>
       </c>
       <c r="J13" t="s">
         <v>15</v>
       </c>
       <c r="K13" t="s">
-        <v>36</v>
+        <v>16</v>
       </c>
       <c r="L13">
-        <v>75000</v>
+        <v>100000</v>
       </c>
       <c r="M13" t="str">
-        <f t="shared" si="7"/>
+        <f>IF(H13&lt;=L13,"Y", "N")</f>
         <v>Y</v>
       </c>
       <c r="N13" t="str">
-        <f t="shared" si="8"/>
-        <v>FD13FCSBLA012</v>
+        <f>CONCATENATE(B13,F13,D13,UPPER(LEFT(J13,3)),RIGHT(A13,3))</f>
+        <v>HO01ODYBLA040</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>37</v>
+        <v>54</v>
       </c>
       <c r="B14" t="str">
-        <f t="shared" si="0"/>
-        <v>FD</v>
+        <f>LEFT(A14,2)</f>
+        <v>TY</v>
       </c>
       <c r="C14" t="str">
         <f>VLOOKUP(B14,B$56:C$61,2)</f>
-        <v>Ford</v>
+        <v>Toyota</v>
       </c>
       <c r="D14" t="str">
-        <f t="shared" si="2"/>
-        <v>FCS</v>
+        <f>MID(A14,5,3)</f>
+        <v>CAM</v>
       </c>
       <c r="E14" t="str">
-        <f t="shared" si="3"/>
-        <v>Focus</v>
+        <f>VLOOKUP(D14,D$56:E$66,2)</f>
+        <v>Camry</v>
       </c>
       <c r="F14" t="str">
-        <f t="shared" si="4"/>
-        <v>13</v>
+        <f>MID(A14,3,2)</f>
+        <v>02</v>
       </c>
       <c r="G14">
-        <f t="shared" si="5"/>
-        <v>12</v>
+        <f>IF(25-F14&lt;0,100-F14+25,25-F14)</f>
+        <v>23</v>
       </c>
       <c r="H14">
-        <v>13682.9</v>
+        <v>67829.100000000006</v>
       </c>
       <c r="I14">
-        <f t="shared" si="6"/>
-        <v>1140.2416666666666</v>
+        <f>H14/G14</f>
+        <v>2949.0913043478263</v>
       </c>
       <c r="J14" t="s">
         <v>15</v>
       </c>
       <c r="K14" t="s">
-        <v>38</v>
+        <v>16</v>
       </c>
       <c r="L14">
-        <v>75000</v>
+        <v>100000</v>
       </c>
       <c r="M14" t="str">
-        <f t="shared" si="7"/>
+        <f>IF(H14&lt;=L14,"Y", "N")</f>
         <v>Y</v>
       </c>
       <c r="N14" t="str">
-        <f t="shared" si="8"/>
-        <v>FD13FCSBLA013</v>
+        <f>CONCATENATE(B14,F14,D14,UPPER(LEFT(J14,3)),RIGHT(A14,3))</f>
+        <v>TY02CAMBLA023</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>120</v>
+        <v>73</v>
       </c>
       <c r="B15" t="str">
-        <f t="shared" si="0"/>
-        <v>GM</v>
+        <f>LEFT(A15,2)</f>
+        <v>CR</v>
       </c>
       <c r="C15" t="str">
-        <f t="shared" si="1"/>
-        <v>General Motors</v>
+        <f>VLOOKUP(B15,B$56:C$61,2)</f>
+        <v>Chrystler</v>
       </c>
       <c r="D15" t="str">
-        <f t="shared" si="2"/>
-        <v>CMR</v>
+        <f>MID(A15,5,3)</f>
+        <v>PTC</v>
       </c>
       <c r="E15" t="str">
-        <f t="shared" si="3"/>
-        <v>Camero</v>
+        <f>VLOOKUP(D15,D$56:E$66,2)</f>
+        <v>PT Cruiser</v>
       </c>
       <c r="F15" t="str">
-        <f t="shared" si="4"/>
-        <v>09</v>
+        <f>MID(A15,3,2)</f>
+        <v>04</v>
       </c>
       <c r="G15">
-        <f t="shared" si="5"/>
+        <f>IF(25-F15&lt;0,100-F15+25,25-F15)</f>
+        <v>21</v>
+      </c>
+      <c r="H15">
+        <v>64542</v>
+      </c>
+      <c r="I15">
+        <f>H15/G15</f>
+        <v>3073.4285714285716</v>
+      </c>
+      <c r="J15" t="s">
+        <v>48</v>
+      </c>
+      <c r="K15" t="s">
         <v>16</v>
       </c>
-      <c r="H15">
-        <v>28464.799999999999</v>
-      </c>
-      <c r="I15">
-        <f t="shared" si="6"/>
-        <v>1779.05</v>
-      </c>
-      <c r="J15" t="s">
-        <v>18</v>
-      </c>
-      <c r="K15" t="s">
-        <v>39</v>
-      </c>
       <c r="L15">
-        <v>100000</v>
+        <v>75000</v>
       </c>
       <c r="M15" t="str">
-        <f t="shared" si="7"/>
+        <f>IF(H15&lt;=L15,"Y", "N")</f>
         <v>Y</v>
       </c>
       <c r="N15" t="str">
-        <f t="shared" si="8"/>
-        <v>GM09CMRWHI014</v>
+        <f>CONCATENATE(B15,F15,D15,UPPER(LEFT(J15,3)),RIGHT(A15,3))</f>
+        <v>CR04PTCBLU042</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>40</v>
+        <v>56</v>
       </c>
       <c r="B16" t="str">
-        <f t="shared" si="0"/>
-        <v>GM</v>
+        <f>LEFT(A16,2)</f>
+        <v>TY</v>
       </c>
       <c r="C16" t="str">
-        <f t="shared" si="1"/>
-        <v>General Motors</v>
+        <f>VLOOKUP(B16,B$56:C$61,2)</f>
+        <v>Toyota</v>
       </c>
       <c r="D16" t="str">
-        <f t="shared" si="2"/>
-        <v>CMR</v>
+        <f>MID(A16,5,3)</f>
+        <v>COR</v>
       </c>
       <c r="E16" t="str">
-        <f t="shared" si="3"/>
-        <v>Camero</v>
+        <f>VLOOKUP(D16,D$56:E$66,2)</f>
+        <v>Corolla</v>
       </c>
       <c r="F16" t="str">
-        <f t="shared" si="4"/>
-        <v>12</v>
+        <f>MID(A16,3,2)</f>
+        <v>02</v>
       </c>
       <c r="G16">
-        <f t="shared" si="5"/>
-        <v>13</v>
+        <f>IF(25-F16&lt;0,100-F16+25,25-F16)</f>
+        <v>23</v>
       </c>
       <c r="H16">
-        <v>19421.099999999999</v>
+        <v>64467.4</v>
       </c>
       <c r="I16">
-        <f t="shared" si="6"/>
-        <v>1493.9307692307691</v>
+        <f>H16/G16</f>
+        <v>2802.9304347826087</v>
       </c>
       <c r="J16" t="s">
-        <v>15</v>
+        <v>57</v>
       </c>
       <c r="K16" t="s">
-        <v>41</v>
+        <v>58</v>
       </c>
       <c r="L16">
         <v>100000</v>
       </c>
       <c r="M16" t="str">
-        <f t="shared" si="7"/>
+        <f>IF(H16&lt;=L16,"Y", "N")</f>
         <v>Y</v>
       </c>
       <c r="N16" t="str">
-        <f t="shared" si="8"/>
-        <v>GM12CMRBLA015</v>
+        <f>CONCATENATE(B16,F16,D16,UPPER(LEFT(J16,3)),RIGHT(A16,3))</f>
+        <v>TY02CORRED025</v>
       </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>42</v>
+        <v>121</v>
       </c>
       <c r="B17" t="str">
-        <f t="shared" si="0"/>
-        <v>GM</v>
+        <f>LEFT(A17,2)</f>
+        <v>HO</v>
       </c>
       <c r="C17" t="str">
-        <f t="shared" si="1"/>
-        <v>General Motors</v>
+        <f>VLOOKUP(B17,B$56:C$61,2)</f>
+        <v>Honda</v>
       </c>
       <c r="D17" t="str">
-        <f t="shared" si="2"/>
-        <v>CMR</v>
+        <f>MID(A17,5,3)</f>
+        <v>ODY</v>
       </c>
       <c r="E17" t="str">
-        <f t="shared" si="3"/>
-        <v>Camero</v>
+        <f>VLOOKUP(D17,D$56:E$66,2)</f>
+        <v>Odyssy</v>
       </c>
       <c r="F17" t="str">
-        <f t="shared" si="4"/>
-        <v>14</v>
+        <f>MID(A17,3,2)</f>
+        <v>05</v>
       </c>
       <c r="G17">
-        <f t="shared" si="5"/>
-        <v>11</v>
+        <f>IF(25-F17&lt;0,100-F17+25,25-F17)</f>
+        <v>20</v>
       </c>
       <c r="H17">
-        <v>14289.6</v>
+        <v>60389.5</v>
       </c>
       <c r="I17">
-        <f t="shared" si="6"/>
-        <v>1299.0545454545454</v>
+        <f>H17/G17</f>
+        <v>3019.4749999999999</v>
       </c>
       <c r="J17" t="s">
         <v>18</v>
       </c>
       <c r="K17" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="L17">
         <v>100000</v>
       </c>
       <c r="M17" t="str">
-        <f t="shared" si="7"/>
+        <f>IF(H17&lt;=L17,"Y", "N")</f>
         <v>Y</v>
       </c>
       <c r="N17" t="str">
-        <f t="shared" si="8"/>
-        <v>GM14CMRWHI016</v>
+        <f>CONCATENATE(B17,F17,D17,UPPER(LEFT(J17,3)),RIGHT(A17,3))</f>
+        <v>HO05ODYWHI037</v>
       </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="B18" t="str">
-        <f t="shared" si="0"/>
-        <v>GM</v>
+        <f>LEFT(A18,2)</f>
+        <v>CR</v>
       </c>
       <c r="C18" t="str">
-        <f t="shared" si="1"/>
-        <v>General Motors</v>
+        <f>VLOOKUP(B18,B$56:C$61,2)</f>
+        <v>Chrystler</v>
       </c>
       <c r="D18" t="str">
-        <f t="shared" si="2"/>
-        <v>SLV</v>
+        <f>MID(A18,5,3)</f>
+        <v>CAR</v>
       </c>
       <c r="E18" t="str">
-        <f t="shared" si="3"/>
-        <v>Silverado</v>
+        <f>VLOOKUP(D18,D$56:E$66,2)</f>
+        <v>Caravan</v>
       </c>
       <c r="F18" t="str">
-        <f t="shared" si="4"/>
-        <v>10</v>
+        <f>MID(A18,3,2)</f>
+        <v>04</v>
       </c>
       <c r="G18">
-        <f t="shared" si="5"/>
-        <v>15</v>
+        <f>IF(25-F18&lt;0,100-F18+25,25-F18)</f>
+        <v>21</v>
       </c>
       <c r="H18">
-        <v>31144.400000000001</v>
+        <v>52699.4</v>
       </c>
       <c r="I18">
-        <f t="shared" si="6"/>
-        <v>2076.2933333333335</v>
+        <f>H18/G18</f>
+        <v>2509.4952380952382</v>
       </c>
       <c r="J18" t="s">
-        <v>15</v>
+        <v>57</v>
       </c>
       <c r="K18" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="L18">
-        <v>100000</v>
+        <v>75000</v>
       </c>
       <c r="M18" t="str">
-        <f t="shared" si="7"/>
+        <f>IF(H18&lt;=L18,"Y", "N")</f>
         <v>Y</v>
       </c>
       <c r="N18" t="str">
-        <f t="shared" si="8"/>
-        <v>GM10SLVBLA017</v>
+        <f>CONCATENATE(B18,F18,D18,UPPER(LEFT(J18,3)),RIGHT(A18,3))</f>
+        <v>CR04CARRED048</v>
       </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>46</v>
+        <v>27</v>
       </c>
       <c r="B19" t="str">
-        <f t="shared" si="0"/>
-        <v>GM</v>
+        <f>LEFT(A19,2)</f>
+        <v>FD</v>
       </c>
       <c r="C19" t="str">
-        <f t="shared" si="1"/>
-        <v>General Motors</v>
+        <f>VLOOKUP(B19,B$56:C$61,2)</f>
+        <v>Ford</v>
       </c>
       <c r="D19" t="str">
-        <f t="shared" si="2"/>
-        <v>SLV</v>
+        <f>MID(A19,5,3)</f>
+        <v>FCS</v>
       </c>
       <c r="E19" t="str">
-        <f t="shared" si="3"/>
-        <v>Silverado</v>
+        <f>VLOOKUP(D19,D$56:E$66,2)</f>
+        <v>Focus</v>
       </c>
       <c r="F19" t="str">
-        <f t="shared" si="4"/>
-        <v>98</v>
+        <f>MID(A19,3,2)</f>
+        <v>06</v>
       </c>
       <c r="G19">
-        <f t="shared" si="5"/>
-        <v>27</v>
+        <f>IF(25-F19&lt;0,100-F19+25,25-F19)</f>
+        <v>19</v>
       </c>
       <c r="H19">
-        <v>83162.7</v>
+        <v>52229.5</v>
       </c>
       <c r="I19">
-        <f t="shared" si="6"/>
-        <v>3080.1</v>
+        <f>H19/G19</f>
+        <v>2748.9210526315787</v>
       </c>
       <c r="J19" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="K19" t="s">
-        <v>39</v>
+        <v>22</v>
       </c>
       <c r="L19">
-        <v>100000</v>
+        <v>75000</v>
       </c>
       <c r="M19" t="str">
-        <f t="shared" si="7"/>
+        <f>IF(H19&lt;=L19,"Y", "N")</f>
         <v>Y</v>
       </c>
       <c r="N19" t="str">
-        <f t="shared" si="8"/>
-        <v>GM98SLVBLA018</v>
+        <f>CONCATENATE(B19,F19,D19,UPPER(LEFT(J19,3)),RIGHT(A19,3))</f>
+        <v>FD06FCSGRE007</v>
       </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>47</v>
+        <v>70</v>
       </c>
       <c r="B20" t="str">
-        <f t="shared" si="0"/>
-        <v>GM</v>
+        <f>LEFT(A20,2)</f>
+        <v>HO</v>
       </c>
       <c r="C20" t="str">
-        <f t="shared" si="1"/>
-        <v>General Motors</v>
+        <f>VLOOKUP(B20,B$56:C$61,2)</f>
+        <v>Honda</v>
       </c>
       <c r="D20" t="str">
-        <f t="shared" si="2"/>
-        <v>SLV</v>
+        <f>MID(A20,5,3)</f>
+        <v>ODY</v>
       </c>
       <c r="E20" t="str">
-        <f t="shared" si="3"/>
-        <v>Silverado</v>
+        <f>VLOOKUP(D20,D$56:E$66,2)</f>
+        <v>Odyssy</v>
       </c>
       <c r="F20" t="str">
-        <f t="shared" si="4"/>
-        <v>00</v>
+        <f>MID(A20,3,2)</f>
+        <v>07</v>
       </c>
       <c r="G20">
-        <f t="shared" si="5"/>
-        <v>25</v>
+        <f>IF(25-F20&lt;0,100-F20+25,25-F20)</f>
+        <v>18</v>
       </c>
       <c r="H20">
-        <v>80685.8</v>
+        <v>50854.1</v>
       </c>
       <c r="I20">
-        <f t="shared" si="6"/>
-        <v>3227.4320000000002</v>
+        <f>H20/G20</f>
+        <v>2825.2277777777776</v>
       </c>
       <c r="J20" t="s">
-        <v>48</v>
+        <v>15</v>
       </c>
       <c r="K20" t="s">
-        <v>36</v>
+        <v>52</v>
       </c>
       <c r="L20">
         <v>100000</v>
       </c>
       <c r="M20" t="str">
-        <f t="shared" si="7"/>
+        <f>IF(H20&lt;=L20,"Y", "N")</f>
         <v>Y</v>
       </c>
       <c r="N20" t="str">
-        <f t="shared" si="8"/>
-        <v>GM00SLVBLU019</v>
+        <f>CONCATENATE(B20,F20,D20,UPPER(LEFT(J20,3)),RIGHT(A20,3))</f>
+        <v>HO07ODYBLA038</v>
       </c>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="B21" t="str">
-        <f t="shared" si="0"/>
+        <f>LEFT(A21,2)</f>
         <v>TY</v>
       </c>
       <c r="C21" t="str">
-        <f t="shared" si="1"/>
+        <f>VLOOKUP(B21,B$56:C$61,2)</f>
         <v>Toyota</v>
       </c>
       <c r="D21" t="str">
-        <f t="shared" si="2"/>
+        <f>MID(A21,5,3)</f>
         <v>CAM</v>
       </c>
       <c r="E21" t="str">
-        <f t="shared" si="3"/>
+        <f>VLOOKUP(D21,D$56:E$66,2)</f>
         <v>Camry</v>
       </c>
       <c r="F21" t="str">
-        <f t="shared" si="4"/>
-        <v>96</v>
+        <f>MID(A21,3,2)</f>
+        <v>09</v>
       </c>
       <c r="G21">
-        <f t="shared" si="5"/>
+        <f>IF(25-F21&lt;0,100-F21+25,25-F21)</f>
+        <v>16</v>
+      </c>
+      <c r="H21">
+        <v>48114.2</v>
+      </c>
+      <c r="I21">
+        <f>H21/G21</f>
+        <v>3007.1374999999998</v>
+      </c>
+      <c r="J21" t="s">
+        <v>18</v>
+      </c>
+      <c r="K21" t="s">
         <v>29</v>
-      </c>
-      <c r="H21">
-        <v>114660.6</v>
-      </c>
-      <c r="I21">
-        <f t="shared" si="6"/>
-        <v>3953.8137931034485</v>
-      </c>
-      <c r="J21" t="s">
-        <v>21</v>
-      </c>
-      <c r="K21" t="s">
-        <v>50</v>
       </c>
       <c r="L21">
         <v>100000</v>
       </c>
       <c r="M21" t="str">
-        <f t="shared" si="7"/>
-        <v>N</v>
+        <f>IF(H21&lt;=L21,"Y", "N")</f>
+        <v>Y</v>
       </c>
       <c r="N21" t="str">
-        <f t="shared" si="8"/>
-        <v>TY96CAMGRE020</v>
+        <f>CONCATENATE(B21,F21,D21,UPPER(LEFT(J21,3)),RIGHT(A21,3))</f>
+        <v>TY09CAMWHI024</v>
       </c>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>51</v>
+        <v>119</v>
       </c>
       <c r="B22" t="str">
-        <f t="shared" si="0"/>
-        <v>TY</v>
+        <f>LEFT(A22,2)</f>
+        <v>FD</v>
       </c>
       <c r="C22" t="str">
-        <f t="shared" si="1"/>
-        <v>Toyota</v>
+        <f>VLOOKUP(B22,B$56:C$61,2)</f>
+        <v>Ford</v>
       </c>
       <c r="D22" t="str">
-        <f t="shared" si="2"/>
-        <v>CAM</v>
+        <f>MID(A22,5,3)</f>
+        <v>FCS</v>
       </c>
       <c r="E22" t="str">
-        <f t="shared" si="3"/>
-        <v>Camry</v>
+        <f>VLOOKUP(D22,D$56:E$66,2)</f>
+        <v>Focus</v>
       </c>
       <c r="F22" t="str">
-        <f t="shared" si="4"/>
-        <v>98</v>
+        <f>MID(A22,3,2)</f>
+        <v>06</v>
       </c>
       <c r="G22">
-        <f t="shared" si="5"/>
-        <v>27</v>
+        <f>IF(25-F22&lt;0,100-F22+25,25-F22)</f>
+        <v>19</v>
       </c>
       <c r="H22">
-        <v>93382.6</v>
+        <v>46311.4</v>
       </c>
       <c r="I22">
-        <f t="shared" si="6"/>
-        <v>3458.614814814815</v>
+        <f>H22/G22</f>
+        <v>2437.4421052631578</v>
       </c>
       <c r="J22" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="K22" t="s">
-        <v>52</v>
+        <v>26</v>
       </c>
       <c r="L22">
-        <v>100000</v>
+        <v>75000</v>
       </c>
       <c r="M22" t="str">
-        <f t="shared" si="7"/>
+        <f>IF(H22&lt;=L22,"Y", "N")</f>
         <v>Y</v>
       </c>
       <c r="N22" t="str">
-        <f t="shared" si="8"/>
-        <v>TY98CAMBLA021</v>
+        <f>CONCATENATE(B22,F22,D22,UPPER(LEFT(J22,3)),RIGHT(A22,3))</f>
+        <v>FD06FCSGRE006</v>
       </c>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>53</v>
+        <v>17</v>
       </c>
       <c r="B23" t="str">
-        <f t="shared" si="0"/>
-        <v>TY</v>
+        <f>LEFT(A23,2)</f>
+        <v>FD</v>
       </c>
       <c r="C23" t="str">
-        <f t="shared" si="1"/>
-        <v>Toyota</v>
+        <f>VLOOKUP(B23,B$56:C$61,2)</f>
+        <v>Ford</v>
       </c>
       <c r="D23" t="str">
-        <f t="shared" si="2"/>
-        <v>CAM</v>
+        <f>MID(A23,5,3)</f>
+        <v>MTG</v>
       </c>
       <c r="E23" t="str">
-        <f t="shared" si="3"/>
-        <v>Camry</v>
+        <f>VLOOKUP(D23,D$56:E$66,2)</f>
+        <v>Mustang</v>
       </c>
       <c r="F23" t="str">
-        <f t="shared" si="4"/>
-        <v>00</v>
+        <f>MID(A23,3,2)</f>
+        <v>06</v>
       </c>
       <c r="G23">
-        <f t="shared" si="5"/>
-        <v>25</v>
+        <f>IF(25-F23&lt;0,100-F23+25,25-F23)</f>
+        <v>19</v>
       </c>
       <c r="H23">
-        <v>85928</v>
+        <v>44974.8</v>
       </c>
       <c r="I23">
-        <f t="shared" si="6"/>
-        <v>3437.12</v>
+        <f>H23/G23</f>
+        <v>2367.0947368421052</v>
       </c>
       <c r="J23" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="K23" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="L23">
-        <v>100000</v>
+        <v>50000</v>
       </c>
       <c r="M23" t="str">
-        <f t="shared" si="7"/>
+        <f>IF(H23&lt;=L23,"Y", "N")</f>
         <v>Y</v>
       </c>
       <c r="N23" t="str">
-        <f t="shared" si="8"/>
-        <v>TY00CAMGRE022</v>
+        <f>CONCATENATE(B23,F23,D23,UPPER(LEFT(J23,3)),RIGHT(A23,3))</f>
+        <v>FD06MTGWHI002</v>
       </c>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>54</v>
+        <v>20</v>
       </c>
       <c r="B24" t="str">
-        <f t="shared" si="0"/>
-        <v>TY</v>
+        <f>LEFT(A24,2)</f>
+        <v>FD</v>
       </c>
       <c r="C24" t="str">
-        <f t="shared" si="1"/>
-        <v>Toyota</v>
+        <f>VLOOKUP(B24,B$56:C$61,2)</f>
+        <v>Ford</v>
       </c>
       <c r="D24" t="str">
-        <f t="shared" si="2"/>
-        <v>CAM</v>
+        <f>MID(A24,5,3)</f>
+        <v>MTG</v>
       </c>
       <c r="E24" t="str">
-        <f t="shared" si="3"/>
-        <v>Camry</v>
+        <f>VLOOKUP(D24,D$56:E$66,2)</f>
+        <v>Mustang</v>
       </c>
       <c r="F24" t="str">
-        <f t="shared" si="4"/>
-        <v>02</v>
+        <f>MID(A24,3,2)</f>
+        <v>08</v>
       </c>
       <c r="G24">
-        <f t="shared" si="5"/>
-        <v>23</v>
+        <f>IF(25-F24&lt;0,100-F24+25,25-F24)</f>
+        <v>17</v>
       </c>
       <c r="H24">
-        <v>67829.100000000006</v>
+        <v>44946.5</v>
       </c>
       <c r="I24">
-        <f t="shared" si="6"/>
-        <v>2949.0913043478263</v>
+        <f>H24/G24</f>
+        <v>2643.9117647058824</v>
       </c>
       <c r="J24" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="K24" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="L24">
-        <v>100000</v>
+        <v>50000</v>
       </c>
       <c r="M24" t="str">
-        <f t="shared" si="7"/>
+        <f>IF(H24&lt;=L24,"Y", "N")</f>
         <v>Y</v>
       </c>
       <c r="N24" t="str">
-        <f t="shared" si="8"/>
-        <v>TY02CAMBLA023</v>
+        <f>CONCATENATE(B24,F24,D24,UPPER(LEFT(J24,3)),RIGHT(A24,3))</f>
+        <v>FD08MTGGRE003</v>
       </c>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>55</v>
+        <v>71</v>
       </c>
       <c r="B25" t="str">
-        <f t="shared" si="0"/>
-        <v>TY</v>
+        <f>LEFT(A25,2)</f>
+        <v>HO</v>
       </c>
       <c r="C25" t="str">
-        <f t="shared" si="1"/>
-        <v>Toyota</v>
+        <f>VLOOKUP(B25,B$56:C$61,2)</f>
+        <v>Honda</v>
       </c>
       <c r="D25" t="str">
-        <f t="shared" si="2"/>
-        <v>CAM</v>
+        <f>MID(A25,5,3)</f>
+        <v>ODY</v>
       </c>
       <c r="E25" t="str">
-        <f t="shared" si="3"/>
-        <v>Camry</v>
+        <f>VLOOKUP(D25,D$56:E$66,2)</f>
+        <v>Odyssy</v>
       </c>
       <c r="F25" t="str">
-        <f t="shared" si="4"/>
-        <v>09</v>
+        <f>MID(A25,3,2)</f>
+        <v>08</v>
       </c>
       <c r="G25">
-        <f t="shared" si="5"/>
-        <v>16</v>
+        <f>IF(25-F25&lt;0,100-F25+25,25-F25)</f>
+        <v>17</v>
       </c>
       <c r="H25">
-        <v>48114.2</v>
+        <v>42504.6</v>
       </c>
       <c r="I25">
-        <f t="shared" si="6"/>
-        <v>3007.1374999999998</v>
+        <f>H25/G25</f>
+        <v>2500.2705882352939</v>
       </c>
       <c r="J25" t="s">
         <v>18</v>
       </c>
       <c r="K25" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="L25">
         <v>100000</v>
       </c>
       <c r="M25" t="str">
-        <f t="shared" si="7"/>
+        <f>IF(H25&lt;=L25,"Y", "N")</f>
         <v>Y</v>
       </c>
       <c r="N25" t="str">
-        <f t="shared" si="8"/>
-        <v>TY09CAMWHI024</v>
+        <f>CONCATENATE(B25,F25,D25,UPPER(LEFT(J25,3)),RIGHT(A25,3))</f>
+        <v>HO08ODYWHI039</v>
       </c>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>56</v>
+        <v>74</v>
       </c>
       <c r="B26" t="str">
-        <f t="shared" si="0"/>
-        <v>TY</v>
+        <f>LEFT(A26,2)</f>
+        <v>CR</v>
       </c>
       <c r="C26" t="str">
-        <f t="shared" si="1"/>
-        <v>Toyota</v>
+        <f>VLOOKUP(B26,B$56:C$61,2)</f>
+        <v>Chrystler</v>
       </c>
       <c r="D26" t="str">
-        <f t="shared" si="2"/>
-        <v>COR</v>
+        <f>MID(A26,5,3)</f>
+        <v>PTC</v>
       </c>
       <c r="E26" t="str">
-        <f t="shared" si="3"/>
-        <v>Corolla</v>
+        <f>VLOOKUP(D26,D$56:E$66,2)</f>
+        <v>PT Cruiser</v>
       </c>
       <c r="F26" t="str">
-        <f t="shared" si="4"/>
-        <v>02</v>
+        <f>MID(A26,3,2)</f>
+        <v>07</v>
       </c>
       <c r="G26">
-        <f t="shared" si="5"/>
-        <v>23</v>
+        <f>IF(25-F26&lt;0,100-F26+25,25-F26)</f>
+        <v>18</v>
       </c>
       <c r="H26">
-        <v>64467.4</v>
+        <v>42074.2</v>
       </c>
       <c r="I26">
-        <f t="shared" si="6"/>
-        <v>2802.9304347826087</v>
+        <f>H26/G26</f>
+        <v>2337.4555555555553</v>
       </c>
       <c r="J26" t="s">
-        <v>57</v>
+        <v>21</v>
       </c>
       <c r="K26" t="s">
         <v>58</v>
       </c>
       <c r="L26">
-        <v>100000</v>
+        <v>75000</v>
       </c>
       <c r="M26" t="str">
-        <f t="shared" si="7"/>
+        <f>IF(H26&lt;=L26,"Y", "N")</f>
         <v>Y</v>
       </c>
       <c r="N26" t="str">
-        <f t="shared" si="8"/>
-        <v>TY02CORRED025</v>
+        <f>CONCATENATE(B26,F26,D26,UPPER(LEFT(J26,3)),RIGHT(A26,3))</f>
+        <v>CR07PTCGRE043</v>
       </c>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>59</v>
+        <v>14</v>
       </c>
       <c r="B27" t="str">
-        <f t="shared" si="0"/>
-        <v>TY</v>
+        <f>LEFT(A27,2)</f>
+        <v>FD</v>
       </c>
       <c r="C27" t="str">
-        <f t="shared" si="1"/>
-        <v>Toyota</v>
+        <f>VLOOKUP(B27,B$56:C$61,2)</f>
+        <v>Ford</v>
       </c>
       <c r="D27" t="str">
-        <f t="shared" si="2"/>
-        <v>COR</v>
+        <f>MID(A27,5,3)</f>
+        <v>MTG</v>
       </c>
       <c r="E27" t="str">
-        <f t="shared" si="3"/>
-        <v>Corolla</v>
+        <f>VLOOKUP(D27,D$56:E$66,2)</f>
+        <v>Mustang</v>
       </c>
       <c r="F27" t="str">
-        <f t="shared" si="4"/>
-        <v>03</v>
+        <f>MID(A27,3,2)</f>
+        <v>06</v>
       </c>
       <c r="G27">
-        <f t="shared" si="5"/>
-        <v>22</v>
+        <f>IF(25-F27&lt;0,100-F27+25,25-F27)</f>
+        <v>19</v>
       </c>
       <c r="H27">
-        <v>73444.399999999994</v>
+        <v>40326.800000000003</v>
       </c>
       <c r="I27">
-        <f t="shared" si="6"/>
-        <v>3338.3818181818178</v>
+        <f>H27/G27</f>
+        <v>2122.4631578947369</v>
       </c>
       <c r="J27" t="s">
         <v>15</v>
       </c>
       <c r="K27" t="s">
-        <v>58</v>
+        <v>16</v>
       </c>
       <c r="L27">
-        <v>100000</v>
+        <v>50000</v>
       </c>
       <c r="M27" t="str">
-        <f t="shared" si="7"/>
+        <f>IF(H27&lt;=L27,"Y", "N")</f>
         <v>Y</v>
       </c>
       <c r="N27" t="str">
-        <f t="shared" si="8"/>
-        <v>TY03CORBLA026</v>
+        <f>CONCATENATE(B27,F27,D27,UPPER(LEFT(J27,3)),RIGHT(A27,3))</f>
+        <v>FD06MTGBLA001</v>
       </c>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>60</v>
+        <v>23</v>
       </c>
       <c r="B28" t="str">
-        <f t="shared" si="0"/>
-        <v>TY</v>
+        <f>LEFT(A28,2)</f>
+        <v>FD</v>
       </c>
       <c r="C28" t="str">
-        <f t="shared" si="1"/>
-        <v>Toyota</v>
+        <f>VLOOKUP(B28,B$56:C$61,2)</f>
+        <v>Ford</v>
       </c>
       <c r="D28" t="str">
-        <f t="shared" si="2"/>
-        <v>COR</v>
+        <f>MID(A28,5,3)</f>
+        <v>MTG</v>
       </c>
       <c r="E28" t="str">
-        <f t="shared" si="3"/>
-        <v>Corolla</v>
+        <f>VLOOKUP(D28,D$56:E$66,2)</f>
+        <v>Mustang</v>
       </c>
       <c r="F28" t="str">
-        <f t="shared" si="4"/>
-        <v>14</v>
+        <f>MID(A28,3,2)</f>
+        <v>08</v>
       </c>
       <c r="G28">
-        <f t="shared" si="5"/>
-        <v>11</v>
+        <f>IF(25-F28&lt;0,100-F28+25,25-F28)</f>
+        <v>17</v>
       </c>
       <c r="H28">
-        <v>17556.3</v>
+        <v>37558.800000000003</v>
       </c>
       <c r="I28">
-        <f t="shared" si="6"/>
-        <v>1596.0272727272727</v>
+        <f>H28/G28</f>
+        <v>2209.3411764705884</v>
       </c>
       <c r="J28" t="s">
-        <v>48</v>
+        <v>15</v>
       </c>
       <c r="K28" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="L28">
-        <v>100000</v>
+        <v>50000</v>
       </c>
       <c r="M28" t="str">
-        <f t="shared" si="7"/>
+        <f>IF(H28&lt;=L28,"Y", "N")</f>
         <v>Y</v>
       </c>
       <c r="N28" t="str">
-        <f t="shared" si="8"/>
-        <v>TY14CORBLU027</v>
+        <f>CONCATENATE(B28,F28,D28,UPPER(LEFT(J28,3)),RIGHT(A28,3))</f>
+        <v>FD08MTGBLA004</v>
       </c>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
-        <v>61</v>
+        <v>25</v>
       </c>
       <c r="B29" t="str">
-        <f t="shared" si="0"/>
-        <v>TY</v>
+        <f>LEFT(A29,2)</f>
+        <v>FD</v>
       </c>
       <c r="C29" t="str">
-        <f t="shared" si="1"/>
-        <v>Toyota</v>
+        <f>VLOOKUP(B29,B$56:C$61,2)</f>
+        <v>Ford</v>
       </c>
       <c r="D29" t="str">
-        <f t="shared" si="2"/>
-        <v>COR</v>
+        <f>MID(A29,5,3)</f>
+        <v>MTG</v>
       </c>
       <c r="E29" t="str">
-        <f t="shared" si="3"/>
-        <v>Corolla</v>
+        <f>VLOOKUP(D29,D$56:E$66,2)</f>
+        <v>Mustang</v>
       </c>
       <c r="F29" t="str">
-        <f t="shared" si="4"/>
-        <v>12</v>
+        <f>MID(A29,3,2)</f>
+        <v>08</v>
       </c>
       <c r="G29">
-        <f t="shared" si="5"/>
-        <v>13</v>
+        <f>IF(25-F29&lt;0,100-F29+25,25-F29)</f>
+        <v>17</v>
       </c>
       <c r="H29">
-        <v>29601.9</v>
+        <v>36438.5</v>
       </c>
       <c r="I29">
-        <f t="shared" si="6"/>
-        <v>2277.0692307692307</v>
+        <f>H29/G29</f>
+        <v>2143.4411764705883</v>
       </c>
       <c r="J29" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="K29" t="s">
-        <v>39</v>
+        <v>16</v>
       </c>
       <c r="L29">
-        <v>100000</v>
+        <v>50000</v>
       </c>
       <c r="M29" t="str">
-        <f t="shared" si="7"/>
+        <f>IF(H29&lt;=L29,"Y", "N")</f>
         <v>Y</v>
       </c>
       <c r="N29" t="str">
-        <f t="shared" si="8"/>
-        <v>TY12CORBLA028</v>
+        <f>CONCATENATE(B29,F29,D29,UPPER(LEFT(J29,3)),RIGHT(A29,3))</f>
+        <v>FD08MTGWHI005</v>
       </c>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
-        <v>62</v>
+        <v>28</v>
       </c>
       <c r="B30" t="str">
-        <f t="shared" si="0"/>
-        <v>TY</v>
+        <f>LEFT(A30,2)</f>
+        <v>FD</v>
       </c>
       <c r="C30" t="str">
-        <f t="shared" si="1"/>
-        <v>Toyota</v>
+        <f>VLOOKUP(B30,B$56:C$61,2)</f>
+        <v>Ford</v>
       </c>
       <c r="D30" t="str">
-        <f t="shared" si="2"/>
-        <v>CAM</v>
+        <f>MID(A30,5,3)</f>
+        <v>FCS</v>
       </c>
       <c r="E30" t="str">
-        <f t="shared" si="3"/>
-        <v>Camry</v>
+        <f>VLOOKUP(D30,D$56:E$66,2)</f>
+        <v>Focus</v>
       </c>
       <c r="F30" t="str">
-        <f t="shared" si="4"/>
-        <v>12</v>
+        <f>MID(A30,3,2)</f>
+        <v>09</v>
       </c>
       <c r="G30">
-        <f t="shared" si="5"/>
-        <v>13</v>
+        <f>IF(25-F30&lt;0,100-F30+25,25-F30)</f>
+        <v>16</v>
       </c>
       <c r="H30">
-        <v>22128.2</v>
+        <v>35137</v>
       </c>
       <c r="I30">
-        <f t="shared" si="6"/>
-        <v>1702.1692307692308</v>
+        <f>H30/G30</f>
+        <v>2196.0625</v>
       </c>
       <c r="J30" t="s">
-        <v>48</v>
+        <v>15</v>
       </c>
       <c r="K30" t="s">
-        <v>50</v>
+        <v>29</v>
       </c>
       <c r="L30">
-        <v>100000</v>
+        <v>75000</v>
       </c>
       <c r="M30" t="str">
-        <f t="shared" si="7"/>
+        <f>IF(H30&lt;=L30,"Y", "N")</f>
         <v>Y</v>
       </c>
       <c r="N30" t="str">
-        <f t="shared" si="8"/>
-        <v>TY12CAMBLU029</v>
+        <f>CONCATENATE(B30,F30,D30,UPPER(LEFT(J30,3)),RIGHT(A30,3))</f>
+        <v>FD09FCSBLA008</v>
       </c>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B31" t="str">
-        <f t="shared" si="0"/>
+        <f>LEFT(A31,2)</f>
         <v>HO</v>
       </c>
       <c r="C31" t="str">
-        <f t="shared" si="1"/>
+        <f>VLOOKUP(B31,B$56:C$61,2)</f>
         <v>Honda</v>
       </c>
       <c r="D31" t="str">
-        <f t="shared" si="2"/>
+        <f>MID(A31,5,3)</f>
         <v>CIV</v>
       </c>
       <c r="E31" t="str">
-        <f t="shared" si="3"/>
+        <f>VLOOKUP(D31,D$56:E$66,2)</f>
         <v>Civic</v>
       </c>
       <c r="F31" t="str">
-        <f t="shared" si="4"/>
-        <v>99</v>
+        <f>MID(A31,3,2)</f>
+        <v>10</v>
       </c>
       <c r="G31">
-        <f t="shared" si="5"/>
-        <v>26</v>
+        <f>IF(25-F31&lt;0,100-F31+25,25-F31)</f>
+        <v>15</v>
       </c>
       <c r="H31">
-        <v>82374</v>
+        <v>33477.199999999997</v>
       </c>
       <c r="I31">
-        <f t="shared" si="6"/>
-        <v>3168.2307692307691</v>
+        <f>H31/G31</f>
+        <v>2231.813333333333</v>
       </c>
       <c r="J31" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="K31" t="s">
-        <v>38</v>
+        <v>52</v>
       </c>
       <c r="L31">
         <v>75000</v>
       </c>
       <c r="M31" t="str">
-        <f t="shared" si="7"/>
-        <v>N</v>
+        <f>IF(H31&lt;=L31,"Y", "N")</f>
+        <v>Y</v>
       </c>
       <c r="N31" t="str">
-        <f t="shared" si="8"/>
-        <v>HO99CIVWHI030</v>
+        <f>CONCATENATE(B31,F31,D31,UPPER(LEFT(J31,3)),RIGHT(A31,3))</f>
+        <v>HO10CIVBLA033</v>
       </c>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
-        <v>64</v>
+        <v>44</v>
       </c>
       <c r="B32" t="str">
-        <f t="shared" si="0"/>
-        <v>HO</v>
+        <f>LEFT(A32,2)</f>
+        <v>GM</v>
       </c>
       <c r="C32" t="str">
-        <f t="shared" si="1"/>
-        <v>Honda</v>
+        <f>VLOOKUP(B32,B$56:C$61,2)</f>
+        <v>General Motors</v>
       </c>
       <c r="D32" t="str">
-        <f t="shared" si="2"/>
-        <v>CIV</v>
+        <f>MID(A32,5,3)</f>
+        <v>SLV</v>
       </c>
       <c r="E32" t="str">
-        <f t="shared" si="3"/>
-        <v>Civic</v>
+        <f>VLOOKUP(D32,D$56:E$66,2)</f>
+        <v>Silverado</v>
       </c>
       <c r="F32" t="str">
-        <f t="shared" si="4"/>
-        <v>01</v>
+        <f>MID(A32,3,2)</f>
+        <v>10</v>
       </c>
       <c r="G32">
-        <f t="shared" si="5"/>
-        <v>24</v>
+        <f>IF(25-F32&lt;0,100-F32+25,25-F32)</f>
+        <v>15</v>
       </c>
       <c r="H32">
-        <v>69891.899999999994</v>
+        <v>31144.400000000001</v>
       </c>
       <c r="I32">
-        <f t="shared" si="6"/>
-        <v>2912.1624999999999</v>
+        <f>H32/G32</f>
+        <v>2076.2933333333335</v>
       </c>
       <c r="J32" t="s">
-        <v>48</v>
+        <v>15</v>
       </c>
       <c r="K32" t="s">
-        <v>24</v>
+        <v>45</v>
       </c>
       <c r="L32">
-        <v>75000</v>
+        <v>100000</v>
       </c>
       <c r="M32" t="str">
-        <f t="shared" si="7"/>
+        <f>IF(H32&lt;=L32,"Y", "N")</f>
         <v>Y</v>
       </c>
       <c r="N32" t="str">
-        <f t="shared" si="8"/>
-        <v>HO01CIVBLU031</v>
+        <f>CONCATENATE(B32,F32,D32,UPPER(LEFT(J32,3)),RIGHT(A32,3))</f>
+        <v>GM10SLVBLA017</v>
       </c>
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B33" t="str">
-        <f t="shared" si="0"/>
+        <f>LEFT(A33,2)</f>
         <v>HO</v>
       </c>
       <c r="C33" t="str">
-        <f t="shared" si="1"/>
+        <f>VLOOKUP(B33,B$56:C$61,2)</f>
         <v>Honda</v>
       </c>
       <c r="D33" t="str">
-        <f t="shared" si="2"/>
+        <f>MID(A33,5,3)</f>
         <v>CIV</v>
       </c>
       <c r="E33" t="str">
-        <f t="shared" si="3"/>
+        <f>VLOOKUP(D33,D$56:E$66,2)</f>
         <v>Civic</v>
       </c>
       <c r="F33" t="str">
-        <f t="shared" si="4"/>
-        <v>10</v>
+        <f>MID(A33,3,2)</f>
+        <v>11</v>
       </c>
       <c r="G33">
-        <f t="shared" si="5"/>
+        <f>IF(25-F33&lt;0,100-F33+25,25-F33)</f>
+        <v>14</v>
+      </c>
+      <c r="H33">
+        <v>30555.3</v>
+      </c>
+      <c r="I33">
+        <f>H33/G33</f>
+        <v>2182.5214285714287</v>
+      </c>
+      <c r="J33" t="s">
         <v>15</v>
       </c>
-      <c r="H33">
-        <v>22573</v>
-      </c>
-      <c r="I33">
-        <f t="shared" si="6"/>
-        <v>1504.8666666666666</v>
-      </c>
-      <c r="J33" t="s">
-        <v>48</v>
-      </c>
       <c r="K33" t="s">
-        <v>43</v>
+        <v>22</v>
       </c>
       <c r="L33">
         <v>75000</v>
       </c>
       <c r="M33" t="str">
-        <f t="shared" si="7"/>
+        <f>IF(H33&lt;=L33,"Y", "N")</f>
         <v>Y</v>
       </c>
       <c r="N33" t="str">
-        <f t="shared" si="8"/>
-        <v>HO10CIVBLU032</v>
+        <f>CONCATENATE(B33,F33,D33,UPPER(LEFT(J33,3)),RIGHT(A33,3))</f>
+        <v>HO11CIVBLA034</v>
       </c>
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="B34" t="str">
-        <f t="shared" si="0"/>
-        <v>HO</v>
+        <f>LEFT(A34,2)</f>
+        <v>TY</v>
       </c>
       <c r="C34" t="str">
-        <f t="shared" si="1"/>
-        <v>Honda</v>
+        <f>VLOOKUP(B34,B$56:C$61,2)</f>
+        <v>Toyota</v>
       </c>
       <c r="D34" t="str">
-        <f t="shared" si="2"/>
-        <v>CIV</v>
+        <f>MID(A34,5,3)</f>
+        <v>COR</v>
       </c>
       <c r="E34" t="str">
-        <f t="shared" si="3"/>
-        <v>Civic</v>
+        <f>VLOOKUP(D34,D$56:E$66,2)</f>
+        <v>Corolla</v>
       </c>
       <c r="F34" t="str">
-        <f t="shared" si="4"/>
-        <v>10</v>
+        <f>MID(A34,3,2)</f>
+        <v>12</v>
       </c>
       <c r="G34">
-        <f t="shared" si="5"/>
-        <v>15</v>
+        <f>IF(25-F34&lt;0,100-F34+25,25-F34)</f>
+        <v>13</v>
       </c>
       <c r="H34">
-        <v>33477.199999999997</v>
+        <v>29601.9</v>
       </c>
       <c r="I34">
-        <f t="shared" si="6"/>
-        <v>2231.813333333333</v>
+        <f>H34/G34</f>
+        <v>2277.0692307692307</v>
       </c>
       <c r="J34" t="s">
         <v>15</v>
       </c>
       <c r="K34" t="s">
-        <v>52</v>
+        <v>39</v>
       </c>
       <c r="L34">
-        <v>75000</v>
+        <v>100000</v>
       </c>
       <c r="M34" t="str">
-        <f t="shared" si="7"/>
+        <f>IF(H34&lt;=L34,"Y", "N")</f>
         <v>Y</v>
       </c>
       <c r="N34" t="str">
-        <f t="shared" si="8"/>
-        <v>HO10CIVBLA033</v>
+        <f>CONCATENATE(B34,F34,D34,UPPER(LEFT(J34,3)),RIGHT(A34,3))</f>
+        <v>TY12CORBLA028</v>
       </c>
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
-        <v>67</v>
+        <v>80</v>
       </c>
       <c r="B35" t="str">
-        <f t="shared" si="0"/>
-        <v>HO</v>
+        <f>LEFT(A35,2)</f>
+        <v>HY</v>
       </c>
       <c r="C35" t="str">
-        <f t="shared" si="1"/>
-        <v>Honda</v>
+        <f>VLOOKUP(B35,B$56:C$61,2)</f>
+        <v>Hyundai</v>
       </c>
       <c r="D35" t="str">
-        <f t="shared" si="2"/>
-        <v>CIV</v>
+        <f>MID(A35,5,3)</f>
+        <v>ELA</v>
       </c>
       <c r="E35" t="str">
-        <f t="shared" si="3"/>
-        <v>Civic</v>
+        <f>VLOOKUP(D35,D$56:E$66,2)</f>
+        <v>Elantra</v>
       </c>
       <c r="F35" t="str">
-        <f t="shared" si="4"/>
+        <f>MID(A35,3,2)</f>
         <v>11</v>
       </c>
       <c r="G35">
-        <f t="shared" si="5"/>
+        <f>IF(25-F35&lt;0,100-F35+25,25-F35)</f>
         <v>14</v>
       </c>
       <c r="H35">
-        <v>30555.3</v>
+        <v>29102.3</v>
       </c>
       <c r="I35">
-        <f t="shared" si="6"/>
-        <v>2182.5214285714287</v>
+        <f>H35/G35</f>
+        <v>2078.735714285714</v>
       </c>
       <c r="J35" t="s">
         <v>15</v>
       </c>
       <c r="K35" t="s">
-        <v>22</v>
+        <v>43</v>
       </c>
       <c r="L35">
-        <v>75000</v>
+        <v>100000</v>
       </c>
       <c r="M35" t="str">
-        <f t="shared" si="7"/>
+        <f>IF(H35&lt;=L35,"Y", "N")</f>
         <v>Y</v>
       </c>
       <c r="N35" t="str">
-        <f t="shared" si="8"/>
-        <v>HO11CIVBLA034</v>
+        <f>CONCATENATE(B35,F35,D35,UPPER(LEFT(J35,3)),RIGHT(A35,3))</f>
+        <v>HY11ELABLA049</v>
       </c>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
-        <v>68</v>
+        <v>120</v>
       </c>
       <c r="B36" t="str">
-        <f t="shared" si="0"/>
-        <v>HO</v>
+        <f>LEFT(A36,2)</f>
+        <v>GM</v>
       </c>
       <c r="C36" t="str">
-        <f t="shared" si="1"/>
-        <v>Honda</v>
+        <f>VLOOKUP(B36,B$56:C$61,2)</f>
+        <v>General Motors</v>
       </c>
       <c r="D36" t="str">
-        <f t="shared" si="2"/>
-        <v>CIV</v>
+        <f>MID(A36,5,3)</f>
+        <v>CMR</v>
       </c>
       <c r="E36" t="str">
-        <f t="shared" si="3"/>
-        <v>Civic</v>
+        <f>VLOOKUP(D36,D$56:E$66,2)</f>
+        <v>Camero</v>
       </c>
       <c r="F36" t="str">
-        <f t="shared" si="4"/>
-        <v>12</v>
+        <f>MID(A36,3,2)</f>
+        <v>09</v>
       </c>
       <c r="G36">
-        <f t="shared" si="5"/>
-        <v>13</v>
+        <f>IF(25-F36&lt;0,100-F36+25,25-F36)</f>
+        <v>16</v>
       </c>
       <c r="H36">
-        <v>24513.200000000001</v>
+        <v>28464.799999999999</v>
       </c>
       <c r="I36">
-        <f t="shared" si="6"/>
-        <v>1885.6307692307694</v>
+        <f>H36/G36</f>
+        <v>1779.05</v>
       </c>
       <c r="J36" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="K36" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="L36">
-        <v>75000</v>
+        <v>100000</v>
       </c>
       <c r="M36" t="str">
-        <f t="shared" si="7"/>
+        <f>IF(H36&lt;=L36,"Y", "N")</f>
         <v>Y</v>
       </c>
       <c r="N36" t="str">
-        <f t="shared" si="8"/>
-        <v>HO12CIVBLA035</v>
+        <f>CONCATENATE(B36,F36,D36,UPPER(LEFT(J36,3)),RIGHT(A36,3))</f>
+        <v>GM09CMRWHI014</v>
       </c>
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
-        <v>69</v>
+        <v>30</v>
       </c>
       <c r="B37" t="str">
-        <f t="shared" si="0"/>
-        <v>HO</v>
+        <f>LEFT(A37,2)</f>
+        <v>FD</v>
       </c>
       <c r="C37" t="str">
-        <f t="shared" si="1"/>
-        <v>Honda</v>
+        <f>VLOOKUP(B37,B$56:C$61,2)</f>
+        <v>Ford</v>
       </c>
       <c r="D37" t="str">
-        <f t="shared" si="2"/>
-        <v>CIV</v>
+        <f>MID(A37,5,3)</f>
+        <v>FCS</v>
       </c>
       <c r="E37" t="str">
-        <f t="shared" si="3"/>
-        <v>Civic</v>
+        <f>VLOOKUP(D37,D$56:E$66,2)</f>
+        <v>Focus</v>
       </c>
       <c r="F37" t="str">
-        <f t="shared" si="4"/>
+        <f>MID(A37,3,2)</f>
         <v>13</v>
       </c>
       <c r="G37">
-        <f t="shared" si="5"/>
+        <f>IF(25-F37&lt;0,100-F37+25,25-F37)</f>
         <v>12</v>
       </c>
       <c r="H37">
-        <v>13867.6</v>
+        <v>27637.1</v>
       </c>
       <c r="I37">
-        <f t="shared" si="6"/>
-        <v>1155.6333333333334</v>
+        <f>H37/G37</f>
+        <v>2303.0916666666667</v>
       </c>
       <c r="J37" t="s">
         <v>15</v>
       </c>
       <c r="K37" t="s">
-        <v>50</v>
+        <v>16</v>
       </c>
       <c r="L37">
         <v>75000</v>
       </c>
       <c r="M37" t="str">
-        <f t="shared" si="7"/>
+        <f>IF(H37&lt;=L37,"Y", "N")</f>
         <v>Y</v>
       </c>
       <c r="N37" t="str">
-        <f t="shared" si="8"/>
-        <v>HO13CIVBLA036</v>
+        <f>CONCATENATE(B37,F37,D37,UPPER(LEFT(J37,3)),RIGHT(A37,3))</f>
+        <v>FD13FCSBLA009</v>
       </c>
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
-        <v>121</v>
+        <v>31</v>
       </c>
       <c r="B38" t="str">
-        <f t="shared" si="0"/>
-        <v>HO</v>
+        <f>LEFT(A38,2)</f>
+        <v>FD</v>
       </c>
       <c r="C38" t="str">
-        <f t="shared" si="1"/>
-        <v>Honda</v>
+        <f>VLOOKUP(B38,B$56:C$61,2)</f>
+        <v>Ford</v>
       </c>
       <c r="D38" t="str">
-        <f t="shared" si="2"/>
-        <v>ODY</v>
+        <f>MID(A38,5,3)</f>
+        <v>FCS</v>
       </c>
       <c r="E38" t="str">
-        <f t="shared" si="3"/>
-        <v>Odyssy</v>
+        <f>VLOOKUP(D38,D$56:E$66,2)</f>
+        <v>Focus</v>
       </c>
       <c r="F38" t="str">
-        <f t="shared" si="4"/>
-        <v>05</v>
+        <f>MID(A38,3,2)</f>
+        <v>13</v>
       </c>
       <c r="G38">
-        <f t="shared" si="5"/>
-        <v>20</v>
+        <f>IF(25-F38&lt;0,100-F38+25,25-F38)</f>
+        <v>12</v>
       </c>
       <c r="H38">
-        <v>60389.5</v>
+        <v>27534.799999999999</v>
       </c>
       <c r="I38">
-        <f t="shared" si="6"/>
-        <v>3019.4749999999999</v>
+        <f>H38/G38</f>
+        <v>2294.5666666666666</v>
       </c>
       <c r="J38" t="s">
         <v>18</v>
       </c>
       <c r="K38" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="L38">
-        <v>100000</v>
+        <v>75000</v>
       </c>
       <c r="M38" t="str">
-        <f t="shared" si="7"/>
+        <f>IF(H38&lt;=L38,"Y", "N")</f>
         <v>Y</v>
       </c>
       <c r="N38" t="str">
-        <f t="shared" si="8"/>
-        <v>HO05ODYWHI037</v>
+        <f>CONCATENATE(B38,F38,D38,UPPER(LEFT(J38,3)),RIGHT(A38,3))</f>
+        <v>FD13FCSWHI010</v>
       </c>
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="B39" t="str">
-        <f t="shared" si="0"/>
-        <v>HO</v>
+        <f>LEFT(A39,2)</f>
+        <v>CR</v>
       </c>
       <c r="C39" t="str">
-        <f t="shared" si="1"/>
-        <v>Honda</v>
+        <f>VLOOKUP(B39,B$56:C$61,2)</f>
+        <v>Chrystler</v>
       </c>
       <c r="D39" t="str">
-        <f t="shared" si="2"/>
-        <v>ODY</v>
+        <f>MID(A39,5,3)</f>
+        <v>PTC</v>
       </c>
       <c r="E39" t="str">
-        <f t="shared" si="3"/>
-        <v>Odyssy</v>
+        <f>VLOOKUP(D39,D$56:E$66,2)</f>
+        <v>PT Cruiser</v>
       </c>
       <c r="F39" t="str">
-        <f t="shared" si="4"/>
-        <v>07</v>
+        <f>MID(A39,3,2)</f>
+        <v>11</v>
       </c>
       <c r="G39">
-        <f t="shared" si="5"/>
-        <v>18</v>
+        <f>IF(25-F39&lt;0,100-F39+25,25-F39)</f>
+        <v>14</v>
       </c>
       <c r="H39">
-        <v>50854.1</v>
+        <v>27394.2</v>
       </c>
       <c r="I39">
-        <f t="shared" si="6"/>
-        <v>2825.2277777777776</v>
+        <f>H39/G39</f>
+        <v>1956.7285714285715</v>
       </c>
       <c r="J39" t="s">
         <v>15</v>
       </c>
       <c r="K39" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="L39">
-        <v>100000</v>
+        <v>75000</v>
       </c>
       <c r="M39" t="str">
-        <f t="shared" si="7"/>
+        <f>IF(H39&lt;=L39,"Y", "N")</f>
         <v>Y</v>
       </c>
       <c r="N39" t="str">
-        <f t="shared" si="8"/>
-        <v>HO07ODYBLA038</v>
+        <f>CONCATENATE(B39,F39,D39,UPPER(LEFT(J39,3)),RIGHT(A39,3))</f>
+        <v>CR11PTCBLA044</v>
       </c>
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="B40" t="str">
-        <f t="shared" si="0"/>
+        <f>LEFT(A40,2)</f>
         <v>HO</v>
       </c>
       <c r="C40" t="str">
-        <f t="shared" si="1"/>
+        <f>VLOOKUP(B40,B$56:C$61,2)</f>
         <v>Honda</v>
       </c>
       <c r="D40" t="str">
-        <f t="shared" si="2"/>
-        <v>ODY</v>
+        <f>MID(A40,5,3)</f>
+        <v>CIV</v>
       </c>
       <c r="E40" t="str">
-        <f t="shared" si="3"/>
-        <v>Odyssy</v>
+        <f>VLOOKUP(D40,D$56:E$66,2)</f>
+        <v>Civic</v>
       </c>
       <c r="F40" t="str">
-        <f t="shared" si="4"/>
-        <v>08</v>
+        <f>MID(A40,3,2)</f>
+        <v>12</v>
       </c>
       <c r="G40">
-        <f t="shared" si="5"/>
-        <v>17</v>
+        <f>IF(25-F40&lt;0,100-F40+25,25-F40)</f>
+        <v>13</v>
       </c>
       <c r="H40">
-        <v>42504.6</v>
+        <v>24513.200000000001</v>
       </c>
       <c r="I40">
-        <f t="shared" si="6"/>
-        <v>2500.2705882352939</v>
+        <f>H40/G40</f>
+        <v>1885.6307692307694</v>
       </c>
       <c r="J40" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="K40" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="L40">
-        <v>100000</v>
+        <v>75000</v>
       </c>
       <c r="M40" t="str">
-        <f t="shared" si="7"/>
+        <f>IF(H40&lt;=L40,"Y", "N")</f>
         <v>Y</v>
       </c>
       <c r="N40" t="str">
-        <f t="shared" si="8"/>
-        <v>HO08ODYWHI039</v>
+        <f>CONCATENATE(B40,F40,D40,UPPER(LEFT(J40,3)),RIGHT(A40,3))</f>
+        <v>HO12CIVBLA035</v>
       </c>
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
-        <v>118</v>
+        <v>65</v>
       </c>
       <c r="B41" t="str">
-        <f t="shared" si="0"/>
+        <f>LEFT(A41,2)</f>
         <v>HO</v>
       </c>
       <c r="C41" t="str">
-        <f t="shared" si="1"/>
+        <f>VLOOKUP(B41,B$56:C$61,2)</f>
         <v>Honda</v>
       </c>
       <c r="D41" t="str">
         <f>MID(A41,5,3)</f>
-        <v>ODY</v>
+        <v>CIV</v>
       </c>
       <c r="E41" t="str">
-        <f t="shared" si="3"/>
-        <v>Odyssy</v>
+        <f>VLOOKUP(D41,D$56:E$66,2)</f>
+        <v>Civic</v>
       </c>
       <c r="F41" t="str">
-        <f t="shared" si="4"/>
-        <v>01</v>
+        <f>MID(A41,3,2)</f>
+        <v>10</v>
       </c>
       <c r="G41">
-        <f t="shared" si="5"/>
-        <v>24</v>
+        <f>IF(25-F41&lt;0,100-F41+25,25-F41)</f>
+        <v>15</v>
       </c>
       <c r="H41">
-        <v>68658.899999999994</v>
+        <v>22573</v>
       </c>
       <c r="I41">
-        <f t="shared" si="6"/>
-        <v>2860.7874999999999</v>
+        <f>H41/G41</f>
+        <v>1504.8666666666666</v>
       </c>
       <c r="J41" t="s">
-        <v>15</v>
+        <v>48</v>
       </c>
       <c r="K41" t="s">
-        <v>16</v>
+        <v>43</v>
       </c>
       <c r="L41">
-        <v>100000</v>
+        <v>75000</v>
       </c>
       <c r="M41" t="str">
-        <f t="shared" si="7"/>
+        <f>IF(H41&lt;=L41,"Y", "N")</f>
         <v>Y</v>
       </c>
       <c r="N41" t="str">
-        <f t="shared" si="8"/>
-        <v>HO01ODYBLA040</v>
+        <f>CONCATENATE(B41,F41,D41,UPPER(LEFT(J41,3)),RIGHT(A41,3))</f>
+        <v>HO10CIVBLU032</v>
       </c>
     </row>
     <row r="42" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
-        <v>72</v>
+        <v>35</v>
       </c>
       <c r="B42" t="str">
-        <f t="shared" si="0"/>
-        <v>HO</v>
+        <f>LEFT(A42,2)</f>
+        <v>FD</v>
       </c>
       <c r="C42" t="str">
-        <f t="shared" si="1"/>
-        <v>Honda</v>
+        <f>VLOOKUP(B42,B$56:C$61,2)</f>
+        <v>Ford</v>
       </c>
       <c r="D42" t="str">
-        <f t="shared" si="2"/>
-        <v>ODY</v>
+        <f>MID(A42,5,3)</f>
+        <v>FCS</v>
       </c>
       <c r="E42" t="str">
-        <f t="shared" si="3"/>
-        <v>Odyssy</v>
+        <f>VLOOKUP(D42,D$56:E$66,2)</f>
+        <v>Focus</v>
       </c>
       <c r="F42" t="str">
-        <f t="shared" si="4"/>
-        <v>14</v>
+        <f>MID(A42,3,2)</f>
+        <v>13</v>
       </c>
       <c r="G42">
-        <f t="shared" si="5"/>
-        <v>11</v>
+        <f>IF(25-F42&lt;0,100-F42+25,25-F42)</f>
+        <v>12</v>
       </c>
       <c r="H42">
-        <v>3708.1</v>
+        <v>22521.599999999999</v>
       </c>
       <c r="I42">
-        <f t="shared" si="6"/>
-        <v>337.09999999999997</v>
+        <f>H42/G42</f>
+        <v>1876.8</v>
       </c>
       <c r="J42" t="s">
         <v>15</v>
       </c>
       <c r="K42" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="L42">
-        <v>100000</v>
+        <v>75000</v>
       </c>
       <c r="M42" t="str">
-        <f t="shared" si="7"/>
+        <f>IF(H42&lt;=L42,"Y", "N")</f>
         <v>Y</v>
       </c>
       <c r="N42" t="str">
-        <f t="shared" si="8"/>
-        <v>HO14ODYBLA041</v>
+        <f>CONCATENATE(B42,F42,D42,UPPER(LEFT(J42,3)),RIGHT(A42,3))</f>
+        <v>FD13FCSBLA012</v>
       </c>
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="B43" t="str">
-        <f t="shared" si="0"/>
-        <v>CR</v>
+        <f>LEFT(A43,2)</f>
+        <v>HY</v>
       </c>
       <c r="C43" t="str">
-        <f t="shared" si="1"/>
-        <v>Chrystler</v>
+        <f>VLOOKUP(B43,B$56:C$61,2)</f>
+        <v>Hyundai</v>
       </c>
       <c r="D43" t="str">
-        <f t="shared" si="2"/>
-        <v>PTC</v>
+        <f>MID(A43,5,3)</f>
+        <v>ELA</v>
       </c>
       <c r="E43" t="str">
-        <f t="shared" si="3"/>
-        <v>PT Cruiser</v>
+        <f>VLOOKUP(D43,D$56:E$66,2)</f>
+        <v>Elantra</v>
       </c>
       <c r="F43" t="str">
-        <f t="shared" si="4"/>
-        <v>04</v>
+        <f>MID(A43,3,2)</f>
+        <v>12</v>
       </c>
       <c r="G43">
-        <f t="shared" si="5"/>
-        <v>21</v>
+        <f>IF(25-F43&lt;0,100-F43+25,25-F43)</f>
+        <v>13</v>
       </c>
       <c r="H43">
-        <v>64542</v>
+        <v>22282</v>
       </c>
       <c r="I43">
-        <f t="shared" si="6"/>
-        <v>3073.4285714285716</v>
+        <f>H43/G43</f>
+        <v>1714</v>
       </c>
       <c r="J43" t="s">
         <v>48</v>
       </c>
       <c r="K43" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="L43">
-        <v>75000</v>
+        <v>100000</v>
       </c>
       <c r="M43" t="str">
-        <f t="shared" si="7"/>
+        <f>IF(H43&lt;=L43,"Y", "N")</f>
         <v>Y</v>
       </c>
       <c r="N43" t="str">
-        <f t="shared" si="8"/>
-        <v>CR04PTCBLU042</v>
+        <f>CONCATENATE(B43,F43,D43,UPPER(LEFT(J43,3)),RIGHT(A43,3))</f>
+        <v>HY12ELABLU050</v>
       </c>
     </row>
     <row r="44" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="B44" t="str">
-        <f t="shared" si="0"/>
-        <v>CR</v>
+        <f>LEFT(A44,2)</f>
+        <v>HY</v>
       </c>
       <c r="C44" t="str">
-        <f t="shared" si="1"/>
-        <v>Chrystler</v>
+        <f>VLOOKUP(B44,B$56:C$61,2)</f>
+        <v>Hyundai</v>
       </c>
       <c r="D44" t="str">
-        <f t="shared" si="2"/>
-        <v>PTC</v>
+        <f>MID(A44,5,3)</f>
+        <v>ELA</v>
       </c>
       <c r="E44" t="str">
-        <f t="shared" si="3"/>
-        <v>PT Cruiser</v>
+        <f>VLOOKUP(D44,D$56:E$66,2)</f>
+        <v>Elantra</v>
       </c>
       <c r="F44" t="str">
-        <f t="shared" si="4"/>
-        <v>07</v>
+        <f>MID(A44,3,2)</f>
+        <v>13</v>
       </c>
       <c r="G44">
-        <f t="shared" si="5"/>
-        <v>18</v>
+        <f>IF(25-F44&lt;0,100-F44+25,25-F44)</f>
+        <v>12</v>
       </c>
       <c r="H44">
-        <v>42074.2</v>
+        <v>22188.5</v>
       </c>
       <c r="I44">
-        <f t="shared" si="6"/>
-        <v>2337.4555555555553</v>
+        <f>H44/G44</f>
+        <v>1849.0416666666667</v>
       </c>
       <c r="J44" t="s">
-        <v>21</v>
+        <v>48</v>
       </c>
       <c r="K44" t="s">
-        <v>58</v>
+        <v>26</v>
       </c>
       <c r="L44">
-        <v>75000</v>
+        <v>100000</v>
       </c>
       <c r="M44" t="str">
-        <f t="shared" si="7"/>
+        <f>IF(H44&lt;=L44,"Y", "N")</f>
         <v>Y</v>
       </c>
       <c r="N44" t="str">
-        <f t="shared" si="8"/>
-        <v>CR07PTCGRE043</v>
+        <f>CONCATENATE(B44,F44,D44,UPPER(LEFT(J44,3)),RIGHT(A44,3))</f>
+        <v>HY13ELABLU052</v>
       </c>
     </row>
     <row r="45" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
-        <v>75</v>
+        <v>62</v>
       </c>
       <c r="B45" t="str">
-        <f t="shared" si="0"/>
-        <v>CR</v>
+        <f>LEFT(A45,2)</f>
+        <v>TY</v>
       </c>
       <c r="C45" t="str">
-        <f t="shared" si="1"/>
-        <v>Chrystler</v>
+        <f>VLOOKUP(B45,B$56:C$61,2)</f>
+        <v>Toyota</v>
       </c>
       <c r="D45" t="str">
-        <f t="shared" si="2"/>
-        <v>PTC</v>
+        <f>MID(A45,5,3)</f>
+        <v>CAM</v>
       </c>
       <c r="E45" t="str">
-        <f t="shared" si="3"/>
-        <v>PT Cruiser</v>
+        <f>VLOOKUP(D45,D$56:E$66,2)</f>
+        <v>Camry</v>
       </c>
       <c r="F45" t="str">
-        <f t="shared" si="4"/>
-        <v>11</v>
+        <f>MID(A45,3,2)</f>
+        <v>12</v>
       </c>
       <c r="G45">
-        <f t="shared" si="5"/>
-        <v>14</v>
+        <f>IF(25-F45&lt;0,100-F45+25,25-F45)</f>
+        <v>13</v>
       </c>
       <c r="H45">
-        <v>27394.2</v>
+        <v>22128.2</v>
       </c>
       <c r="I45">
-        <f t="shared" si="6"/>
-        <v>1956.7285714285715</v>
+        <f>H45/G45</f>
+        <v>1702.1692307692308</v>
       </c>
       <c r="J45" t="s">
-        <v>15</v>
+        <v>48</v>
       </c>
       <c r="K45" t="s">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="L45">
-        <v>75000</v>
+        <v>100000</v>
       </c>
       <c r="M45" t="str">
-        <f t="shared" si="7"/>
+        <f>IF(H45&lt;=L45,"Y", "N")</f>
         <v>Y</v>
       </c>
       <c r="N45" t="str">
-        <f t="shared" si="8"/>
-        <v>CR11PTCBLA044</v>
+        <f>CONCATENATE(B45,F45,D45,UPPER(LEFT(J45,3)),RIGHT(A45,3))</f>
+        <v>TY12CAMBLU029</v>
       </c>
     </row>
     <row r="46" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="B46" t="str">
-        <f t="shared" si="0"/>
-        <v>CR</v>
+        <f>LEFT(A46,2)</f>
+        <v>HY</v>
       </c>
       <c r="C46" t="str">
-        <f t="shared" si="1"/>
-        <v>Chrystler</v>
+        <f>VLOOKUP(B46,B$56:C$61,2)</f>
+        <v>Hyundai</v>
       </c>
       <c r="D46" t="str">
-        <f t="shared" si="2"/>
-        <v>CAR</v>
+        <f>MID(A46,5,3)</f>
+        <v>ELA</v>
       </c>
       <c r="E46" t="str">
-        <f t="shared" si="3"/>
-        <v>Caravan</v>
+        <f>VLOOKUP(D46,D$56:E$66,2)</f>
+        <v>Elantra</v>
       </c>
       <c r="F46" t="str">
-        <f t="shared" si="4"/>
-        <v>99</v>
+        <f>MID(A46,3,2)</f>
+        <v>13</v>
       </c>
       <c r="G46">
-        <f t="shared" si="5"/>
-        <v>26</v>
+        <f>IF(25-F46&lt;0,100-F46+25,25-F46)</f>
+        <v>12</v>
       </c>
       <c r="H46">
-        <v>79420.600000000006</v>
+        <v>20223.900000000001</v>
       </c>
       <c r="I46">
-        <f t="shared" si="6"/>
-        <v>3054.6384615384618</v>
+        <f>H46/G46</f>
+        <v>1685.325</v>
       </c>
       <c r="J46" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="K46" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="L46">
-        <v>75000</v>
+        <v>100000</v>
       </c>
       <c r="M46" t="str">
-        <f t="shared" si="7"/>
-        <v>N</v>
+        <f>IF(H46&lt;=L46,"Y", "N")</f>
+        <v>Y</v>
       </c>
       <c r="N46" t="str">
-        <f t="shared" si="8"/>
-        <v>CR99CARGRE045</v>
+        <f>CONCATENATE(B46,F46,D46,UPPER(LEFT(J46,3)),RIGHT(A46,3))</f>
+        <v>HY13ELABLA051</v>
       </c>
     </row>
     <row r="47" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="B47" t="str">
-        <f t="shared" si="0"/>
-        <v>CR</v>
+        <f>LEFT(A47,2)</f>
+        <v>GM</v>
       </c>
       <c r="C47" t="str">
-        <f t="shared" si="1"/>
-        <v>Chrystler</v>
+        <f>VLOOKUP(B47,B$56:C$61,2)</f>
+        <v>General Motors</v>
       </c>
       <c r="D47" t="str">
-        <f t="shared" si="2"/>
-        <v>CAR</v>
+        <f>MID(A47,5,3)</f>
+        <v>CMR</v>
       </c>
       <c r="E47" t="str">
-        <f t="shared" si="3"/>
-        <v>Caravan</v>
+        <f>VLOOKUP(D47,D$56:E$66,2)</f>
+        <v>Camero</v>
       </c>
       <c r="F47" t="str">
-        <f t="shared" si="4"/>
-        <v>00</v>
+        <f>MID(A47,3,2)</f>
+        <v>12</v>
       </c>
       <c r="G47">
-        <f t="shared" si="5"/>
-        <v>25</v>
+        <f>IF(25-F47&lt;0,100-F47+25,25-F47)</f>
+        <v>13</v>
       </c>
       <c r="H47">
-        <v>77243.100000000006</v>
+        <v>19421.099999999999</v>
       </c>
       <c r="I47">
-        <f t="shared" si="6"/>
-        <v>3089.7240000000002</v>
+        <f>H47/G47</f>
+        <v>1493.9307692307691</v>
       </c>
       <c r="J47" t="s">
         <v>15</v>
       </c>
       <c r="K47" t="s">
-        <v>24</v>
+        <v>41</v>
       </c>
       <c r="L47">
-        <v>75000</v>
+        <v>100000</v>
       </c>
       <c r="M47" t="str">
-        <f t="shared" si="7"/>
-        <v>N</v>
+        <f>IF(H47&lt;=L47,"Y", "N")</f>
+        <v>Y</v>
       </c>
       <c r="N47" t="str">
-        <f t="shared" si="8"/>
-        <v>CR00CARBLA046</v>
+        <f>CONCATENATE(B47,F47,D47,UPPER(LEFT(J47,3)),RIGHT(A47,3))</f>
+        <v>GM12CMRBLA015</v>
       </c>
     </row>
     <row r="48" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
-        <v>78</v>
+        <v>33</v>
       </c>
       <c r="B48" t="str">
-        <f t="shared" si="0"/>
-        <v>CR</v>
+        <f>LEFT(A48,2)</f>
+        <v>FD</v>
       </c>
       <c r="C48" t="str">
-        <f t="shared" si="1"/>
-        <v>Chrystler</v>
+        <f>VLOOKUP(B48,B$56:C$61,2)</f>
+        <v>Ford</v>
       </c>
       <c r="D48" t="str">
-        <f t="shared" si="2"/>
-        <v>CAR</v>
+        <f>MID(A48,5,3)</f>
+        <v>FCS</v>
       </c>
       <c r="E48" t="str">
-        <f t="shared" si="3"/>
-        <v>Caravan</v>
+        <f>VLOOKUP(D48,D$56:E$66,2)</f>
+        <v>Focus</v>
       </c>
       <c r="F48" t="str">
-        <f t="shared" si="4"/>
-        <v>04</v>
+        <f>MID(A48,3,2)</f>
+        <v>12</v>
       </c>
       <c r="G48">
-        <f t="shared" si="5"/>
-        <v>21</v>
+        <f>IF(25-F48&lt;0,100-F48+25,25-F48)</f>
+        <v>13</v>
       </c>
       <c r="H48">
-        <v>72527.199999999997</v>
+        <v>19341.7</v>
       </c>
       <c r="I48">
-        <f t="shared" si="6"/>
-        <v>3453.6761904761902</v>
+        <f>H48/G48</f>
+        <v>1487.823076923077</v>
       </c>
       <c r="J48" t="s">
         <v>18</v>
       </c>
       <c r="K48" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="L48">
         <v>75000</v>
       </c>
       <c r="M48" t="str">
-        <f t="shared" si="7"/>
+        <f>IF(H48&lt;=L48,"Y", "N")</f>
         <v>Y</v>
       </c>
       <c r="N48" t="str">
-        <f t="shared" si="8"/>
-        <v>CR04CARWHI047</v>
+        <f>CONCATENATE(B48,F48,D48,UPPER(LEFT(J48,3)),RIGHT(A48,3))</f>
+        <v>FD12FCSWHI011</v>
       </c>
     </row>
     <row r="49" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
-        <v>79</v>
+        <v>60</v>
       </c>
       <c r="B49" t="str">
-        <f t="shared" si="0"/>
-        <v>CR</v>
+        <f>LEFT(A49,2)</f>
+        <v>TY</v>
       </c>
       <c r="C49" t="str">
-        <f t="shared" si="1"/>
-        <v>Chrystler</v>
+        <f>VLOOKUP(B49,B$56:C$61,2)</f>
+        <v>Toyota</v>
       </c>
       <c r="D49" t="str">
-        <f t="shared" si="2"/>
-        <v>CAR</v>
+        <f>MID(A49,5,3)</f>
+        <v>COR</v>
       </c>
       <c r="E49" t="str">
-        <f t="shared" si="3"/>
-        <v>Caravan</v>
+        <f>VLOOKUP(D49,D$56:E$66,2)</f>
+        <v>Corolla</v>
       </c>
       <c r="F49" t="str">
-        <f t="shared" si="4"/>
-        <v>04</v>
+        <f>MID(A49,3,2)</f>
+        <v>14</v>
       </c>
       <c r="G49">
-        <f t="shared" si="5"/>
-        <v>21</v>
+        <f>IF(25-F49&lt;0,100-F49+25,25-F49)</f>
+        <v>11</v>
       </c>
       <c r="H49">
-        <v>52699.4</v>
+        <v>17556.3</v>
       </c>
       <c r="I49">
-        <f t="shared" si="6"/>
-        <v>2509.4952380952382</v>
+        <f>H49/G49</f>
+        <v>1596.0272727272727</v>
       </c>
       <c r="J49" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="K49" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="L49">
-        <v>75000</v>
+        <v>100000</v>
       </c>
       <c r="M49" t="str">
-        <f t="shared" si="7"/>
+        <f>IF(H49&lt;=L49,"Y", "N")</f>
         <v>Y</v>
       </c>
       <c r="N49" t="str">
-        <f t="shared" si="8"/>
-        <v>CR04CARRED048</v>
+        <f>CONCATENATE(B49,F49,D49,UPPER(LEFT(J49,3)),RIGHT(A49,3))</f>
+        <v>TY14CORBLU027</v>
       </c>
     </row>
     <row r="50" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
-        <v>80</v>
+        <v>42</v>
       </c>
       <c r="B50" t="str">
-        <f t="shared" si="0"/>
-        <v>HY</v>
+        <f>LEFT(A50,2)</f>
+        <v>GM</v>
       </c>
       <c r="C50" t="str">
-        <f t="shared" si="1"/>
-        <v>Hyundai</v>
+        <f>VLOOKUP(B50,B$56:C$61,2)</f>
+        <v>General Motors</v>
       </c>
       <c r="D50" t="str">
-        <f t="shared" si="2"/>
-        <v>ELA</v>
+        <f>MID(A50,5,3)</f>
+        <v>CMR</v>
       </c>
       <c r="E50" t="str">
-        <f t="shared" si="3"/>
-        <v>Elantra</v>
+        <f>VLOOKUP(D50,D$56:E$66,2)</f>
+        <v>Camero</v>
       </c>
       <c r="F50" t="str">
-        <f t="shared" si="4"/>
+        <f>MID(A50,3,2)</f>
+        <v>14</v>
+      </c>
+      <c r="G50">
+        <f>IF(25-F50&lt;0,100-F50+25,25-F50)</f>
         <v>11</v>
       </c>
-      <c r="G50">
-        <f t="shared" si="5"/>
-        <v>14</v>
-      </c>
       <c r="H50">
-        <v>29102.3</v>
+        <v>14289.6</v>
       </c>
       <c r="I50">
-        <f t="shared" si="6"/>
-        <v>2078.735714285714</v>
+        <f>H50/G50</f>
+        <v>1299.0545454545454</v>
       </c>
       <c r="J50" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="K50" t="s">
         <v>43</v>
@@ -3875,171 +6172,171 @@
         <v>100000</v>
       </c>
       <c r="M50" t="str">
-        <f t="shared" si="7"/>
+        <f>IF(H50&lt;=L50,"Y", "N")</f>
         <v>Y</v>
       </c>
       <c r="N50" t="str">
-        <f t="shared" si="8"/>
-        <v>HY11ELABLA049</v>
+        <f>CONCATENATE(B50,F50,D50,UPPER(LEFT(J50,3)),RIGHT(A50,3))</f>
+        <v>GM14CMRWHI016</v>
       </c>
     </row>
     <row r="51" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
-        <v>81</v>
+        <v>69</v>
       </c>
       <c r="B51" t="str">
-        <f t="shared" si="0"/>
-        <v>HY</v>
+        <f>LEFT(A51,2)</f>
+        <v>HO</v>
       </c>
       <c r="C51" t="str">
-        <f t="shared" si="1"/>
-        <v>Hyundai</v>
+        <f>VLOOKUP(B51,B$56:C$61,2)</f>
+        <v>Honda</v>
       </c>
       <c r="D51" t="str">
-        <f t="shared" si="2"/>
-        <v>ELA</v>
+        <f>MID(A51,5,3)</f>
+        <v>CIV</v>
       </c>
       <c r="E51" t="str">
-        <f t="shared" si="3"/>
-        <v>Elantra</v>
+        <f>VLOOKUP(D51,D$56:E$66,2)</f>
+        <v>Civic</v>
       </c>
       <c r="F51" t="str">
-        <f t="shared" si="4"/>
+        <f>MID(A51,3,2)</f>
+        <v>13</v>
+      </c>
+      <c r="G51">
+        <f>IF(25-F51&lt;0,100-F51+25,25-F51)</f>
         <v>12</v>
       </c>
-      <c r="G51">
-        <f t="shared" si="5"/>
-        <v>13</v>
-      </c>
       <c r="H51">
-        <v>22282</v>
+        <v>13867.6</v>
       </c>
       <c r="I51">
-        <f t="shared" si="6"/>
-        <v>1714</v>
+        <f>H51/G51</f>
+        <v>1155.6333333333334</v>
       </c>
       <c r="J51" t="s">
-        <v>48</v>
+        <v>15</v>
       </c>
       <c r="K51" t="s">
-        <v>19</v>
+        <v>50</v>
       </c>
       <c r="L51">
-        <v>100000</v>
+        <v>75000</v>
       </c>
       <c r="M51" t="str">
-        <f t="shared" si="7"/>
+        <f>IF(H51&lt;=L51,"Y", "N")</f>
         <v>Y</v>
       </c>
       <c r="N51" t="str">
-        <f t="shared" si="8"/>
-        <v>HY12ELABLU050</v>
+        <f>CONCATENATE(B51,F51,D51,UPPER(LEFT(J51,3)),RIGHT(A51,3))</f>
+        <v>HO13CIVBLA036</v>
       </c>
     </row>
     <row r="52" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
-        <v>82</v>
+        <v>37</v>
       </c>
       <c r="B52" t="str">
-        <f t="shared" si="0"/>
-        <v>HY</v>
+        <f>LEFT(A52,2)</f>
+        <v>FD</v>
       </c>
       <c r="C52" t="str">
-        <f t="shared" si="1"/>
-        <v>Hyundai</v>
+        <f>VLOOKUP(B52,B$56:C$61,2)</f>
+        <v>Ford</v>
       </c>
       <c r="D52" t="str">
-        <f t="shared" si="2"/>
-        <v>ELA</v>
+        <f>MID(A52,5,3)</f>
+        <v>FCS</v>
       </c>
       <c r="E52" t="str">
-        <f t="shared" si="3"/>
-        <v>Elantra</v>
+        <f>VLOOKUP(D52,D$56:E$66,2)</f>
+        <v>Focus</v>
       </c>
       <c r="F52" t="str">
-        <f t="shared" si="4"/>
+        <f>MID(A52,3,2)</f>
         <v>13</v>
       </c>
       <c r="G52">
-        <f t="shared" si="5"/>
+        <f>IF(25-F52&lt;0,100-F52+25,25-F52)</f>
         <v>12</v>
       </c>
       <c r="H52">
-        <v>20223.900000000001</v>
+        <v>13682.9</v>
       </c>
       <c r="I52">
-        <f t="shared" si="6"/>
-        <v>1685.325</v>
+        <f>H52/G52</f>
+        <v>1140.2416666666666</v>
       </c>
       <c r="J52" t="s">
         <v>15</v>
       </c>
       <c r="K52" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="L52">
-        <v>100000</v>
+        <v>75000</v>
       </c>
       <c r="M52" t="str">
-        <f t="shared" si="7"/>
+        <f>IF(H52&lt;=L52,"Y", "N")</f>
         <v>Y</v>
       </c>
       <c r="N52" t="str">
-        <f t="shared" si="8"/>
-        <v>HY13ELABLA051</v>
+        <f>CONCATENATE(B52,F52,D52,UPPER(LEFT(J52,3)),RIGHT(A52,3))</f>
+        <v>FD13FCSBLA013</v>
       </c>
     </row>
     <row r="53" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
-        <v>83</v>
+        <v>72</v>
       </c>
       <c r="B53" t="str">
-        <f t="shared" si="0"/>
-        <v>HY</v>
+        <f>LEFT(A53,2)</f>
+        <v>HO</v>
       </c>
       <c r="C53" t="str">
-        <f t="shared" si="1"/>
-        <v>Hyundai</v>
+        <f>VLOOKUP(B53,B$56:C$61,2)</f>
+        <v>Honda</v>
       </c>
       <c r="D53" t="str">
-        <f t="shared" si="2"/>
-        <v>ELA</v>
+        <f>MID(A53,5,3)</f>
+        <v>ODY</v>
       </c>
       <c r="E53" t="str">
-        <f t="shared" si="3"/>
-        <v>Elantra</v>
+        <f>VLOOKUP(D53,D$56:E$66,2)</f>
+        <v>Odyssy</v>
       </c>
       <c r="F53" t="str">
-        <f t="shared" si="4"/>
-        <v>13</v>
+        <f>MID(A53,3,2)</f>
+        <v>14</v>
       </c>
       <c r="G53">
-        <f t="shared" si="5"/>
-        <v>12</v>
+        <f>IF(25-F53&lt;0,100-F53+25,25-F53)</f>
+        <v>11</v>
       </c>
       <c r="H53">
-        <v>22188.5</v>
+        <v>3708.1</v>
       </c>
       <c r="I53">
-        <f t="shared" si="6"/>
-        <v>1849.0416666666667</v>
+        <f>H53/G53</f>
+        <v>337.09999999999997</v>
       </c>
       <c r="J53" t="s">
-        <v>48</v>
+        <v>15</v>
       </c>
       <c r="K53" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="L53">
         <v>100000</v>
       </c>
       <c r="M53" t="str">
-        <f t="shared" si="7"/>
+        <f>IF(H53&lt;=L53,"Y", "N")</f>
         <v>Y</v>
       </c>
       <c r="N53" t="str">
-        <f t="shared" si="8"/>
-        <v>HY13ELABLU052</v>
+        <f>CONCATENATE(B53,F53,D53,UPPER(LEFT(J53,3)),RIGHT(A53,3))</f>
+        <v>HO14ODYBLA041</v>
       </c>
     </row>
     <row r="56" spans="1:14" x14ac:dyDescent="0.35">
@@ -4167,9 +6464,21 @@
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="D56:E66">
-    <sortCondition ref="D56:D66"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:N66">
+    <sortCondition descending="1" ref="H2:H66"/>
   </sortState>
+  <conditionalFormatting sqref="H1:H1048576">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>